--- a/BackTest/2019-10-20 BackTest PST.xlsx
+++ b/BackTest/2019-10-20 BackTest PST.xlsx
@@ -1052,7 +1052,9 @@
       <c r="J15" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
       <c r="L15" t="n">
         <v>81.91</v>
       </c>
@@ -1097,7 +1099,9 @@
       <c r="J16" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>81.91</v>
       </c>
@@ -1142,7 +1146,9 @@
       <c r="J17" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>81.91</v>
       </c>
@@ -1187,7 +1193,9 @@
       <c r="J18" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>81.91</v>
       </c>
@@ -1232,7 +1240,9 @@
       <c r="J19" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-81.81818181818275</v>
+      </c>
       <c r="L19" t="n">
         <v>81.81999999999999</v>
       </c>
@@ -1277,7 +1287,9 @@
       <c r="J20" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-83.33333333333412</v>
+      </c>
       <c r="L20" t="n">
         <v>81.72</v>
       </c>
@@ -1322,7 +1334,9 @@
       <c r="J21" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-83.33333333333412</v>
+      </c>
       <c r="L21" t="n">
         <v>81.61999999999999</v>
       </c>
@@ -1369,7 +1383,9 @@
       <c r="J22" t="n">
         <v>1.299999999999983</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-69.23076923077058</v>
+      </c>
       <c r="L22" t="n">
         <v>81.53</v>
       </c>
@@ -1466,7 +1482,7 @@
         <v>1.399999999999977</v>
       </c>
       <c r="K24" t="n">
-        <v>-71.42857142857258</v>
+        <v>-84.6153846153853</v>
       </c>
       <c r="L24" t="n">
         <v>81.34</v>
@@ -1515,7 +1531,7 @@
         <v>1.399999999999977</v>
       </c>
       <c r="K25" t="n">
-        <v>-71.42857142857258</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="L25" t="n">
         <v>81.22999999999999</v>
@@ -1564,7 +1580,7 @@
         <v>1.399999999999977</v>
       </c>
       <c r="K26" t="n">
-        <v>-71.42857142857258</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="L26" t="n">
         <v>81.13</v>
@@ -1613,7 +1629,7 @@
         <v>1.799999999999983</v>
       </c>
       <c r="K27" t="n">
-        <v>-77.77777777777884</v>
+        <v>-87.50000000000067</v>
       </c>
       <c r="L27" t="n">
         <v>80.98999999999999</v>
@@ -1662,7 +1678,7 @@
         <v>2.299999999999983</v>
       </c>
       <c r="K28" t="n">
-        <v>-82.60869565217477</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="L28" t="n">
         <v>80.8</v>
@@ -1711,7 +1727,7 @@
         <v>4.09999999999998</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.439024390244122</v>
+        <v>31.03448275862048</v>
       </c>
       <c r="L29" t="n">
         <v>80.88</v>
@@ -1760,7 +1776,7 @@
         <v>4.09999999999998</v>
       </c>
       <c r="K30" t="n">
-        <v>-2.439024390244122</v>
+        <v>31.03448275862048</v>
       </c>
       <c r="L30" t="n">
         <v>80.97</v>
@@ -1809,7 +1825,7 @@
         <v>4.09999999999998</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.439024390244122</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L31" t="n">
         <v>81.05999999999999</v>
@@ -1860,7 +1876,7 @@
         <v>5.799999999999983</v>
       </c>
       <c r="K32" t="n">
-        <v>-31.03448275862098</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="L32" t="n">
         <v>80.97</v>
@@ -1911,7 +1927,7 @@
         <v>7.199999999999989</v>
       </c>
       <c r="K33" t="n">
-        <v>-5.555555555555643</v>
+        <v>10.34482758620678</v>
       </c>
       <c r="L33" t="n">
         <v>81.02</v>
@@ -1962,7 +1978,7 @@
         <v>8.499999999999986</v>
       </c>
       <c r="K34" t="n">
-        <v>-20.00000000000007</v>
+        <v>-9.859154929577493</v>
       </c>
       <c r="L34" t="n">
         <v>80.95</v>
@@ -2013,7 +2029,7 @@
         <v>8.599999999999994</v>
       </c>
       <c r="K35" t="n">
-        <v>-22.35294117647065</v>
+        <v>-11.11111111111124</v>
       </c>
       <c r="L35" t="n">
         <v>80.87</v>
@@ -2064,7 +2080,7 @@
         <v>8.699999999999989</v>
       </c>
       <c r="K36" t="n">
-        <v>-22.35294117647065</v>
+        <v>-7.246376811594198</v>
       </c>
       <c r="L36" t="n">
         <v>80.78</v>
@@ -2115,7 +2131,7 @@
         <v>9.399999999999991</v>
       </c>
       <c r="K37" t="n">
-        <v>-28.26086956521748</v>
+        <v>-9.859154929577493</v>
       </c>
       <c r="L37" t="n">
         <v>80.66</v>
@@ -2166,7 +2182,7 @@
         <v>11.5</v>
       </c>
       <c r="K38" t="n">
-        <v>-4.424778761061942</v>
+        <v>-5.405405405405276</v>
       </c>
       <c r="L38" t="n">
         <v>80.8</v>
@@ -2217,7 +2233,7 @@
         <v>11.5</v>
       </c>
       <c r="K39" t="n">
-        <v>3.846153846153898</v>
+        <v>-5.405405405405276</v>
       </c>
       <c r="L39" t="n">
         <v>80.76000000000001</v>
@@ -2268,7 +2284,7 @@
         <v>11.5</v>
       </c>
       <c r="K40" t="n">
-        <v>4.854368932038829</v>
+        <v>-5.405405405405276</v>
       </c>
       <c r="L40" t="n">
         <v>80.72</v>
@@ -2319,7 +2335,7 @@
         <v>13.40000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>-11.47540983606561</v>
+        <v>-7.894736842105164</v>
       </c>
       <c r="L41" t="n">
         <v>80.49000000000001</v>
@@ -2370,7 +2386,7 @@
         <v>13.40000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>-12.39669421487601</v>
+        <v>-32.25806451612894</v>
       </c>
       <c r="L42" t="n">
         <v>80.43000000000001</v>
@@ -2421,7 +2437,7 @@
         <v>14.90000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>12.49999999999992</v>
       </c>
       <c r="L43" t="n">
         <v>80.38000000000001</v>
@@ -2472,7 +2488,7 @@
         <v>15</v>
       </c>
       <c r="K44" t="n">
-        <v>1.470588235294032</v>
+        <v>15.62499999999999</v>
       </c>
       <c r="L44" t="n">
         <v>80.47</v>
@@ -2523,7 +2539,7 @@
         <v>15.30000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>3.597122302158265</v>
+        <v>21.21212121212123</v>
       </c>
       <c r="L45" t="n">
         <v>80.59999999999999</v>
@@ -2574,7 +2590,7 @@
         <v>15.30000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>3.597122302158265</v>
+        <v>35.59322033898307</v>
       </c>
       <c r="L46" t="n">
         <v>80.73999999999999</v>
@@ -2625,7 +2641,7 @@
         <v>15.7</v>
       </c>
       <c r="K47" t="n">
-        <v>9.352517985611478</v>
+        <v>9.523809523809314</v>
       </c>
       <c r="L47" t="n">
         <v>80.98999999999999</v>
@@ -2676,7 +2692,7 @@
         <v>16.09999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>10.14492753623192</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>80.98999999999999</v>
@@ -2727,7 +2743,7 @@
         <v>16.09999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>-3.333333333333258</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>80.98999999999999</v>
@@ -2778,7 +2794,7 @@
         <v>16.40000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>-5.691056910569118</v>
+        <v>53.33333333333314</v>
       </c>
       <c r="L50" t="n">
         <v>80.96000000000001</v>
@@ -2829,7 +2845,7 @@
         <v>16.7</v>
       </c>
       <c r="K51" t="n">
-        <v>-7.936507936507923</v>
+        <v>39.39393939393934</v>
       </c>
       <c r="L51" t="n">
         <v>81.09</v>
@@ -2880,7 +2896,7 @@
         <v>17.2</v>
       </c>
       <c r="K52" t="n">
-        <v>10.52631578947369</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L52" t="n">
         <v>81.27</v>
@@ -2931,7 +2947,7 @@
         <v>17.2</v>
       </c>
       <c r="K53" t="n">
-        <v>-2.000000000000026</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L53" t="n">
         <v>81.29999999999998</v>
@@ -2982,7 +2998,7 @@
         <v>17.40000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>14.60674157303364</v>
+        <v>4.761904761904504</v>
       </c>
       <c r="L54" t="n">
         <v>81.33999999999999</v>
@@ -3033,7 +3049,7 @@
         <v>17.60000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>13.33333333333334</v>
+        <v>-4.347826086956898</v>
       </c>
       <c r="L55" t="n">
         <v>81.32999999999998</v>
@@ -3084,7 +3100,7 @@
         <v>17.60000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>14.60674157303364</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L56" t="n">
         <v>81.31999999999998</v>
@@ -3135,7 +3151,7 @@
         <v>17.90000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>20</v>
+        <v>-22.2222222222224</v>
       </c>
       <c r="L57" t="n">
         <v>81.23999999999998</v>
@@ -3186,7 +3202,7 @@
         <v>18.40000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>1.449275362318757</v>
+        <v>4.347826086956253</v>
       </c>
       <c r="L58" t="n">
         <v>81.24999999999999</v>
@@ -3237,7 +3253,7 @@
         <v>18.40000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>1.449275362318757</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L59" t="n">
         <v>81.25999999999999</v>
@@ -3288,7 +3304,7 @@
         <v>18.40000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>1.449275362318757</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L60" t="n">
         <v>81.29999999999998</v>
@@ -3339,7 +3355,7 @@
         <v>18.5</v>
       </c>
       <c r="K61" t="n">
-        <v>41.17647058823523</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L61" t="n">
         <v>81.38</v>
@@ -3390,7 +3406,7 @@
         <v>18.80000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>44.4444444444445</v>
+        <v>37.50000000000033</v>
       </c>
       <c r="L62" t="n">
         <v>81.44</v>
@@ -3441,7 +3457,7 @@
         <v>18.80000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>23.07692307692319</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L63" t="n">
         <v>81.5</v>
@@ -3492,7 +3508,7 @@
         <v>18.80000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>21.0526315789476</v>
+        <v>50.00000000000059</v>
       </c>
       <c r="L64" t="n">
         <v>81.53999999999999</v>
@@ -3543,7 +3559,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>16.66666666666654</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L65" t="n">
         <v>81.61</v>
@@ -3594,7 +3610,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>16.66666666666654</v>
+        <v>100</v>
       </c>
       <c r="L66" t="n">
         <v>81.68000000000001</v>
@@ -3645,7 +3661,7 @@
         <v>19.2</v>
       </c>
       <c r="K67" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L67" t="n">
         <v>81.81</v>
@@ -3696,7 +3712,7 @@
         <v>19.2</v>
       </c>
       <c r="K68" t="n">
-        <v>29.03225806451578</v>
+        <v>100</v>
       </c>
       <c r="L68" t="n">
         <v>81.89</v>
@@ -3747,7 +3763,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>31.24999999999983</v>
+        <v>100</v>
       </c>
       <c r="L69" t="n">
         <v>81.97999999999999</v>
@@ -3798,7 +3814,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>44.82758620689686</v>
+        <v>100</v>
       </c>
       <c r="L70" t="n">
         <v>82.06999999999999</v>
@@ -3849,7 +3865,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>61.53846153846166</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>82.14999999999999</v>
@@ -3900,7 +3916,7 @@
         <v>19.40000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>54.54545454545461</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
         <v>82.20999999999999</v>
@@ -3951,7 +3967,7 @@
         <v>20.2</v>
       </c>
       <c r="K73" t="n">
-        <v>66.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L73" t="n">
         <v>82.34999999999999</v>
@@ -4002,7 +4018,7 @@
         <v>21.80000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>77.27272727272731</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
         <v>82.64999999999999</v>
@@ -4053,7 +4069,7 @@
         <v>21.80000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>85.71428571428585</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
         <v>82.93999999999998</v>
@@ -4104,7 +4120,7 @@
         <v>21.80000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>85.71428571428585</v>
+        <v>100</v>
       </c>
       <c r="L76" t="n">
         <v>83.22999999999999</v>
@@ -4716,7 +4732,7 @@
         <v>25.30000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>21.31147540983599</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L88" t="n">
         <v>85.32000000000001</v>
@@ -4767,7 +4783,7 @@
         <v>27.40000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>40.74074074074066</v>
+        <v>12.72727272727275</v>
       </c>
       <c r="L89" t="n">
         <v>85.39000000000001</v>
@@ -4818,7 +4834,7 @@
         <v>27.60000000000002</v>
       </c>
       <c r="K90" t="n">
-        <v>42.16867469879512</v>
+        <v>9.433962264150923</v>
       </c>
       <c r="L90" t="n">
         <v>85.48</v>
@@ -4869,7 +4885,7 @@
         <v>27.60000000000002</v>
       </c>
       <c r="K91" t="n">
-        <v>42.16867469879512</v>
+        <v>9.433962264150923</v>
       </c>
       <c r="L91" t="n">
         <v>85.53</v>
@@ -4920,7 +4936,7 @@
         <v>27.70000000000002</v>
       </c>
       <c r="K92" t="n">
-        <v>42.16867469879512</v>
+        <v>9.433962264150923</v>
       </c>
       <c r="L92" t="n">
         <v>85.59</v>
@@ -4971,7 +4987,7 @@
         <v>27.80000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>34.21052631578954</v>
+        <v>7.407407407407505</v>
       </c>
       <c r="L93" t="n">
         <v>85.63000000000001</v>
@@ -5022,7 +5038,7 @@
         <v>27.90000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>18.03278688524582</v>
+        <v>1.960784313725381</v>
       </c>
       <c r="L94" t="n">
         <v>85.68000000000001</v>
@@ -5073,7 +5089,7 @@
         <v>28.2</v>
       </c>
       <c r="K95" t="n">
-        <v>21.87499999999989</v>
+        <v>7.407407407407261</v>
       </c>
       <c r="L95" t="n">
         <v>85.72</v>
@@ -5124,7 +5140,7 @@
         <v>29.40000000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>34.21052631578942</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L96" t="n">
         <v>85.88000000000001</v>
@@ -5175,7 +5191,7 @@
         <v>29.40000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>33.33333333333333</v>
+        <v>95.12195121951247</v>
       </c>
       <c r="L97" t="n">
         <v>86.03</v>
@@ -5226,7 +5242,7 @@
         <v>29.60000000000001</v>
       </c>
       <c r="K98" t="n">
-        <v>35.06493506493509</v>
+        <v>90.90909090909139</v>
       </c>
       <c r="L98" t="n">
         <v>86.44000000000001</v>
@@ -5277,7 +5293,7 @@
         <v>29.90000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>37.5</v>
+        <v>91.30434782608738</v>
       </c>
       <c r="L99" t="n">
         <v>86.67</v>
@@ -5328,7 +5344,7 @@
         <v>29.90000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>37.5</v>
+        <v>91.30434782608738</v>
       </c>
       <c r="L100" t="n">
         <v>86.88000000000001</v>
@@ -5379,7 +5395,7 @@
         <v>30.10000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>35.89743589743588</v>
+        <v>91.66666666666711</v>
       </c>
       <c r="L101" t="n">
         <v>87.11000000000001</v>
@@ -5430,7 +5446,7 @@
         <v>31.5</v>
       </c>
       <c r="K102" t="n">
-        <v>45.65217391304341</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
         <v>87.47000000000001</v>
@@ -5481,7 +5497,7 @@
         <v>31.59999999999999</v>
       </c>
       <c r="K103" t="n">
-        <v>43.47826086956527</v>
+        <v>94.59459459459488</v>
       </c>
       <c r="L103" t="n">
         <v>87.83000000000001</v>
@@ -5532,7 +5548,7 @@
         <v>31.8</v>
       </c>
       <c r="K104" t="n">
-        <v>44.68085106382986</v>
+        <v>94.44444444444476</v>
       </c>
       <c r="L104" t="n">
         <v>88.20000000000002</v>
@@ -5583,7 +5599,7 @@
         <v>31.8</v>
       </c>
       <c r="K105" t="n">
-        <v>42.22222222222226</v>
+        <v>91.66666666666711</v>
       </c>
       <c r="L105" t="n">
         <v>88.54000000000003</v>
@@ -5634,7 +5650,7 @@
         <v>31.8</v>
       </c>
       <c r="K106" t="n">
-        <v>42.22222222222226</v>
+        <v>91.66666666666711</v>
       </c>
       <c r="L106" t="n">
         <v>88.76000000000003</v>
@@ -5685,7 +5701,7 @@
         <v>31.89999999999999</v>
       </c>
       <c r="K107" t="n">
-        <v>42.22222222222226</v>
+        <v>91.30434782608738</v>
       </c>
       <c r="L107" t="n">
         <v>88.99000000000004</v>
@@ -5736,7 +5752,7 @@
         <v>32.09999999999999</v>
       </c>
       <c r="K108" t="n">
-        <v>94.11764705882385</v>
+        <v>90.90909090909139</v>
       </c>
       <c r="L108" t="n">
         <v>89.22000000000003</v>
@@ -5787,7 +5803,7 @@
         <v>32.09999999999999</v>
       </c>
       <c r="K109" t="n">
-        <v>91.48936170212811</v>
+        <v>90.90909090909139</v>
       </c>
       <c r="L109" t="n">
         <v>89.42000000000003</v>
@@ -5838,7 +5854,7 @@
         <v>32.09999999999999</v>
       </c>
       <c r="K110" t="n">
-        <v>91.11111111111157</v>
+        <v>90.0000000000005</v>
       </c>
       <c r="L110" t="n">
         <v>89.62000000000003</v>
@@ -5889,7 +5905,7 @@
         <v>32.69999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>92.15686274509844</v>
+        <v>83.33333333333412</v>
       </c>
       <c r="L111" t="n">
         <v>89.86000000000003</v>
@@ -5940,7 +5956,7 @@
         <v>35.09999999999999</v>
       </c>
       <c r="K112" t="n">
-        <v>94.59459459459488</v>
+        <v>100</v>
       </c>
       <c r="L112" t="n">
         <v>90.20000000000002</v>
@@ -5991,7 +6007,7 @@
         <v>36</v>
       </c>
       <c r="K113" t="n">
-        <v>97.56097560975623</v>
+        <v>100</v>
       </c>
       <c r="L113" t="n">
         <v>90.64000000000001</v>
@@ -6042,7 +6058,7 @@
         <v>37</v>
       </c>
       <c r="K114" t="n">
-        <v>75.82417582417594</v>
+        <v>61.53846153846156</v>
       </c>
       <c r="L114" t="n">
         <v>90.96000000000001</v>
@@ -6093,7 +6109,7 @@
         <v>37.30000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>69.23076923076913</v>
+        <v>52.72727272727244</v>
       </c>
       <c r="L115" t="n">
         <v>91.25000000000001</v>
@@ -6144,7 +6160,7 @@
         <v>38.20000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>68.1818181818181</v>
+        <v>58.73015873015854</v>
       </c>
       <c r="L116" t="n">
         <v>91.63000000000001</v>
@@ -6195,7 +6211,7 @@
         <v>38.20000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>68.1818181818181</v>
+        <v>57.37704918032765</v>
       </c>
       <c r="L117" t="n">
         <v>92.00000000000001</v>
@@ -6246,7 +6262,7 @@
         <v>38.20000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>67.44186046511618</v>
+        <v>57.37704918032765</v>
       </c>
       <c r="L118" t="n">
         <v>92.35000000000001</v>
@@ -6297,7 +6313,7 @@
         <v>38.50000000000001</v>
       </c>
       <c r="K119" t="n">
-        <v>60.46511627906974</v>
+        <v>49.99999999999989</v>
       </c>
       <c r="L119" t="n">
         <v>92.67000000000002</v>
@@ -6348,7 +6364,7 @@
         <v>38.60000000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>60.91954022988501</v>
+        <v>45.76271186440668</v>
       </c>
       <c r="L120" t="n">
         <v>93.00000000000001</v>
@@ -6399,7 +6415,7 @@
         <v>38.7</v>
       </c>
       <c r="K121" t="n">
-        <v>58.13953488372097</v>
+        <v>5.555555555555621</v>
       </c>
       <c r="L121" t="n">
         <v>93.26000000000002</v>
@@ -6450,7 +6466,7 @@
         <v>38.8</v>
       </c>
       <c r="K122" t="n">
-        <v>50.68493150684937</v>
+        <v>-21.42857142857175</v>
       </c>
       <c r="L122" t="n">
         <v>93.29000000000001</v>
@@ -6501,7 +6517,7 @@
         <v>38.8</v>
       </c>
       <c r="K123" t="n">
-        <v>52.77777777777771</v>
+        <v>22.22222222222178</v>
       </c>
       <c r="L123" t="n">
         <v>93.23</v>
@@ -6552,7 +6568,7 @@
         <v>38.8</v>
       </c>
       <c r="K124" t="n">
-        <v>51.42857142857135</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L124" t="n">
         <v>93.27000000000001</v>
@@ -6603,7 +6619,7 @@
         <v>39.69999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>34.17721518987349</v>
+        <v>-73.33333333333434</v>
       </c>
       <c r="L125" t="n">
         <v>93.25000000000001</v>
@@ -6654,7 +6670,7 @@
         <v>41.59999999999998</v>
       </c>
       <c r="K126" t="n">
-        <v>46.9387755102041</v>
+        <v>23.52941176470605</v>
       </c>
       <c r="L126" t="n">
         <v>93.33000000000001</v>

--- a/BackTest/2019-10-20 BackTest PST.xlsx
+++ b/BackTest/2019-10-20 BackTest PST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S126"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,18 +631,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,18 +666,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +701,10 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -826,18 +736,10 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -869,20 +771,10 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>81.89999999999999</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -914,20 +806,10 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>81.89999999999999</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,20 +841,10 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>81.89999999999999</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1004,20 +876,10 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>81.89999999999999</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1047,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="K15" t="n">
-        <v>100</v>
-      </c>
-      <c r="L15" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,22 +946,10 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.1999999999999886</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1143,22 +981,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.1999999999999886</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1190,22 +1016,10 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.1999999999999886</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1235,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.9000000000000057</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-81.81818181818275</v>
-      </c>
-      <c r="L19" t="n">
-        <v>81.81999999999999</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1282,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.199999999999989</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-83.33333333333412</v>
-      </c>
-      <c r="L20" t="n">
-        <v>81.72</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1329,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.199999999999989</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-83.33333333333412</v>
-      </c>
-      <c r="L21" t="n">
-        <v>81.61999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>81.76000000000002</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.9000000000000057</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.299999999999983</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-69.23076923077058</v>
-      </c>
-      <c r="L22" t="n">
-        <v>81.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>81.715</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1427,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.9000000000000057</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.299999999999983</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-69.23076923077058</v>
-      </c>
-      <c r="L23" t="n">
-        <v>81.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>81.67</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1476,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.399999999999977</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-84.6153846153853</v>
-      </c>
-      <c r="L24" t="n">
-        <v>81.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1525,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.399999999999977</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-83.33333333333412</v>
-      </c>
-      <c r="L25" t="n">
-        <v>81.22999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>81.57000000000001</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.399999999999977</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-83.33333333333412</v>
-      </c>
-      <c r="L26" t="n">
-        <v>81.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>81.52000000000001</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1623,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.400000000000006</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.799999999999983</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-87.50000000000067</v>
-      </c>
-      <c r="L27" t="n">
-        <v>80.98999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>81.45</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1672,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.900000000000006</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.299999999999983</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-83.33333333333412</v>
-      </c>
-      <c r="L28" t="n">
-        <v>80.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>81.35499999999999</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1721,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1000000000000085</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.09999999999998</v>
-      </c>
-      <c r="K29" t="n">
-        <v>31.03448275862048</v>
-      </c>
-      <c r="L29" t="n">
-        <v>80.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>81.34999999999999</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1767,29 +1431,19 @@
         <v>81.71500000000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1000000000000085</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4.09999999999998</v>
+        <v>81.8</v>
       </c>
       <c r="K30" t="n">
-        <v>31.03448275862048</v>
-      </c>
-      <c r="L30" t="n">
-        <v>80.97</v>
-      </c>
+        <v>81.8</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>81.34499999999998</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1819,28 +1473,18 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1000000000000085</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4.09999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>28.5714285714285</v>
-      </c>
-      <c r="L31" t="n">
-        <v>81.05999999999999</v>
+        <v>81.8</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>81.33999999999997</v>
-      </c>
-      <c r="N31" t="n">
-        <v>81.5266666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1870,28 +1514,18 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.800000000000011</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5.799999999999983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>-20.00000000000012</v>
-      </c>
-      <c r="L32" t="n">
-        <v>80.97</v>
+        <v>81.8</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>81.24999999999997</v>
-      </c>
-      <c r="N32" t="n">
-        <v>81.4666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1921,28 +1555,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.4000000000000057</v>
-      </c>
-      <c r="J33" t="n">
-        <v>7.199999999999989</v>
-      </c>
-      <c r="K33" t="n">
-        <v>10.34482758620678</v>
-      </c>
-      <c r="L33" t="n">
-        <v>81.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>81.22999999999996</v>
-      </c>
-      <c r="N33" t="n">
-        <v>81.45333333333336</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,31 +1587,19 @@
         <v>81.64833333333338</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>8.499999999999986</v>
+        <v>80.2</v>
       </c>
       <c r="K34" t="n">
-        <v>-9.859154929577493</v>
-      </c>
-      <c r="L34" t="n">
-        <v>80.95</v>
-      </c>
+        <v>80.2</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>81.14499999999995</v>
-      </c>
-      <c r="N34" t="n">
-        <v>81.39666666666669</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,28 +1629,18 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.800000000000011</v>
-      </c>
-      <c r="J35" t="n">
-        <v>8.599999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>-11.11111111111124</v>
-      </c>
-      <c r="L35" t="n">
-        <v>80.87</v>
+        <v>80.2</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>81.04999999999995</v>
-      </c>
-      <c r="N35" t="n">
-        <v>81.33666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2071,31 +1667,23 @@
         <v>81.58666666666674</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8.699999999999989</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>-7.246376811594198</v>
-      </c>
-      <c r="L36" t="n">
-        <v>80.78</v>
+        <v>80.2</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>80.95499999999996</v>
-      </c>
-      <c r="N36" t="n">
-        <v>81.27333333333334</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2122,31 +1710,23 @@
         <v>81.54333333333342</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>-2.600000000000009</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>9.399999999999991</v>
+        <v>80</v>
       </c>
       <c r="K37" t="n">
-        <v>-9.859154929577493</v>
-      </c>
-      <c r="L37" t="n">
-        <v>80.66</v>
+        <v>80.2</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>80.82499999999995</v>
-      </c>
-      <c r="N37" t="n">
-        <v>81.18666666666668</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2173,31 +1753,23 @@
         <v>81.53500000000008</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.405405405405276</v>
-      </c>
-      <c r="L38" t="n">
-        <v>80.8</v>
+        <v>80.2</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>80.79999999999994</v>
-      </c>
-      <c r="N38" t="n">
-        <v>81.17000000000002</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,31 +1796,23 @@
         <v>81.52666666666674</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>11.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>-5.405405405405276</v>
-      </c>
-      <c r="L39" t="n">
-        <v>80.76000000000001</v>
+        <v>80.2</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>80.81999999999995</v>
-      </c>
-      <c r="N39" t="n">
-        <v>81.15333333333335</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2275,31 +1839,23 @@
         <v>81.51833333333342</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>-5.405405405405276</v>
-      </c>
-      <c r="L40" t="n">
-        <v>80.72</v>
+        <v>80.2</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>80.84499999999994</v>
-      </c>
-      <c r="N40" t="n">
-        <v>81.13666666666668</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2326,31 +1882,23 @@
         <v>81.47833333333342</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>-2.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>13.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K41" t="n">
-        <v>-7.894736842105164</v>
-      </c>
-      <c r="L41" t="n">
-        <v>80.49000000000001</v>
+        <v>80.2</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>80.77499999999995</v>
-      </c>
-      <c r="N41" t="n">
-        <v>81.05666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2377,31 +1925,23 @@
         <v>81.43833333333343</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>13.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>-32.25806451612894</v>
-      </c>
-      <c r="L42" t="n">
-        <v>80.43000000000001</v>
+        <v>80.2</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>80.69999999999995</v>
-      </c>
-      <c r="N42" t="n">
-        <v>80.97666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,31 +1968,23 @@
         <v>81.42333333333343</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.9000000000000057</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.90000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>12.49999999999992</v>
-      </c>
-      <c r="L43" t="n">
-        <v>80.38000000000001</v>
+        <v>80.2</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>80.69999999999995</v>
-      </c>
-      <c r="N43" t="n">
-        <v>80.94666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2479,31 +2011,23 @@
         <v>81.41000000000011</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.8000000000000114</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>15</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>15.62499999999999</v>
-      </c>
-      <c r="L44" t="n">
-        <v>80.47</v>
+        <v>80.2</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>80.70999999999994</v>
-      </c>
-      <c r="N44" t="n">
-        <v>80.92</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2530,31 +2054,23 @@
         <v>81.40166666666678</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>15.30000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>21.21212121212123</v>
-      </c>
-      <c r="L45" t="n">
-        <v>80.59999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>80.73499999999993</v>
-      </c>
-      <c r="N45" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2581,31 +2097,23 @@
         <v>81.39333333333344</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>15.30000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>35.59322033898307</v>
-      </c>
-      <c r="L46" t="n">
-        <v>80.73999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>80.75999999999993</v>
-      </c>
-      <c r="N46" t="n">
-        <v>80.88333333333334</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2632,31 +2140,23 @@
         <v>81.39166666666679</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.1000000000000085</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>15.7</v>
+        <v>81.8</v>
       </c>
       <c r="K47" t="n">
-        <v>9.523809523809314</v>
-      </c>
-      <c r="L47" t="n">
-        <v>80.98999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>80.82499999999993</v>
-      </c>
-      <c r="N47" t="n">
-        <v>80.88000000000001</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2683,31 +2183,23 @@
         <v>81.38333333333345</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>16.09999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>80.98999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>80.89499999999994</v>
-      </c>
-      <c r="N48" t="n">
-        <v>80.86333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,31 +2226,23 @@
         <v>81.37500000000013</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>16.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>80.98999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>80.87499999999994</v>
-      </c>
-      <c r="N49" t="n">
-        <v>80.87666666666668</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2785,31 +2269,23 @@
         <v>81.36166666666681</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.8000000000000114</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>16.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>53.33333333333314</v>
-      </c>
-      <c r="L50" t="n">
-        <v>80.96000000000001</v>
+        <v>80.2</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>80.83999999999995</v>
-      </c>
-      <c r="N50" t="n">
-        <v>80.88333333333334</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2836,31 +2312,23 @@
         <v>81.34333333333348</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.100000000000009</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>16.7</v>
+        <v>80.8</v>
       </c>
       <c r="K51" t="n">
-        <v>39.39393939393934</v>
-      </c>
-      <c r="L51" t="n">
-        <v>81.09</v>
+        <v>80.2</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>80.78999999999994</v>
-      </c>
-      <c r="N51" t="n">
-        <v>80.88000000000001</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2887,31 +2355,23 @@
         <v>81.33333333333348</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.6000000000000085</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>17.2</v>
+        <v>81.3</v>
       </c>
       <c r="K52" t="n">
-        <v>13.04347826086946</v>
-      </c>
-      <c r="L52" t="n">
-        <v>81.27</v>
+        <v>80.2</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>80.84999999999994</v>
-      </c>
-      <c r="N52" t="n">
-        <v>80.89000000000001</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2938,31 +2398,23 @@
         <v>81.32333333333349</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.6000000000000085</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>17.2</v>
+        <v>81.3</v>
       </c>
       <c r="K53" t="n">
-        <v>9.090909090909207</v>
-      </c>
-      <c r="L53" t="n">
-        <v>81.29999999999998</v>
+        <v>80.2</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>80.83999999999995</v>
-      </c>
-      <c r="N53" t="n">
-        <v>80.90000000000002</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2989,31 +2441,23 @@
         <v>81.31666666666683</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.4000000000000057</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>17.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K54" t="n">
-        <v>4.761904761904504</v>
-      </c>
-      <c r="L54" t="n">
-        <v>81.33999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>80.90499999999994</v>
-      </c>
-      <c r="N54" t="n">
-        <v>80.92000000000002</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3040,31 +2484,23 @@
         <v>81.30666666666684</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.6000000000000085</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>17.60000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K55" t="n">
-        <v>-4.347826086956898</v>
-      </c>
-      <c r="L55" t="n">
-        <v>81.32999999999998</v>
+        <v>80.2</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>80.96499999999995</v>
-      </c>
-      <c r="N55" t="n">
-        <v>80.93333333333335</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,31 +2527,23 @@
         <v>81.29666666666685</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.6000000000000085</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>17.60000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K56" t="n">
-        <v>-26.31578947368413</v>
-      </c>
-      <c r="L56" t="n">
-        <v>81.31999999999998</v>
+        <v>80.2</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>81.02999999999994</v>
-      </c>
-      <c r="N56" t="n">
-        <v>80.94666666666669</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,31 +2570,23 @@
         <v>81.28166666666685</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.9000000000000057</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>17.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K57" t="n">
-        <v>-22.2222222222224</v>
-      </c>
-      <c r="L57" t="n">
-        <v>81.23999999999998</v>
+        <v>80.2</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>81.11499999999994</v>
-      </c>
-      <c r="N57" t="n">
-        <v>80.96333333333335</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3193,31 +2613,23 @@
         <v>81.27500000000019</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.4000000000000057</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>18.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K58" t="n">
-        <v>4.347826086956253</v>
-      </c>
-      <c r="L58" t="n">
-        <v>81.24999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>81.11999999999993</v>
-      </c>
-      <c r="N58" t="n">
-        <v>81.01333333333335</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3244,31 +2656,23 @@
         <v>81.26833333333353</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.4000000000000057</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>18.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K59" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L59" t="n">
-        <v>81.25999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>81.12499999999993</v>
-      </c>
-      <c r="N59" t="n">
-        <v>81.00333333333334</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3295,31 +2699,23 @@
         <v>81.26166666666687</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.4000000000000057</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>18.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K60" t="n">
-        <v>41.17647058823539</v>
-      </c>
-      <c r="L60" t="n">
-        <v>81.29999999999998</v>
+        <v>80.2</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>81.12999999999992</v>
-      </c>
-      <c r="N60" t="n">
-        <v>80.99333333333334</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3346,31 +2742,23 @@
         <v>81.25666666666689</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.3000000000000114</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>18.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>23.07692307692291</v>
-      </c>
-      <c r="L61" t="n">
-        <v>81.38</v>
+        <v>80.2</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>81.23499999999993</v>
-      </c>
-      <c r="N61" t="n">
-        <v>80.98666666666666</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3397,31 +2785,23 @@
         <v>81.25666666666689</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>18.80000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>37.50000000000033</v>
-      </c>
-      <c r="L62" t="n">
-        <v>81.44</v>
+        <v>80.2</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>81.35499999999993</v>
-      </c>
-      <c r="N62" t="n">
-        <v>81.04666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3453,26 +2833,16 @@
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>18.80000000000001</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>28.57142857142886</v>
-      </c>
-      <c r="L63" t="n">
-        <v>81.5</v>
+        <v>80.2</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>81.39999999999993</v>
-      </c>
-      <c r="N63" t="n">
-        <v>81.06</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3504,26 +2874,16 @@
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>18.80000000000001</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>50.00000000000059</v>
-      </c>
-      <c r="L64" t="n">
-        <v>81.53999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>81.43999999999994</v>
-      </c>
-      <c r="N64" t="n">
-        <v>81.11666666666669</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3553,28 +2913,18 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="J65" t="n">
-        <v>18.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>53.84615384615419</v>
-      </c>
-      <c r="L65" t="n">
-        <v>81.61</v>
+        <v>80.2</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>81.46999999999994</v>
-      </c>
-      <c r="N65" t="n">
-        <v>81.18000000000002</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3604,28 +2954,18 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="J66" t="n">
-        <v>18.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>100</v>
-      </c>
-      <c r="L66" t="n">
-        <v>81.68000000000001</v>
+        <v>80.2</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>81.49999999999993</v>
-      </c>
-      <c r="N66" t="n">
-        <v>81.24666666666668</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3655,28 +2995,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3999999999999915</v>
-      </c>
-      <c r="J67" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>100</v>
-      </c>
-      <c r="L67" t="n">
-        <v>81.81</v>
+        <v>80.2</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>81.52499999999993</v>
-      </c>
-      <c r="N67" t="n">
-        <v>81.34666666666668</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,28 +3036,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3999999999999915</v>
-      </c>
-      <c r="J68" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>100</v>
-      </c>
-      <c r="L68" t="n">
-        <v>81.89</v>
+        <v>80.2</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>81.56999999999992</v>
-      </c>
-      <c r="N68" t="n">
-        <v>81.37666666666669</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3757,28 +3077,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>19.30000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>100</v>
-      </c>
-      <c r="L69" t="n">
-        <v>81.97999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>81.61999999999992</v>
-      </c>
-      <c r="N69" t="n">
-        <v>81.41000000000003</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,28 +3118,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>19.30000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>100</v>
-      </c>
-      <c r="L70" t="n">
-        <v>82.06999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>81.68499999999993</v>
-      </c>
-      <c r="N70" t="n">
-        <v>81.44333333333336</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,28 +3159,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>19.30000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>100</v>
-      </c>
-      <c r="L71" t="n">
-        <v>82.14999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>81.76499999999994</v>
-      </c>
-      <c r="N71" t="n">
-        <v>81.54000000000002</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3910,28 +3200,18 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="J72" t="n">
-        <v>19.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>100</v>
-      </c>
-      <c r="L72" t="n">
-        <v>82.20999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>81.82499999999995</v>
-      </c>
-      <c r="N72" t="n">
-        <v>81.64000000000003</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3961,28 +3241,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1.399999999999991</v>
-      </c>
-      <c r="J73" t="n">
-        <v>20.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>100</v>
-      </c>
-      <c r="L73" t="n">
-        <v>82.34999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>81.92499999999994</v>
-      </c>
-      <c r="N73" t="n">
-        <v>81.7166666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4012,28 +3282,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
-      </c>
-      <c r="J74" t="n">
-        <v>21.80000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>100</v>
-      </c>
-      <c r="L74" t="n">
-        <v>82.64999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>82.09499999999994</v>
-      </c>
-      <c r="N74" t="n">
-        <v>81.84333333333338</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4063,28 +3323,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
-      </c>
-      <c r="J75" t="n">
-        <v>21.80000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>100</v>
-      </c>
-      <c r="L75" t="n">
-        <v>82.93999999999998</v>
+        <v>80.2</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>82.27499999999995</v>
-      </c>
-      <c r="N75" t="n">
-        <v>81.96000000000004</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4114,28 +3364,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>21.80000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>100</v>
-      </c>
-      <c r="L76" t="n">
-        <v>83.22999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>82.45499999999996</v>
-      </c>
-      <c r="N76" t="n">
-        <v>82.0766666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4165,28 +3405,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>3.099999999999994</v>
-      </c>
-      <c r="J77" t="n">
-        <v>21.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>100</v>
-      </c>
-      <c r="L77" t="n">
-        <v>83.49999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>82.65499999999996</v>
-      </c>
-      <c r="N77" t="n">
-        <v>82.18333333333337</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4216,28 +3446,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>3.099999999999994</v>
-      </c>
-      <c r="J78" t="n">
-        <v>21.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>100</v>
-      </c>
-      <c r="L78" t="n">
-        <v>83.77</v>
+        <v>80.2</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>82.82999999999996</v>
-      </c>
-      <c r="N78" t="n">
-        <v>82.30333333333336</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4267,28 +3487,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>3.099999999999994</v>
-      </c>
-      <c r="J79" t="n">
-        <v>21.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>100</v>
-      </c>
-      <c r="L79" t="n">
-        <v>84.03</v>
+        <v>80.2</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>83.00499999999997</v>
-      </c>
-      <c r="N79" t="n">
-        <v>82.42333333333336</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,28 +3528,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>3.099999999999994</v>
-      </c>
-      <c r="J80" t="n">
-        <v>21.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>100</v>
-      </c>
-      <c r="L80" t="n">
-        <v>84.28999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>83.17999999999996</v>
-      </c>
-      <c r="N80" t="n">
-        <v>82.55333333333336</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4369,28 +3569,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>22.30000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>100</v>
-      </c>
-      <c r="L81" t="n">
-        <v>84.59</v>
+        <v>80.2</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>83.36999999999998</v>
-      </c>
-      <c r="N81" t="n">
-        <v>82.70666666666669</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4420,28 +3610,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>22.30000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>100</v>
-      </c>
-      <c r="L82" t="n">
-        <v>84.88</v>
+        <v>80.2</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>83.54499999999997</v>
-      </c>
-      <c r="N82" t="n">
-        <v>82.84333333333335</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4471,28 +3651,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>3.599999999999994</v>
-      </c>
-      <c r="J83" t="n">
-        <v>22.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>100</v>
-      </c>
-      <c r="L83" t="n">
-        <v>85.09999999999999</v>
+        <v>80.2</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>83.72499999999997</v>
-      </c>
-      <c r="N83" t="n">
-        <v>82.98333333333335</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,28 +3692,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>3.599999999999994</v>
-      </c>
-      <c r="J84" t="n">
-        <v>22.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>100</v>
-      </c>
-      <c r="L84" t="n">
-        <v>85.16</v>
+        <v>80.2</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>83.90499999999996</v>
-      </c>
-      <c r="N84" t="n">
-        <v>83.11666666666669</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4573,28 +3733,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
-      </c>
-      <c r="J85" t="n">
-        <v>22.80000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>100</v>
-      </c>
-      <c r="L85" t="n">
-        <v>85.26000000000001</v>
+        <v>80.2</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>84.09999999999997</v>
-      </c>
-      <c r="N85" t="n">
-        <v>83.27000000000001</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4624,28 +3774,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>22.80000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>100</v>
-      </c>
-      <c r="L86" t="n">
-        <v>85.36</v>
+        <v>80.2</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>84.29499999999997</v>
-      </c>
-      <c r="N86" t="n">
-        <v>83.42333333333335</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4675,28 +3815,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>4.099999999999994</v>
-      </c>
-      <c r="J87" t="n">
-        <v>22.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>100</v>
-      </c>
-      <c r="L87" t="n">
-        <v>85.46000000000001</v>
+        <v>80.2</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>84.47999999999998</v>
-      </c>
-      <c r="N87" t="n">
-        <v>83.59</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4726,28 +3856,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1.699999999999989</v>
-      </c>
-      <c r="J88" t="n">
-        <v>25.30000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>-41.17647058823539</v>
-      </c>
-      <c r="L88" t="n">
-        <v>85.32000000000001</v>
+        <v>80.2</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>84.54499999999997</v>
-      </c>
-      <c r="N88" t="n">
-        <v>83.66000000000001</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4777,28 +3897,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>3.799999999999997</v>
-      </c>
-      <c r="J89" t="n">
-        <v>27.40000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>12.72727272727275</v>
-      </c>
-      <c r="L89" t="n">
-        <v>85.39000000000001</v>
+        <v>80.2</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>84.70999999999997</v>
-      </c>
-      <c r="N89" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4828,28 +3938,18 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
-      </c>
-      <c r="J90" t="n">
-        <v>27.60000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>9.433962264150923</v>
-      </c>
-      <c r="L90" t="n">
-        <v>85.48</v>
+        <v>80.2</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>84.88499999999996</v>
-      </c>
-      <c r="N90" t="n">
-        <v>83.94666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4879,28 +3979,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
-      </c>
-      <c r="J91" t="n">
-        <v>27.60000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>9.433962264150923</v>
-      </c>
-      <c r="L91" t="n">
-        <v>85.53</v>
+        <v>80.2</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>85.05999999999997</v>
-      </c>
-      <c r="N91" t="n">
-        <v>84.09</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4930,28 +4020,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>4.099999999999994</v>
-      </c>
-      <c r="J92" t="n">
-        <v>27.70000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>9.433962264150923</v>
-      </c>
-      <c r="L92" t="n">
-        <v>85.59</v>
+        <v>80.2</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>85.23499999999997</v>
-      </c>
-      <c r="N92" t="n">
-        <v>84.22666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,29 +4061,19 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
-      </c>
-      <c r="J93" t="n">
-        <v>27.80000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>7.407407407407505</v>
-      </c>
-      <c r="L93" t="n">
-        <v>85.63000000000001</v>
+        <v>80.2</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>85.36499999999998</v>
-      </c>
-      <c r="N93" t="n">
-        <v>84.36</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
-        <v>1</v>
+        <v>1.066072319201995</v>
       </c>
     </row>
     <row r="94">
@@ -5032,28 +4102,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>4.099999999999994</v>
-      </c>
-      <c r="J94" t="n">
-        <v>27.90000000000001</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1.960784313725381</v>
-      </c>
-      <c r="L94" t="n">
-        <v>85.68000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>85.41999999999997</v>
-      </c>
-      <c r="N94" t="n">
-        <v>84.49666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5083,28 +4137,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>4.399999999999991</v>
-      </c>
-      <c r="J95" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="K95" t="n">
-        <v>7.407407407407261</v>
-      </c>
-      <c r="L95" t="n">
-        <v>85.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>85.48999999999997</v>
-      </c>
-      <c r="N95" t="n">
-        <v>84.64000000000001</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5134,28 +4172,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>5.599999999999994</v>
-      </c>
-      <c r="J96" t="n">
-        <v>29.40000000000001</v>
-      </c>
-      <c r="K96" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L96" t="n">
-        <v>85.88000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>85.61999999999996</v>
-      </c>
-      <c r="N96" t="n">
-        <v>84.82333333333334</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5185,28 +4207,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>5.599999999999994</v>
-      </c>
-      <c r="J97" t="n">
-        <v>29.40000000000001</v>
-      </c>
-      <c r="K97" t="n">
-        <v>95.12195121951247</v>
-      </c>
-      <c r="L97" t="n">
-        <v>86.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>85.74499999999996</v>
-      </c>
-      <c r="N97" t="n">
-        <v>84.99666666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5236,28 +4242,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>5.799999999999997</v>
-      </c>
-      <c r="J98" t="n">
-        <v>29.60000000000001</v>
-      </c>
-      <c r="K98" t="n">
-        <v>90.90909090909139</v>
-      </c>
-      <c r="L98" t="n">
-        <v>86.44000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>85.87999999999997</v>
-      </c>
-      <c r="N98" t="n">
-        <v>85.17666666666666</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5287,28 +4277,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>6.099999999999994</v>
-      </c>
-      <c r="J99" t="n">
-        <v>29.90000000000001</v>
-      </c>
-      <c r="K99" t="n">
-        <v>91.30434782608738</v>
-      </c>
-      <c r="L99" t="n">
-        <v>86.67</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>86.02999999999996</v>
-      </c>
-      <c r="N99" t="n">
-        <v>85.36333333333332</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5338,28 +4312,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>6.099999999999994</v>
-      </c>
-      <c r="J100" t="n">
-        <v>29.90000000000001</v>
-      </c>
-      <c r="K100" t="n">
-        <v>91.30434782608738</v>
-      </c>
-      <c r="L100" t="n">
-        <v>86.88000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>86.17999999999996</v>
-      </c>
-      <c r="N100" t="n">
-        <v>85.54999999999998</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5389,28 +4347,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>6.299999999999997</v>
-      </c>
-      <c r="J101" t="n">
-        <v>30.10000000000001</v>
-      </c>
-      <c r="K101" t="n">
-        <v>91.66666666666711</v>
-      </c>
-      <c r="L101" t="n">
-        <v>87.11000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>86.31999999999996</v>
-      </c>
-      <c r="N101" t="n">
-        <v>85.74333333333331</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5440,28 +4382,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>7.699999999999989</v>
-      </c>
-      <c r="J102" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K102" t="n">
-        <v>100</v>
-      </c>
-      <c r="L102" t="n">
-        <v>87.47000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>86.52999999999994</v>
-      </c>
-      <c r="N102" t="n">
-        <v>85.97999999999998</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5491,28 +4417,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>7.599999999999994</v>
-      </c>
-      <c r="J103" t="n">
-        <v>31.59999999999999</v>
-      </c>
-      <c r="K103" t="n">
-        <v>94.59459459459488</v>
-      </c>
-      <c r="L103" t="n">
-        <v>87.83000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>86.72999999999995</v>
-      </c>
-      <c r="N103" t="n">
-        <v>86.18666666666664</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5542,28 +4452,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>7.799999999999997</v>
-      </c>
-      <c r="J104" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K104" t="n">
-        <v>94.44444444444476</v>
-      </c>
-      <c r="L104" t="n">
-        <v>88.20000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>86.93999999999996</v>
-      </c>
-      <c r="N104" t="n">
-        <v>86.34666666666662</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,1099 +4487,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>7.799999999999997</v>
-      </c>
-      <c r="J105" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K105" t="n">
-        <v>91.66666666666711</v>
-      </c>
-      <c r="L105" t="n">
-        <v>88.54000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>87.12999999999995</v>
-      </c>
-      <c r="N105" t="n">
-        <v>86.50666666666662</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C106" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D106" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E106" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F106" t="n">
-        <v>254.2645</v>
-      </c>
-      <c r="G106" t="n">
-        <v>84.37166666666693</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>7.799999999999997</v>
-      </c>
-      <c r="J106" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K106" t="n">
-        <v>91.66666666666711</v>
-      </c>
-      <c r="L106" t="n">
-        <v>88.76000000000003</v>
-      </c>
-      <c r="M106" t="n">
-        <v>87.31999999999995</v>
-      </c>
-      <c r="N106" t="n">
-        <v>86.6666666666666</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C107" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="D107" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="E107" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F107" t="n">
-        <v>3225.838485507246</v>
-      </c>
-      <c r="G107" t="n">
-        <v>84.50500000000027</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>7.899999999999991</v>
-      </c>
-      <c r="J107" t="n">
-        <v>31.89999999999999</v>
-      </c>
-      <c r="K107" t="n">
-        <v>91.30434782608738</v>
-      </c>
-      <c r="L107" t="n">
-        <v>88.99000000000004</v>
-      </c>
-      <c r="M107" t="n">
-        <v>87.50999999999995</v>
-      </c>
-      <c r="N107" t="n">
-        <v>86.82666666666661</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="C108" t="n">
-        <v>90</v>
-      </c>
-      <c r="D108" t="n">
-        <v>90</v>
-      </c>
-      <c r="E108" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="F108" t="n">
-        <v>32532.52978585746</v>
-      </c>
-      <c r="G108" t="n">
-        <v>84.6483333333336</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>8.099999999999994</v>
-      </c>
-      <c r="J108" t="n">
-        <v>32.09999999999999</v>
-      </c>
-      <c r="K108" t="n">
-        <v>90.90909090909139</v>
-      </c>
-      <c r="L108" t="n">
-        <v>89.22000000000003</v>
-      </c>
-      <c r="M108" t="n">
-        <v>87.82999999999996</v>
-      </c>
-      <c r="N108" t="n">
-        <v>86.99333333333328</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="C109" t="n">
-        <v>90</v>
-      </c>
-      <c r="D109" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="E109" t="n">
-        <v>90</v>
-      </c>
-      <c r="F109" t="n">
-        <v>40162.498</v>
-      </c>
-      <c r="G109" t="n">
-        <v>84.79166666666694</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>8.099999999999994</v>
-      </c>
-      <c r="J109" t="n">
-        <v>32.09999999999999</v>
-      </c>
-      <c r="K109" t="n">
-        <v>90.90909090909139</v>
-      </c>
-      <c r="L109" t="n">
-        <v>89.42000000000003</v>
-      </c>
-      <c r="M109" t="n">
-        <v>88.04499999999994</v>
-      </c>
-      <c r="N109" t="n">
-        <v>87.15999999999994</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>90</v>
-      </c>
-      <c r="C110" t="n">
-        <v>90</v>
-      </c>
-      <c r="D110" t="n">
-        <v>90</v>
-      </c>
-      <c r="E110" t="n">
-        <v>90</v>
-      </c>
-      <c r="F110" t="n">
-        <v>15781.8562</v>
-      </c>
-      <c r="G110" t="n">
-        <v>84.94000000000027</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>8.099999999999994</v>
-      </c>
-      <c r="J110" t="n">
-        <v>32.09999999999999</v>
-      </c>
-      <c r="K110" t="n">
-        <v>90.0000000000005</v>
-      </c>
-      <c r="L110" t="n">
-        <v>89.62000000000003</v>
-      </c>
-      <c r="M110" t="n">
-        <v>88.24999999999994</v>
-      </c>
-      <c r="N110" t="n">
-        <v>87.32666666666661</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="C111" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="D111" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="E111" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F111" t="n">
-        <v>8733.8485</v>
-      </c>
-      <c r="G111" t="n">
-        <v>85.10333333333361</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>8.699999999999989</v>
-      </c>
-      <c r="J111" t="n">
-        <v>32.69999999999999</v>
-      </c>
-      <c r="K111" t="n">
-        <v>83.33333333333412</v>
-      </c>
-      <c r="L111" t="n">
-        <v>89.86000000000003</v>
-      </c>
-      <c r="M111" t="n">
-        <v>88.48499999999993</v>
-      </c>
-      <c r="N111" t="n">
-        <v>87.49999999999994</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="C112" t="n">
-        <v>93</v>
-      </c>
-      <c r="D112" t="n">
-        <v>93</v>
-      </c>
-      <c r="E112" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="F112" t="n">
-        <v>17930.8722</v>
-      </c>
-      <c r="G112" t="n">
-        <v>85.2983333333336</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>11.09999999999999</v>
-      </c>
-      <c r="J112" t="n">
-        <v>35.09999999999999</v>
-      </c>
-      <c r="K112" t="n">
-        <v>100</v>
-      </c>
-      <c r="L112" t="n">
-        <v>90.20000000000002</v>
-      </c>
-      <c r="M112" t="n">
-        <v>88.83499999999994</v>
-      </c>
-      <c r="N112" t="n">
-        <v>87.75333333333327</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="C113" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D113" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E113" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F113" t="n">
-        <v>37356.0537</v>
-      </c>
-      <c r="G113" t="n">
-        <v>85.5083333333336</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>12</v>
-      </c>
-      <c r="J113" t="n">
-        <v>36</v>
-      </c>
-      <c r="K113" t="n">
-        <v>100</v>
-      </c>
-      <c r="L113" t="n">
-        <v>90.64000000000001</v>
-      </c>
-      <c r="M113" t="n">
-        <v>89.23499999999993</v>
-      </c>
-      <c r="N113" t="n">
-        <v>88.03333333333327</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="C114" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="D114" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="E114" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="F114" t="n">
-        <v>83.23999999999999</v>
-      </c>
-      <c r="G114" t="n">
-        <v>85.69833333333358</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>11</v>
-      </c>
-      <c r="J114" t="n">
-        <v>37</v>
-      </c>
-      <c r="K114" t="n">
-        <v>61.53846153846156</v>
-      </c>
-      <c r="L114" t="n">
-        <v>90.96000000000001</v>
-      </c>
-      <c r="M114" t="n">
-        <v>89.57999999999994</v>
-      </c>
-      <c r="N114" t="n">
-        <v>88.27999999999994</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="C115" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="D115" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="E115" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="F115" t="n">
-        <v>11225.44362135922</v>
-      </c>
-      <c r="G115" t="n">
-        <v>85.88666666666693</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>10.69999999999999</v>
-      </c>
-      <c r="J115" t="n">
-        <v>37.30000000000001</v>
-      </c>
-      <c r="K115" t="n">
-        <v>52.72727272727244</v>
-      </c>
-      <c r="L115" t="n">
-        <v>91.25000000000001</v>
-      </c>
-      <c r="M115" t="n">
-        <v>89.89499999999994</v>
-      </c>
-      <c r="N115" t="n">
-        <v>88.50333333333327</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="C116" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="F116" t="n">
-        <v>10</v>
-      </c>
-      <c r="G116" t="n">
-        <v>86.09000000000024</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>11.59999999999999</v>
-      </c>
-      <c r="J116" t="n">
-        <v>38.20000000000002</v>
-      </c>
-      <c r="K116" t="n">
-        <v>58.73015873015854</v>
-      </c>
-      <c r="L116" t="n">
-        <v>91.63000000000001</v>
-      </c>
-      <c r="M116" t="n">
-        <v>90.19499999999994</v>
-      </c>
-      <c r="N116" t="n">
-        <v>88.7566666666666</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="C117" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="D117" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="E117" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="F117" t="n">
-        <v>104.5026</v>
-      </c>
-      <c r="G117" t="n">
-        <v>86.29833333333359</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>11.59999999999999</v>
-      </c>
-      <c r="J117" t="n">
-        <v>38.20000000000002</v>
-      </c>
-      <c r="K117" t="n">
-        <v>57.37704918032765</v>
-      </c>
-      <c r="L117" t="n">
-        <v>92.00000000000001</v>
-      </c>
-      <c r="M117" t="n">
-        <v>90.49499999999993</v>
-      </c>
-      <c r="N117" t="n">
-        <v>89.0066666666666</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="C118" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="D118" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="E118" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="F118" t="n">
-        <v>42043.5392</v>
-      </c>
-      <c r="G118" t="n">
-        <v>86.49833333333359</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>11.59999999999999</v>
-      </c>
-      <c r="J118" t="n">
-        <v>38.20000000000002</v>
-      </c>
-      <c r="K118" t="n">
-        <v>57.37704918032765</v>
-      </c>
-      <c r="L118" t="n">
-        <v>92.35000000000001</v>
-      </c>
-      <c r="M118" t="n">
-        <v>90.78499999999994</v>
-      </c>
-      <c r="N118" t="n">
-        <v>89.3366666666666</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="C119" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="E119" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="F119" t="n">
-        <v>6954.0137</v>
-      </c>
-      <c r="G119" t="n">
-        <v>86.69333333333358</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J119" t="n">
-        <v>38.50000000000001</v>
-      </c>
-      <c r="K119" t="n">
-        <v>49.99999999999989</v>
-      </c>
-      <c r="L119" t="n">
-        <v>92.67000000000002</v>
-      </c>
-      <c r="M119" t="n">
-        <v>91.04499999999993</v>
-      </c>
-      <c r="N119" t="n">
-        <v>89.5866666666666</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="C120" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="E120" t="n">
-        <v>92</v>
-      </c>
-      <c r="F120" t="n">
-        <v>3973.3978</v>
-      </c>
-      <c r="G120" t="n">
-        <v>86.89000000000026</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>11.39999999999999</v>
-      </c>
-      <c r="J120" t="n">
-        <v>38.60000000000001</v>
-      </c>
-      <c r="K120" t="n">
-        <v>45.76271186440668</v>
-      </c>
-      <c r="L120" t="n">
-        <v>93.00000000000001</v>
-      </c>
-      <c r="M120" t="n">
-        <v>91.30999999999993</v>
-      </c>
-      <c r="N120" t="n">
-        <v>89.83333333333327</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="C121" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="D121" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="E121" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="F121" t="n">
-        <v>282.0085</v>
-      </c>
-      <c r="G121" t="n">
-        <v>87.08333333333357</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J121" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K121" t="n">
-        <v>5.555555555555621</v>
-      </c>
-      <c r="L121" t="n">
-        <v>93.26000000000002</v>
-      </c>
-      <c r="M121" t="n">
-        <v>91.55999999999993</v>
-      </c>
-      <c r="N121" t="n">
-        <v>90.0766666666666</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="C122" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="D122" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>93</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2309.1132</v>
-      </c>
-      <c r="G122" t="n">
-        <v>87.27333333333358</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>11.39999999999999</v>
-      </c>
-      <c r="J122" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-21.42857142857175</v>
-      </c>
-      <c r="L122" t="n">
-        <v>93.29000000000001</v>
-      </c>
-      <c r="M122" t="n">
-        <v>91.74499999999993</v>
-      </c>
-      <c r="N122" t="n">
-        <v>90.31999999999994</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="C123" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="D123" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="E123" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F123" t="n">
-        <v>43.9658</v>
-      </c>
-      <c r="G123" t="n">
-        <v>87.46333333333359</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>11.39999999999999</v>
-      </c>
-      <c r="J123" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="K123" t="n">
-        <v>22.22222222222178</v>
-      </c>
-      <c r="L123" t="n">
-        <v>93.23</v>
-      </c>
-      <c r="M123" t="n">
-        <v>91.93499999999993</v>
-      </c>
-      <c r="N123" t="n">
-        <v>90.56666666666661</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="C124" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="D124" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="E124" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>432</v>
-      </c>
-      <c r="G124" t="n">
-        <v>87.65333333333361</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>11.39999999999999</v>
-      </c>
-      <c r="J124" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="K124" t="n">
-        <v>46.6666666666673</v>
-      </c>
-      <c r="L124" t="n">
-        <v>93.27000000000001</v>
-      </c>
-      <c r="M124" t="n">
-        <v>92.11499999999992</v>
-      </c>
-      <c r="N124" t="n">
-        <v>90.80999999999995</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="C125" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="D125" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="E125" t="n">
-        <v>92</v>
-      </c>
-      <c r="F125" t="n">
-        <v>37086.6578</v>
-      </c>
-      <c r="G125" t="n">
-        <v>87.82666666666692</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J125" t="n">
-        <v>39.69999999999999</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-73.33333333333434</v>
-      </c>
-      <c r="L125" t="n">
-        <v>93.25000000000001</v>
-      </c>
-      <c r="M125" t="n">
-        <v>92.24999999999993</v>
-      </c>
-      <c r="N125" t="n">
-        <v>91.01333333333328</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>94</v>
-      </c>
-      <c r="C126" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="D126" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="E126" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="F126" t="n">
-        <v>29525.737</v>
-      </c>
-      <c r="G126" t="n">
-        <v>88.03166666666694</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>12.39999999999999</v>
-      </c>
-      <c r="J126" t="n">
-        <v>41.59999999999998</v>
-      </c>
-      <c r="K126" t="n">
-        <v>23.52941176470605</v>
-      </c>
-      <c r="L126" t="n">
-        <v>93.33000000000001</v>
-      </c>
-      <c r="M126" t="n">
-        <v>92.47999999999993</v>
-      </c>
-      <c r="N126" t="n">
-        <v>91.23999999999995</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-20 BackTest PST.xlsx
+++ b/BackTest/2019-10-20 BackTest PST.xlsx
@@ -1431,17 +1431,13 @@
         <v>81.71500000000002</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="K30" t="n">
-        <v>81.8</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
@@ -1476,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1517,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1587,17 +1571,13 @@
         <v>81.64833333333338</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
@@ -1632,874 +1612,714 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>80</v>
+      </c>
+      <c r="D36" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="E36" t="n">
+        <v>80</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1437.2359</v>
+      </c>
+      <c r="G36" t="n">
+        <v>81.58666666666674</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>80</v>
+      </c>
+      <c r="C37" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>80</v>
+      </c>
+      <c r="E37" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>17258.2858</v>
+      </c>
+      <c r="G37" t="n">
+        <v>81.54333333333342</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E38" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>13.0429</v>
+      </c>
+      <c r="G38" t="n">
+        <v>81.53500000000008</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D39" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E39" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>22.9729</v>
+      </c>
+      <c r="G39" t="n">
+        <v>81.52666666666674</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E40" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>22.9606</v>
+      </c>
+      <c r="G40" t="n">
+        <v>81.51833333333342</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>45.8187</v>
+      </c>
+      <c r="G41" t="n">
+        <v>81.47833333333342</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="C42" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8378.296</v>
+      </c>
+      <c r="G42" t="n">
+        <v>81.43833333333343</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>81</v>
+      </c>
+      <c r="D43" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4700.7022</v>
+      </c>
+      <c r="G43" t="n">
+        <v>81.42333333333343</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="C44" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="D44" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4.4397</v>
+      </c>
+      <c r="G44" t="n">
+        <v>81.41000000000011</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E45" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>17.0515</v>
+      </c>
+      <c r="G45" t="n">
+        <v>81.40166666666678</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E46" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>782.6315</v>
+      </c>
+      <c r="G46" t="n">
+        <v>81.39333333333344</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="C47" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12.555</v>
+      </c>
+      <c r="G47" t="n">
+        <v>81.39166666666679</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>921.0189</v>
+      </c>
+      <c r="G48" t="n">
+        <v>81.38333333333345</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E49" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1753</v>
+      </c>
+      <c r="G49" t="n">
+        <v>81.37500000000013</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="D50" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E50" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2242.2476</v>
+      </c>
+      <c r="G50" t="n">
+        <v>81.36166666666681</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>50</v>
+      </c>
+      <c r="G51" t="n">
+        <v>81.34333333333348</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>12.7244</v>
+      </c>
+      <c r="G52" t="n">
+        <v>81.33333333333348</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="C53" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E53" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8456.987499999999</v>
+      </c>
+      <c r="G53" t="n">
+        <v>81.32333333333349</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>19.0429</v>
+      </c>
+      <c r="G54" t="n">
+        <v>81.31666666666683</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="D55" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E55" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1821</v>
+      </c>
+      <c r="G55" t="n">
+        <v>81.30666666666684</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="C36" t="n">
-        <v>80</v>
-      </c>
-      <c r="D36" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="E36" t="n">
-        <v>80</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1437.2359</v>
-      </c>
-      <c r="G36" t="n">
-        <v>81.58666666666674</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="K36" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>80</v>
-      </c>
-      <c r="C37" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="D37" t="n">
-        <v>80</v>
-      </c>
-      <c r="E37" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="F37" t="n">
-        <v>17258.2858</v>
-      </c>
-      <c r="G37" t="n">
-        <v>81.54333333333342</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>80</v>
-      </c>
-      <c r="K37" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="C38" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="D38" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E38" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="F38" t="n">
-        <v>13.0429</v>
-      </c>
-      <c r="G38" t="n">
-        <v>81.53500000000008</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="K38" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="C39" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="D39" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E39" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="F39" t="n">
-        <v>22.9729</v>
-      </c>
-      <c r="G39" t="n">
-        <v>81.52666666666674</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="K39" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="C40" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="D40" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E40" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>22.9606</v>
-      </c>
-      <c r="G40" t="n">
-        <v>81.51833333333342</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="K40" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="C41" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="E41" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="F41" t="n">
-        <v>45.8187</v>
-      </c>
-      <c r="G41" t="n">
-        <v>81.47833333333342</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="C42" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="D42" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="E42" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>8378.296</v>
-      </c>
-      <c r="G42" t="n">
-        <v>81.43833333333343</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="K42" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="C43" t="n">
-        <v>81</v>
-      </c>
-      <c r="D43" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="E43" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4700.7022</v>
-      </c>
-      <c r="G43" t="n">
-        <v>81.42333333333343</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K43" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="C44" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="D44" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="E44" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="F44" t="n">
-        <v>4.4397</v>
-      </c>
-      <c r="G44" t="n">
-        <v>81.41000000000011</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="K44" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="C45" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="D45" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E45" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="F45" t="n">
-        <v>17.0515</v>
-      </c>
-      <c r="G45" t="n">
-        <v>81.40166666666678</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="K45" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="C46" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="D46" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E46" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="F46" t="n">
-        <v>782.6315</v>
-      </c>
-      <c r="G46" t="n">
-        <v>81.39333333333344</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="K46" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="C47" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="D47" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="E47" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="F47" t="n">
-        <v>12.555</v>
-      </c>
-      <c r="G47" t="n">
-        <v>81.39166666666679</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="K47" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="D48" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="E48" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="F48" t="n">
-        <v>921.0189</v>
-      </c>
-      <c r="G48" t="n">
-        <v>81.38333333333345</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="K48" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="C49" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="D49" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E49" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1753</v>
-      </c>
-      <c r="G49" t="n">
-        <v>81.37500000000013</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="K49" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="C50" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="D50" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E50" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2242.2476</v>
-      </c>
-      <c r="G50" t="n">
-        <v>81.36166666666681</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="K50" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="C51" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="D51" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="E51" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="F51" t="n">
-        <v>50</v>
-      </c>
-      <c r="G51" t="n">
-        <v>81.34333333333348</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K51" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="C52" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="D52" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="E52" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="F52" t="n">
-        <v>12.7244</v>
-      </c>
-      <c r="G52" t="n">
-        <v>81.33333333333348</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="K52" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="C53" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="D53" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E53" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="F53" t="n">
-        <v>8456.987499999999</v>
-      </c>
-      <c r="G53" t="n">
-        <v>81.32333333333349</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="C54" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D54" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="E54" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="F54" t="n">
-        <v>19.0429</v>
-      </c>
-      <c r="G54" t="n">
-        <v>81.31666666666683</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="K54" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="C55" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="D55" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E55" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1821</v>
-      </c>
-      <c r="G55" t="n">
-        <v>81.30666666666684</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="K55" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2535,9 +2355,7 @@
       <c r="J56" t="n">
         <v>81.3</v>
       </c>
-      <c r="K56" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2576,11 +2394,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>81</v>
-      </c>
-      <c r="K57" t="n">
-        <v>80.2</v>
-      </c>
+        <v>81.3</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2619,11 +2435,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="K58" t="n">
-        <v>80.2</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2656,17 +2470,13 @@
         <v>81.26833333333353</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2699,17 +2509,13 @@
         <v>81.26166666666687</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="K60" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2742,17 +2548,13 @@
         <v>81.25666666666689</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="K61" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2785,17 +2587,13 @@
         <v>81.25666666666689</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="K62" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2834,9 +2632,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2875,9 +2671,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2916,9 +2710,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2957,9 +2749,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2998,9 +2788,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3039,9 +2827,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3080,9 +2866,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3121,9 +2905,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3162,9 +2944,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3203,9 +2983,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3244,9 +3022,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,9 +3061,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3326,9 +3100,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3367,9 +3139,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3408,9 +3178,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3449,9 +3217,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3490,9 +3256,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3528,20 +3292,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3572,14 +3332,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3610,17 +3364,11 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3654,14 +3402,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3692,17 +3434,11 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3736,14 +3472,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3774,17 +3504,11 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3815,17 +3539,11 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3856,17 +3574,11 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3897,17 +3609,11 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3941,14 +3647,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3982,14 +3682,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4023,14 +3717,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4061,19 +3749,13 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>1.066072319201995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -4102,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4207,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4242,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4277,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4312,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4347,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4382,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4417,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4452,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>

--- a/BackTest/2019-10-20 BackTest PST.xlsx
+++ b/BackTest/2019-10-20 BackTest PST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>158077.6069</v>
+        <v>1450588.7498</v>
       </c>
       <c r="G2" t="n">
         <v>81.91000000000001</v>
@@ -480,7 +480,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>942011.8305</v>
+        <v>158077.6069</v>
       </c>
       <c r="G3" t="n">
         <v>81.91000000000001</v>
@@ -515,7 +515,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>1429925.6504</v>
+        <v>942011.8305</v>
       </c>
       <c r="G4" t="n">
         <v>81.91000000000001</v>
@@ -550,10 +550,10 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>1454079.7999</v>
+        <v>1429925.6504</v>
       </c>
       <c r="G5" t="n">
-        <v>81.90666666666667</v>
+        <v>81.91000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>1463741.4597</v>
+        <v>1454079.7999</v>
       </c>
       <c r="G7" t="n">
         <v>81.90666666666667</v>
@@ -655,7 +655,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>1449248.97</v>
+        <v>1463741.4597</v>
       </c>
       <c r="G8" t="n">
         <v>81.90666666666667</v>
@@ -690,7 +690,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>1425094.8205</v>
+        <v>1449248.97</v>
       </c>
       <c r="G9" t="n">
         <v>81.90666666666667</v>
@@ -725,10 +725,10 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>1415433.1607</v>
+        <v>1425094.8205</v>
       </c>
       <c r="G10" t="n">
-        <v>81.90333333333332</v>
+        <v>81.90666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>1439587.3102</v>
+        <v>1415433.1607</v>
       </c>
       <c r="G11" t="n">
-        <v>81.90166666666664</v>
+        <v>81.90333333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1425094.8205</v>
+        <v>1439587.3102</v>
       </c>
       <c r="G12" t="n">
-        <v>81.89999999999996</v>
+        <v>81.90166666666664</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>1444418.1401</v>
+        <v>1425094.8205</v>
       </c>
       <c r="G13" t="n">
         <v>81.89999999999996</v>
@@ -865,7 +865,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>942371.8305</v>
+        <v>1444418.1401</v>
       </c>
       <c r="G14" t="n">
         <v>81.89999999999996</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>10.2439</v>
+        <v>942371.8305</v>
       </c>
       <c r="G15" t="n">
-        <v>81.90166666666664</v>
+        <v>81.89999999999996</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,19 +923,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="C16" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="D16" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="E16" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="F16" t="n">
-        <v>11678.4614</v>
+        <v>10.2439</v>
       </c>
       <c r="G16" t="n">
         <v>81.90166666666664</v>
@@ -970,7 +970,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>11.156</v>
+        <v>11678.4614</v>
       </c>
       <c r="G17" t="n">
         <v>81.90166666666664</v>
@@ -1005,7 +1005,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>3982.9234</v>
+        <v>11.156</v>
       </c>
       <c r="G18" t="n">
         <v>81.90166666666664</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>1723.2385</v>
+        <v>3982.9234</v>
       </c>
       <c r="G19" t="n">
-        <v>81.88666666666664</v>
+        <v>81.90166666666664</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="C20" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="D20" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="E20" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="F20" t="n">
-        <v>581.9747</v>
+        <v>1723.2385</v>
       </c>
       <c r="G20" t="n">
-        <v>81.86999999999998</v>
+        <v>81.88666666666664</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>80.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>219.7125</v>
+        <v>581.9747</v>
       </c>
       <c r="G21" t="n">
-        <v>81.85333333333331</v>
+        <v>81.86999999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>80.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E22" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>1260.8119</v>
+        <v>219.7125</v>
       </c>
       <c r="G22" t="n">
-        <v>81.83833333333332</v>
+        <v>81.85333333333331</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>81</v>
@@ -1177,13 +1177,13 @@
         <v>81</v>
       </c>
       <c r="E23" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>5482.3987</v>
+        <v>1260.8119</v>
       </c>
       <c r="G23" t="n">
-        <v>81.82333333333332</v>
+        <v>81.83833333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="C24" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="D24" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="E24" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="F24" t="n">
-        <v>1698.3296</v>
+        <v>5482.3987</v>
       </c>
       <c r="G24" t="n">
-        <v>81.80666666666666</v>
+        <v>81.82333333333332</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>80.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>5809.0526</v>
+        <v>1698.3296</v>
       </c>
       <c r="G25" t="n">
-        <v>81.78999999999999</v>
+        <v>81.80666666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>80.90000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>448.380716934487</v>
+        <v>5809.0526</v>
       </c>
       <c r="G26" t="n">
-        <v>81.77333333333333</v>
+        <v>81.78999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>80.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>80.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>80.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>80.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>9874.055</v>
+        <v>448.380716934487</v>
       </c>
       <c r="G27" t="n">
-        <v>81.75</v>
+        <v>81.77333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="C28" t="n">
-        <v>80</v>
+        <v>80.5</v>
       </c>
       <c r="D28" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="E28" t="n">
-        <v>80</v>
+        <v>80.5</v>
       </c>
       <c r="F28" t="n">
-        <v>4462.1688</v>
+        <v>9874.055</v>
       </c>
       <c r="G28" t="n">
-        <v>81.71833333333333</v>
+        <v>81.75</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>81</v>
+        <v>80.3</v>
       </c>
       <c r="C29" t="n">
-        <v>81.8</v>
+        <v>80</v>
       </c>
       <c r="D29" t="n">
-        <v>81.90000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="E29" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" t="n">
-        <v>5493.6977</v>
+        <v>4462.1688</v>
       </c>
       <c r="G29" t="n">
-        <v>81.71666666666668</v>
+        <v>81.71833333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>81.8</v>
+        <v>81</v>
       </c>
       <c r="C30" t="n">
         <v>81.8</v>
       </c>
       <c r="D30" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>81.8</v>
+        <v>81</v>
       </c>
       <c r="F30" t="n">
-        <v>43.2885</v>
+        <v>5493.6977</v>
       </c>
       <c r="G30" t="n">
-        <v>81.71500000000002</v>
+        <v>81.71666666666668</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,19 +1460,23 @@
         <v>81.8</v>
       </c>
       <c r="F31" t="n">
-        <v>61.1246</v>
+        <v>43.2885</v>
       </c>
       <c r="G31" t="n">
-        <v>81.71333333333337</v>
+        <v>81.71500000000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>81.8</v>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
@@ -1483,22 +1487,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>80.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="C32" t="n">
-        <v>80.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="D32" t="n">
-        <v>80.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="E32" t="n">
-        <v>80.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="F32" t="n">
-        <v>447.2598</v>
+        <v>61.1246</v>
       </c>
       <c r="G32" t="n">
-        <v>81.68333333333338</v>
+        <v>81.71333333333337</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1511,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1528,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>81.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>81.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>81.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>81.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>447</v>
+        <v>447.2598</v>
       </c>
       <c r="G33" t="n">
-        <v>81.67666666666672</v>
+        <v>81.68333333333338</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="K33" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1571,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>80.2</v>
+        <v>81.5</v>
       </c>
       <c r="C34" t="n">
-        <v>80.2</v>
+        <v>81.5</v>
       </c>
       <c r="D34" t="n">
-        <v>80.2</v>
+        <v>81.5</v>
       </c>
       <c r="E34" t="n">
-        <v>80.2</v>
+        <v>81.5</v>
       </c>
       <c r="F34" t="n">
-        <v>104.152</v>
+        <v>447</v>
       </c>
       <c r="G34" t="n">
-        <v>81.64833333333338</v>
+        <v>81.67666666666672</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1606,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="C35" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="D35" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="E35" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="F35" t="n">
-        <v>897.523</v>
+        <v>104.152</v>
       </c>
       <c r="G35" t="n">
-        <v>81.6183333333334</v>
+        <v>81.64833333333338</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1641,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="C36" t="n">
         <v>80.09999999999999</v>
       </c>
-      <c r="C36" t="n">
-        <v>80</v>
-      </c>
       <c r="D36" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="E36" t="n">
         <v>80.09999999999999</v>
       </c>
-      <c r="E36" t="n">
-        <v>80</v>
-      </c>
       <c r="F36" t="n">
-        <v>1437.2359</v>
+        <v>897.523</v>
       </c>
       <c r="G36" t="n">
-        <v>81.58666666666674</v>
+        <v>81.6183333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1676,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="C37" t="n">
         <v>80</v>
       </c>
-      <c r="C37" t="n">
-        <v>79.3</v>
-      </c>
       <c r="D37" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="E37" t="n">
         <v>80</v>
       </c>
-      <c r="E37" t="n">
-        <v>79.3</v>
-      </c>
       <c r="F37" t="n">
-        <v>17258.2858</v>
+        <v>1437.2359</v>
       </c>
       <c r="G37" t="n">
-        <v>81.54333333333342</v>
+        <v>81.58666666666674</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1711,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>81.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="C38" t="n">
-        <v>81.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="D38" t="n">
-        <v>81.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="E38" t="n">
-        <v>81.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="F38" t="n">
-        <v>13.0429</v>
+        <v>17258.2858</v>
       </c>
       <c r="G38" t="n">
-        <v>81.53500000000008</v>
+        <v>81.54333333333342</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1758,10 @@
         <v>81.40000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>22.9729</v>
+        <v>13.0429</v>
       </c>
       <c r="G39" t="n">
-        <v>81.52666666666674</v>
+        <v>81.53500000000008</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1793,10 @@
         <v>81.40000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>22.9606</v>
+        <v>22.9729</v>
       </c>
       <c r="G40" t="n">
-        <v>81.51833333333342</v>
+        <v>81.52666666666674</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1816,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>79.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>79.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>79.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>79.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>45.8187</v>
+        <v>22.9606</v>
       </c>
       <c r="G41" t="n">
-        <v>81.47833333333342</v>
+        <v>81.51833333333342</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="C42" t="n">
         <v>79.5</v>
       </c>
       <c r="D42" t="n">
-        <v>79.8</v>
+        <v>79.5</v>
       </c>
       <c r="E42" t="n">
-        <v>78.7</v>
+        <v>79.5</v>
       </c>
       <c r="F42" t="n">
-        <v>8378.296</v>
+        <v>45.8187</v>
       </c>
       <c r="G42" t="n">
-        <v>81.43833333333343</v>
+        <v>81.47833333333342</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,32 +1886,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>80.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>81</v>
+        <v>79.5</v>
       </c>
       <c r="D43" t="n">
-        <v>81.09999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="E43" t="n">
-        <v>80.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="F43" t="n">
-        <v>4700.7022</v>
+        <v>8378.296</v>
       </c>
       <c r="G43" t="n">
-        <v>81.42333333333343</v>
+        <v>81.43833333333343</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>79.5</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,32 +1927,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>81.09999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="D44" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>81.09999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>4.4397</v>
+        <v>4700.7022</v>
       </c>
       <c r="G44" t="n">
-        <v>81.41000000000011</v>
+        <v>81.42333333333343</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>79.5</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +1968,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>81.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>81.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>81.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>81.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>17.0515</v>
+        <v>4.4397</v>
       </c>
       <c r="G45" t="n">
-        <v>81.40166666666678</v>
+        <v>81.41000000000011</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +1993,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1985,10 +2019,10 @@
         <v>81.40000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>782.6315</v>
+        <v>17.0515</v>
       </c>
       <c r="G46" t="n">
-        <v>81.39333333333344</v>
+        <v>81.40166666666678</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2032,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2046,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>81.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>81.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>81.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>81.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>12.555</v>
+        <v>782.6315</v>
       </c>
       <c r="G47" t="n">
-        <v>81.39166666666679</v>
+        <v>81.39333333333344</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2071,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2085,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="C48" t="n">
-        <v>81.40000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="D48" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="E48" t="n">
-        <v>81.40000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="F48" t="n">
-        <v>921.0189</v>
+        <v>12.555</v>
       </c>
       <c r="G48" t="n">
-        <v>81.38333333333345</v>
+        <v>81.39166666666679</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2110,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2124,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="C49" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="E49" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>1753</v>
+        <v>921.0189</v>
       </c>
       <c r="G49" t="n">
-        <v>81.37500000000013</v>
+        <v>81.38333333333345</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2149,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2116,19 +2166,19 @@
         <v>81.40000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>81.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D50" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>81.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>2242.2476</v>
+        <v>1753</v>
       </c>
       <c r="G50" t="n">
-        <v>81.36166666666681</v>
+        <v>81.37500000000013</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2188,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>80.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>80.8</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>80.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>80.8</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>2242.2476</v>
       </c>
       <c r="G51" t="n">
-        <v>81.34333333333348</v>
+        <v>81.36166666666681</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2227,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2241,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>81.3</v>
+        <v>80.8</v>
       </c>
       <c r="C52" t="n">
-        <v>81.3</v>
+        <v>80.8</v>
       </c>
       <c r="D52" t="n">
-        <v>81.3</v>
+        <v>80.8</v>
       </c>
       <c r="E52" t="n">
-        <v>81.3</v>
+        <v>80.8</v>
       </c>
       <c r="F52" t="n">
-        <v>12.7244</v>
+        <v>50</v>
       </c>
       <c r="G52" t="n">
-        <v>81.33333333333348</v>
+        <v>81.34333333333348</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2266,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2224,16 +2286,16 @@
         <v>81.3</v>
       </c>
       <c r="D53" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="E53" t="n">
         <v>81.3</v>
       </c>
       <c r="F53" t="n">
-        <v>8456.987499999999</v>
+        <v>12.7244</v>
       </c>
       <c r="G53" t="n">
-        <v>81.32333333333349</v>
+        <v>81.33333333333348</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2305,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2319,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="C54" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="D54" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="F54" t="n">
-        <v>19.0429</v>
+        <v>8456.987499999999</v>
       </c>
       <c r="G54" t="n">
-        <v>81.31666666666683</v>
+        <v>81.32333333333349</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2344,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,36 +2358,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="C55" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="D55" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="E55" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="F55" t="n">
-        <v>1821</v>
+        <v>19.0429</v>
       </c>
       <c r="G55" t="n">
-        <v>81.30666666666684</v>
+        <v>81.31666666666683</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>81.5</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -2335,26 +2403,24 @@
         <v>81.3</v>
       </c>
       <c r="D56" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E56" t="n">
         <v>81.3</v>
       </c>
       <c r="F56" t="n">
-        <v>1689</v>
+        <v>1821</v>
       </c>
       <c r="G56" t="n">
-        <v>81.29666666666685</v>
+        <v>81.30666666666684</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>81.3</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2370,32 +2436,30 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>81</v>
+        <v>81.3</v>
       </c>
       <c r="C57" t="n">
-        <v>81</v>
+        <v>81.3</v>
       </c>
       <c r="D57" t="n">
-        <v>81</v>
+        <v>81.3</v>
       </c>
       <c r="E57" t="n">
-        <v>81</v>
+        <v>81.3</v>
       </c>
       <c r="F57" t="n">
-        <v>18353.301</v>
+        <v>1689</v>
       </c>
       <c r="G57" t="n">
-        <v>81.28166666666685</v>
+        <v>81.29666666666685</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>81.3</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2411,32 +2475,30 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="C58" t="n">
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="D58" t="n">
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="E58" t="n">
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="F58" t="n">
-        <v>16.1963</v>
+        <v>18353.301</v>
       </c>
       <c r="G58" t="n">
-        <v>81.27500000000019</v>
+        <v>81.28166666666685</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>81</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2464,10 +2526,10 @@
         <v>81.5</v>
       </c>
       <c r="F59" t="n">
-        <v>2000</v>
+        <v>16.1963</v>
       </c>
       <c r="G59" t="n">
-        <v>81.26833333333353</v>
+        <v>81.27500000000019</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2503,10 +2565,10 @@
         <v>81.5</v>
       </c>
       <c r="F60" t="n">
-        <v>195.869</v>
+        <v>2000</v>
       </c>
       <c r="G60" t="n">
-        <v>81.26166666666687</v>
+        <v>81.26833333333353</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2530,22 +2592,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="C61" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="D61" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="E61" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="F61" t="n">
-        <v>1804.1965</v>
+        <v>195.869</v>
       </c>
       <c r="G61" t="n">
-        <v>81.25666666666689</v>
+        <v>81.26166666666687</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2569,19 +2631,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>81.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>81.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>81.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>81.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>1804.1965</v>
       </c>
       <c r="G62" t="n">
         <v>81.25666666666689</v>
@@ -2620,7 +2682,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>1249.7802</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
         <v>81.25666666666689</v>
@@ -2659,7 +2721,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>787.1559999999999</v>
+        <v>1249.7802</v>
       </c>
       <c r="G64" t="n">
         <v>81.25666666666689</v>
@@ -2686,22 +2748,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>787.1559999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>81.25833333333357</v>
+        <v>81.25666666666689</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2737,10 +2799,10 @@
         <v>82</v>
       </c>
       <c r="F66" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>81.26000000000023</v>
+        <v>81.25833333333357</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2764,22 +2826,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="C67" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="D67" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="E67" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="F67" t="n">
-        <v>708</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="n">
-        <v>81.26666666666691</v>
+        <v>81.26000000000023</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2818,7 +2880,7 @@
         <v>708</v>
       </c>
       <c r="G68" t="n">
-        <v>81.27333333333358</v>
+        <v>81.26666666666691</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2842,22 +2904,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="C69" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="D69" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="E69" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="F69" t="n">
-        <v>1346.7484</v>
+        <v>708</v>
       </c>
       <c r="G69" t="n">
-        <v>81.28166666666692</v>
+        <v>81.27333333333358</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2893,10 +2955,10 @@
         <v>82.40000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>5269.5648</v>
+        <v>1346.7484</v>
       </c>
       <c r="G70" t="n">
-        <v>81.29000000000025</v>
+        <v>81.28166666666692</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2932,10 +2994,10 @@
         <v>82.40000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>3228.796</v>
+        <v>5269.5648</v>
       </c>
       <c r="G71" t="n">
-        <v>81.29833333333359</v>
+        <v>81.29000000000025</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2962,19 +3024,19 @@
         <v>82.40000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E72" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>10515.1578</v>
+        <v>3228.796</v>
       </c>
       <c r="G72" t="n">
-        <v>81.30833333333359</v>
+        <v>81.29833333333359</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2998,22 +3060,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>82.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>83.3</v>
+        <v>82.5</v>
       </c>
       <c r="D73" t="n">
-        <v>83.5</v>
+        <v>82.5</v>
       </c>
       <c r="E73" t="n">
-        <v>82.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>11889.2487</v>
+        <v>10515.1578</v>
       </c>
       <c r="G73" t="n">
-        <v>81.33166666666693</v>
+        <v>81.30833333333359</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3037,22 +3099,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="D74" t="n">
         <v>83.5</v>
       </c>
-      <c r="C74" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="D74" t="n">
-        <v>84.90000000000001</v>
-      </c>
       <c r="E74" t="n">
-        <v>83.5</v>
+        <v>82.8</v>
       </c>
       <c r="F74" t="n">
-        <v>9314.753699999999</v>
+        <v>11889.2487</v>
       </c>
       <c r="G74" t="n">
-        <v>81.38166666666693</v>
+        <v>81.33166666666693</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3076,7 +3138,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>84.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="C75" t="n">
         <v>84.90000000000001</v>
@@ -3085,13 +3147,13 @@
         <v>84.90000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>84.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="F75" t="n">
-        <v>176.4502</v>
+        <v>9314.753699999999</v>
       </c>
       <c r="G75" t="n">
-        <v>81.43000000000026</v>
+        <v>81.38166666666693</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3115,7 +3177,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>84.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C76" t="n">
         <v>84.90000000000001</v>
@@ -3124,13 +3186,13 @@
         <v>84.90000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>84.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>1840.3384</v>
+        <v>176.4502</v>
       </c>
       <c r="G76" t="n">
-        <v>81.48000000000026</v>
+        <v>81.43000000000026</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3157,19 +3219,19 @@
         <v>84.90000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="E77" t="n">
         <v>84.90000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>121.512</v>
+        <v>1840.3384</v>
       </c>
       <c r="G77" t="n">
-        <v>81.53166666666694</v>
+        <v>81.48000000000026</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3205,34 +3267,32 @@
         <v>84.90000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>7660.0352</v>
+        <v>121.512</v>
       </c>
       <c r="G78" t="n">
-        <v>81.58333333333361</v>
+        <v>81.53166666666694</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C79" t="n">
         <v>85</v>
@@ -3241,27 +3301,23 @@
         <v>85</v>
       </c>
       <c r="E79" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>880.1351</v>
+        <v>7660.0352</v>
       </c>
       <c r="G79" t="n">
-        <v>81.65000000000028</v>
+        <v>81.58333333333361</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3283,10 +3339,10 @@
         <v>85</v>
       </c>
       <c r="F80" t="n">
-        <v>600</v>
+        <v>880.1351</v>
       </c>
       <c r="G80" t="n">
-        <v>81.71833333333362</v>
+        <v>81.65000000000028</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3296,40 +3352,38 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>85.40000000000001</v>
+        <v>85</v>
       </c>
       <c r="C81" t="n">
-        <v>85.40000000000001</v>
+        <v>85</v>
       </c>
       <c r="D81" t="n">
-        <v>85.40000000000001</v>
+        <v>85</v>
       </c>
       <c r="E81" t="n">
-        <v>85.40000000000001</v>
+        <v>85</v>
       </c>
       <c r="F81" t="n">
-        <v>16.7388</v>
+        <v>600</v>
       </c>
       <c r="G81" t="n">
-        <v>81.79333333333361</v>
+        <v>81.71833333333362</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3355,10 +3409,10 @@
         <v>85.40000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>100.7611</v>
+        <v>16.7388</v>
       </c>
       <c r="G82" t="n">
-        <v>81.86666666666694</v>
+        <v>81.79333333333361</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3381,19 +3435,19 @@
         <v>85.40000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="E83" t="n">
         <v>85.40000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>544</v>
+        <v>100.7611</v>
       </c>
       <c r="G83" t="n">
-        <v>81.94166666666693</v>
+        <v>81.86666666666694</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3413,7 +3467,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C84" t="n">
         <v>85.5</v>
@@ -3422,13 +3476,13 @@
         <v>85.5</v>
       </c>
       <c r="E84" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>4990.2597</v>
+        <v>544</v>
       </c>
       <c r="G84" t="n">
-        <v>82.01833333333362</v>
+        <v>81.94166666666693</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3448,28 +3502,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>85.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="C85" t="n">
-        <v>85.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="D85" t="n">
-        <v>85.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="E85" t="n">
-        <v>85.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>4990.2597</v>
       </c>
       <c r="G85" t="n">
-        <v>82.10166666666694</v>
+        <v>82.01833333333362</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3495,10 +3549,10 @@
         <v>85.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>11.64144353899884</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>82.18500000000027</v>
+        <v>82.10166666666694</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3521,19 +3575,19 @@
         <v>85.90000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E87" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>29210.2444</v>
+        <v>11.64144353899884</v>
       </c>
       <c r="G87" t="n">
-        <v>82.27666666666694</v>
+        <v>82.18500000000027</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3556,19 +3610,19 @@
         <v>85.90000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>83.59999999999999</v>
+        <v>86</v>
       </c>
       <c r="D88" t="n">
+        <v>86</v>
+      </c>
+      <c r="E88" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="E88" t="n">
-        <v>83.59999999999999</v>
-      </c>
       <c r="F88" t="n">
-        <v>9413.382600000001</v>
+        <v>29210.2444</v>
       </c>
       <c r="G88" t="n">
-        <v>82.33666666666696</v>
+        <v>82.27666666666694</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3591,19 +3645,19 @@
         <v>85.90000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>85.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D89" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>85.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>300</v>
+        <v>9413.382600000001</v>
       </c>
       <c r="G89" t="n">
-        <v>82.40166666666694</v>
+        <v>82.33666666666696</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3626,25 +3680,25 @@
         <v>85.90000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>85.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="D90" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>85.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="F90" t="n">
-        <v>10.9856</v>
+        <v>300</v>
       </c>
       <c r="G90" t="n">
-        <v>82.47000000000027</v>
+        <v>82.40166666666694</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3670,10 +3724,10 @@
         <v>85.90000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>144.0144</v>
+        <v>10.9856</v>
       </c>
       <c r="G91" t="n">
-        <v>82.5383333333336</v>
+        <v>82.47000000000027</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3693,22 +3747,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>210.1234</v>
+        <v>144.0144</v>
       </c>
       <c r="G92" t="n">
-        <v>82.63666666666693</v>
+        <v>82.5383333333336</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3731,19 +3785,19 @@
         <v>86</v>
       </c>
       <c r="C93" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="D93" t="n">
         <v>86</v>
       </c>
       <c r="E93" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="F93" t="n">
-        <v>80.6768</v>
+        <v>210.1234</v>
       </c>
       <c r="G93" t="n">
-        <v>82.71000000000025</v>
+        <v>82.63666666666693</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3763,22 +3817,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>86</v>
+      </c>
+      <c r="C94" t="n">
         <v>85.90000000000001</v>
-      </c>
-      <c r="C94" t="n">
-        <v>86</v>
       </c>
       <c r="D94" t="n">
         <v>86</v>
       </c>
       <c r="E94" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>737.225</v>
+        <v>80.6768</v>
       </c>
       <c r="G94" t="n">
-        <v>82.80666666666691</v>
+        <v>82.71000000000025</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3798,22 +3852,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C95" t="n">
         <v>86</v>
       </c>
-      <c r="C95" t="n">
-        <v>86.3</v>
-      </c>
       <c r="D95" t="n">
-        <v>86.3</v>
+        <v>86</v>
       </c>
       <c r="E95" t="n">
-        <v>86</v>
+        <v>85.8</v>
       </c>
       <c r="F95" t="n">
-        <v>1333</v>
+        <v>737.225</v>
       </c>
       <c r="G95" t="n">
-        <v>82.91000000000025</v>
+        <v>82.80666666666691</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3833,22 +3887,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>86.40000000000001</v>
+        <v>86</v>
       </c>
       <c r="C96" t="n">
-        <v>87.5</v>
+        <v>86.3</v>
       </c>
       <c r="D96" t="n">
-        <v>87.59999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="E96" t="n">
-        <v>86.40000000000001</v>
+        <v>86</v>
       </c>
       <c r="F96" t="n">
-        <v>39821.4396</v>
+        <v>1333</v>
       </c>
       <c r="G96" t="n">
-        <v>83.03500000000025</v>
+        <v>82.91000000000025</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3868,22 +3922,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>87.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="C97" t="n">
         <v>87.5</v>
       </c>
       <c r="D97" t="n">
-        <v>87.5</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>87.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>26.9658</v>
+        <v>39821.4396</v>
       </c>
       <c r="G97" t="n">
-        <v>83.17166666666691</v>
+        <v>83.03500000000025</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3903,22 +3957,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="C98" t="n">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="D98" t="n">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="E98" t="n">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="F98" t="n">
-        <v>2000.9464</v>
+        <v>26.9658</v>
       </c>
       <c r="G98" t="n">
-        <v>83.27666666666691</v>
+        <v>83.17166666666691</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3938,22 +3992,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>87.90000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="C99" t="n">
-        <v>88</v>
+        <v>87.7</v>
       </c>
       <c r="D99" t="n">
-        <v>88</v>
+        <v>87.7</v>
       </c>
       <c r="E99" t="n">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="F99" t="n">
-        <v>4489.8896</v>
+        <v>2000.9464</v>
       </c>
       <c r="G99" t="n">
-        <v>83.38666666666693</v>
+        <v>83.27666666666691</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3973,7 +4027,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>88</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="C100" t="n">
         <v>88</v>
@@ -3982,13 +4036,13 @@
         <v>88</v>
       </c>
       <c r="E100" t="n">
-        <v>88</v>
+        <v>87.8</v>
       </c>
       <c r="F100" t="n">
-        <v>7182.3317</v>
+        <v>4489.8896</v>
       </c>
       <c r="G100" t="n">
-        <v>83.49666666666693</v>
+        <v>83.38666666666693</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4011,19 +4065,19 @@
         <v>88</v>
       </c>
       <c r="C101" t="n">
-        <v>88.2</v>
+        <v>88</v>
       </c>
       <c r="D101" t="n">
-        <v>89.8</v>
+        <v>88</v>
       </c>
       <c r="E101" t="n">
         <v>88</v>
       </c>
       <c r="F101" t="n">
-        <v>2931.867414142539</v>
+        <v>7182.3317</v>
       </c>
       <c r="G101" t="n">
-        <v>83.64166666666692</v>
+        <v>83.49666666666693</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4043,22 +4097,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>88.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="C102" t="n">
-        <v>89.59999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="D102" t="n">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="E102" t="n">
         <v>88</v>
       </c>
       <c r="F102" t="n">
-        <v>3987.6044</v>
+        <v>2931.867414142539</v>
       </c>
       <c r="G102" t="n">
-        <v>83.81000000000026</v>
+        <v>83.64166666666692</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4078,22 +4132,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>89.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>89.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>89.5</v>
+        <v>89.7</v>
       </c>
       <c r="E103" t="n">
-        <v>89.3</v>
+        <v>88</v>
       </c>
       <c r="F103" t="n">
-        <v>5556.0859</v>
+        <v>3987.6044</v>
       </c>
       <c r="G103" t="n">
-        <v>83.95166666666692</v>
+        <v>83.81000000000026</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4116,19 +4170,19 @@
         <v>89.5</v>
       </c>
       <c r="C104" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="D104" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="E104" t="n">
-        <v>89.5</v>
+        <v>89.3</v>
       </c>
       <c r="F104" t="n">
-        <v>9321.741714492753</v>
+        <v>5556.0859</v>
       </c>
       <c r="G104" t="n">
-        <v>84.09500000000025</v>
+        <v>83.95166666666692</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4148,7 +4202,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="C105" t="n">
         <v>89.7</v>
@@ -4157,13 +4211,13 @@
         <v>89.7</v>
       </c>
       <c r="E105" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="F105" t="n">
-        <v>447.617</v>
+        <v>9321.741714492753</v>
       </c>
       <c r="G105" t="n">
-        <v>84.23333333333359</v>
+        <v>84.09500000000025</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4178,6 +4232,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C106" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D106" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E106" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>447.617</v>
+      </c>
+      <c r="G106" t="n">
+        <v>84.23333333333359</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-20 BackTest PST.xlsx
+++ b/BackTest/2019-10-20 BackTest PST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1450588.7498</v>
       </c>
       <c r="G2" t="n">
+        <v>81.90000000000002</v>
+      </c>
+      <c r="H2" t="n">
         <v>81.91000000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>158077.6069</v>
       </c>
       <c r="G3" t="n">
+        <v>81.90000000000002</v>
+      </c>
+      <c r="H3" t="n">
         <v>81.91000000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>942011.8305</v>
       </c>
       <c r="G4" t="n">
+        <v>81.90000000000002</v>
+      </c>
+      <c r="H4" t="n">
         <v>81.91000000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1429925.6504</v>
       </c>
       <c r="G5" t="n">
+        <v>81.90000000000002</v>
+      </c>
+      <c r="H5" t="n">
         <v>81.91000000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1454079.7999</v>
       </c>
       <c r="G6" t="n">
+        <v>81.90000000000002</v>
+      </c>
+      <c r="H6" t="n">
         <v>81.90666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1454079.7999</v>
       </c>
       <c r="G7" t="n">
+        <v>81.90000000000002</v>
+      </c>
+      <c r="H7" t="n">
         <v>81.90666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1463741.4597</v>
       </c>
       <c r="G8" t="n">
+        <v>81.90000000000002</v>
+      </c>
+      <c r="H8" t="n">
         <v>81.90666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1449248.97</v>
       </c>
       <c r="G9" t="n">
+        <v>81.90000000000002</v>
+      </c>
+      <c r="H9" t="n">
         <v>81.90666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1425094.8205</v>
       </c>
       <c r="G10" t="n">
+        <v>81.90000000000002</v>
+      </c>
+      <c r="H10" t="n">
         <v>81.90666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1415433.1607</v>
       </c>
       <c r="G11" t="n">
+        <v>81.90000000000002</v>
+      </c>
+      <c r="H11" t="n">
         <v>81.90333333333332</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1439587.3102</v>
       </c>
       <c r="G12" t="n">
+        <v>81.90000000000002</v>
+      </c>
+      <c r="H12" t="n">
         <v>81.90166666666664</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1425094.8205</v>
       </c>
       <c r="G13" t="n">
+        <v>81.90000000000002</v>
+      </c>
+      <c r="H13" t="n">
         <v>81.89999999999996</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1444418.1401</v>
       </c>
       <c r="G14" t="n">
+        <v>81.90000000000002</v>
+      </c>
+      <c r="H14" t="n">
         <v>81.89999999999996</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>942371.8305</v>
       </c>
       <c r="G15" t="n">
+        <v>81.90000000000002</v>
+      </c>
+      <c r="H15" t="n">
         <v>81.89999999999996</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>10.2439</v>
       </c>
       <c r="G16" t="n">
+        <v>81.90666666666668</v>
+      </c>
+      <c r="H16" t="n">
         <v>81.90166666666664</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>11678.4614</v>
       </c>
       <c r="G17" t="n">
+        <v>81.90666666666668</v>
+      </c>
+      <c r="H17" t="n">
         <v>81.90166666666664</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>11.156</v>
       </c>
       <c r="G18" t="n">
+        <v>81.90666666666668</v>
+      </c>
+      <c r="H18" t="n">
         <v>81.90166666666664</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>3982.9234</v>
       </c>
       <c r="G19" t="n">
+        <v>81.90666666666668</v>
+      </c>
+      <c r="H19" t="n">
         <v>81.90166666666664</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1723.2385</v>
       </c>
       <c r="G20" t="n">
+        <v>81.84666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>81.88666666666664</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>581.9747</v>
       </c>
       <c r="G21" t="n">
+        <v>81.78</v>
+      </c>
+      <c r="H21" t="n">
         <v>81.86999999999998</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>219.7125</v>
       </c>
       <c r="G22" t="n">
+        <v>81.71333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>81.85333333333331</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1260.8119</v>
       </c>
       <c r="G23" t="n">
+        <v>81.65333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>81.83833333333332</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>5482.3987</v>
       </c>
       <c r="G24" t="n">
+        <v>81.59333333333332</v>
+      </c>
+      <c r="H24" t="n">
         <v>81.82333333333332</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1698.3296</v>
       </c>
       <c r="G25" t="n">
+        <v>81.52666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>81.80666666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>5809.0526</v>
       </c>
       <c r="G26" t="n">
+        <v>81.45999999999999</v>
+      </c>
+      <c r="H26" t="n">
         <v>81.78999999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>448.380716934487</v>
       </c>
       <c r="G27" t="n">
+        <v>81.39333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>81.77333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>9874.055</v>
       </c>
       <c r="G28" t="n">
+        <v>81.29999999999998</v>
+      </c>
+      <c r="H28" t="n">
         <v>81.75</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>4462.1688</v>
       </c>
       <c r="G29" t="n">
+        <v>81.17333333333332</v>
+      </c>
+      <c r="H29" t="n">
         <v>81.71833333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>5493.6977</v>
       </c>
       <c r="G30" t="n">
+        <v>81.16666666666664</v>
+      </c>
+      <c r="H30" t="n">
         <v>81.71666666666668</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,22 +1555,21 @@
         <v>43.2885</v>
       </c>
       <c r="G31" t="n">
+        <v>81.15333333333329</v>
+      </c>
+      <c r="H31" t="n">
         <v>81.71500000000002</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="K31" t="n">
-        <v>81.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,24 +1593,21 @@
         <v>61.1246</v>
       </c>
       <c r="G32" t="n">
+        <v>81.14666666666662</v>
+      </c>
+      <c r="H32" t="n">
         <v>81.71333333333337</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1543,26 +1631,21 @@
         <v>447.2598</v>
       </c>
       <c r="G33" t="n">
+        <v>81.02666666666661</v>
+      </c>
+      <c r="H33" t="n">
         <v>81.68333333333338</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="K33" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,18 +1669,21 @@
         <v>447</v>
       </c>
       <c r="G34" t="n">
+        <v>80.99999999999994</v>
+      </c>
+      <c r="H34" t="n">
         <v>81.67666666666672</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,18 +1707,21 @@
         <v>104.152</v>
       </c>
       <c r="G35" t="n">
+        <v>80.94666666666662</v>
+      </c>
+      <c r="H35" t="n">
         <v>81.64833333333338</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,18 +1745,21 @@
         <v>897.523</v>
       </c>
       <c r="G36" t="n">
+        <v>80.89333333333326</v>
+      </c>
+      <c r="H36" t="n">
         <v>81.6183333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,18 +1783,21 @@
         <v>1437.2359</v>
       </c>
       <c r="G37" t="n">
+        <v>80.83333333333326</v>
+      </c>
+      <c r="H37" t="n">
         <v>81.58666666666674</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,18 +1821,21 @@
         <v>17258.2858</v>
       </c>
       <c r="G38" t="n">
+        <v>80.71999999999993</v>
+      </c>
+      <c r="H38" t="n">
         <v>81.54333333333342</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,18 +1859,21 @@
         <v>13.0429</v>
       </c>
       <c r="G39" t="n">
+        <v>80.7466666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>81.53500000000008</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,18 +1897,21 @@
         <v>22.9729</v>
       </c>
       <c r="G40" t="n">
+        <v>80.77999999999993</v>
+      </c>
+      <c r="H40" t="n">
         <v>81.52666666666674</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,18 +1935,21 @@
         <v>22.9606</v>
       </c>
       <c r="G41" t="n">
+        <v>80.81333333333326</v>
+      </c>
+      <c r="H41" t="n">
         <v>81.51833333333342</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,18 +1973,21 @@
         <v>45.8187</v>
       </c>
       <c r="G42" t="n">
+        <v>80.71999999999993</v>
+      </c>
+      <c r="H42" t="n">
         <v>81.47833333333342</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,24 +2011,21 @@
         <v>8378.296</v>
       </c>
       <c r="G43" t="n">
+        <v>80.65333333333325</v>
+      </c>
+      <c r="H43" t="n">
         <v>81.43833333333343</v>
       </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.5</v>
+        <v>0</v>
       </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1942,24 +2049,21 @@
         <v>4700.7022</v>
       </c>
       <c r="G44" t="n">
+        <v>80.71999999999993</v>
+      </c>
+      <c r="H44" t="n">
         <v>81.42333333333343</v>
       </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>79.5</v>
+        <v>0</v>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1983,22 +2087,21 @@
         <v>4.4397</v>
       </c>
       <c r="G45" t="n">
+        <v>80.67333333333325</v>
+      </c>
+      <c r="H45" t="n">
         <v>81.41000000000011</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2022,22 +2125,21 @@
         <v>17.0515</v>
       </c>
       <c r="G46" t="n">
+        <v>80.64666666666659</v>
+      </c>
+      <c r="H46" t="n">
         <v>81.40166666666678</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2061,22 +2163,21 @@
         <v>782.6315</v>
       </c>
       <c r="G47" t="n">
+        <v>80.61999999999993</v>
+      </c>
+      <c r="H47" t="n">
         <v>81.39333333333344</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2100,22 +2201,21 @@
         <v>12.555</v>
       </c>
       <c r="G48" t="n">
+        <v>80.73333333333328</v>
+      </c>
+      <c r="H48" t="n">
         <v>81.39166666666679</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2139,22 +2239,21 @@
         <v>921.0189</v>
       </c>
       <c r="G49" t="n">
+        <v>80.72666666666662</v>
+      </c>
+      <c r="H49" t="n">
         <v>81.38333333333345</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2178,22 +2277,21 @@
         <v>1753</v>
       </c>
       <c r="G50" t="n">
+        <v>80.80666666666662</v>
+      </c>
+      <c r="H50" t="n">
         <v>81.37500000000013</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2217,22 +2315,21 @@
         <v>2242.2476</v>
       </c>
       <c r="G51" t="n">
+        <v>80.87333333333328</v>
+      </c>
+      <c r="H51" t="n">
         <v>81.36166666666681</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2256,22 +2353,21 @@
         <v>50</v>
       </c>
       <c r="G52" t="n">
+        <v>80.92666666666661</v>
+      </c>
+      <c r="H52" t="n">
         <v>81.34333333333348</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2295,22 +2391,21 @@
         <v>12.7244</v>
       </c>
       <c r="G53" t="n">
+        <v>81.05999999999995</v>
+      </c>
+      <c r="H53" t="n">
         <v>81.33333333333348</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2334,22 +2429,21 @@
         <v>8456.987499999999</v>
       </c>
       <c r="G54" t="n">
+        <v>81.05333333333327</v>
+      </c>
+      <c r="H54" t="n">
         <v>81.32333333333349</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,22 +2467,21 @@
         <v>19.0429</v>
       </c>
       <c r="G55" t="n">
+        <v>81.05999999999993</v>
+      </c>
+      <c r="H55" t="n">
         <v>81.31666666666683</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2412,22 +2505,21 @@
         <v>1821</v>
       </c>
       <c r="G56" t="n">
+        <v>81.05333333333326</v>
+      </c>
+      <c r="H56" t="n">
         <v>81.30666666666684</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2451,22 +2543,25 @@
         <v>1689</v>
       </c>
       <c r="G57" t="n">
+        <v>81.17333333333325</v>
+      </c>
+      <c r="H57" t="n">
         <v>81.29666666666685</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,22 +2585,29 @@
         <v>18353.301</v>
       </c>
       <c r="G58" t="n">
+        <v>81.27333333333326</v>
+      </c>
+      <c r="H58" t="n">
         <v>81.28166666666685</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="L58" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,22 +2631,27 @@
         <v>16.1963</v>
       </c>
       <c r="G59" t="n">
+        <v>81.30666666666659</v>
+      </c>
+      <c r="H59" t="n">
         <v>81.27500000000019</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,22 +2675,21 @@
         <v>2000</v>
       </c>
       <c r="G60" t="n">
+        <v>81.33333333333326</v>
+      </c>
+      <c r="H60" t="n">
         <v>81.26833333333353</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2607,22 +2713,21 @@
         <v>195.869</v>
       </c>
       <c r="G61" t="n">
+        <v>81.33999999999992</v>
+      </c>
+      <c r="H61" t="n">
         <v>81.26166666666687</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2646,22 +2751,21 @@
         <v>1804.1965</v>
       </c>
       <c r="G62" t="n">
+        <v>81.35333333333324</v>
+      </c>
+      <c r="H62" t="n">
         <v>81.25666666666689</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2685,22 +2789,21 @@
         <v>10</v>
       </c>
       <c r="G63" t="n">
+        <v>81.35999999999991</v>
+      </c>
+      <c r="H63" t="n">
         <v>81.25666666666689</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,22 +2827,21 @@
         <v>1249.7802</v>
       </c>
       <c r="G64" t="n">
+        <v>81.39333333333325</v>
+      </c>
+      <c r="H64" t="n">
         <v>81.25666666666689</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2763,22 +2865,21 @@
         <v>787.1559999999999</v>
       </c>
       <c r="G65" t="n">
+        <v>81.42666666666658</v>
+      </c>
+      <c r="H65" t="n">
         <v>81.25666666666689</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2802,22 +2903,25 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
+        <v>81.48666666666659</v>
+      </c>
+      <c r="H66" t="n">
         <v>81.25833333333357</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L66" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2841,22 +2945,29 @@
         <v>1000</v>
       </c>
       <c r="G67" t="n">
+        <v>81.56666666666659</v>
+      </c>
+      <c r="H67" t="n">
         <v>81.26000000000023</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>82</v>
+      </c>
+      <c r="L67" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2880,22 +2991,29 @@
         <v>708</v>
       </c>
       <c r="G68" t="n">
+        <v>81.63333333333325</v>
+      </c>
+      <c r="H68" t="n">
         <v>81.26666666666691</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>82</v>
+      </c>
+      <c r="L68" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2919,22 +3037,25 @@
         <v>708</v>
       </c>
       <c r="G69" t="n">
+        <v>81.69999999999992</v>
+      </c>
+      <c r="H69" t="n">
         <v>81.27333333333358</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="L69" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2958,22 +3079,29 @@
         <v>1346.7484</v>
       </c>
       <c r="G70" t="n">
+        <v>81.75999999999993</v>
+      </c>
+      <c r="H70" t="n">
         <v>81.28166666666692</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="L70" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2997,22 +3125,29 @@
         <v>5269.5648</v>
       </c>
       <c r="G71" t="n">
+        <v>81.83333333333327</v>
+      </c>
+      <c r="H71" t="n">
         <v>81.29000000000025</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="L71" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3036,22 +3171,25 @@
         <v>3228.796</v>
       </c>
       <c r="G72" t="n">
+        <v>81.90666666666661</v>
+      </c>
+      <c r="H72" t="n">
         <v>81.29833333333359</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="L72" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3075,22 +3213,29 @@
         <v>10515.1578</v>
       </c>
       <c r="G73" t="n">
+        <v>82.00666666666662</v>
+      </c>
+      <c r="H73" t="n">
         <v>81.30833333333359</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="L73" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3114,22 +3259,29 @@
         <v>11889.2487</v>
       </c>
       <c r="G74" t="n">
+        <v>82.12666666666661</v>
+      </c>
+      <c r="H74" t="n">
         <v>81.33166666666693</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="L74" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3153,22 +3305,29 @@
         <v>9314.753699999999</v>
       </c>
       <c r="G75" t="n">
+        <v>82.35333333333328</v>
+      </c>
+      <c r="H75" t="n">
         <v>81.38166666666693</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="L75" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3192,22 +3351,29 @@
         <v>176.4502</v>
       </c>
       <c r="G76" t="n">
+        <v>82.57999999999996</v>
+      </c>
+      <c r="H76" t="n">
         <v>81.43000000000026</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="L76" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,22 +3397,27 @@
         <v>1840.3384</v>
       </c>
       <c r="G77" t="n">
+        <v>82.79999999999997</v>
+      </c>
+      <c r="H77" t="n">
         <v>81.48000000000026</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3270,22 +3441,29 @@
         <v>121.512</v>
       </c>
       <c r="G78" t="n">
+        <v>83.00666666666663</v>
+      </c>
+      <c r="H78" t="n">
         <v>81.53166666666694</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3307,18 +3485,27 @@
         <v>7660.0352</v>
       </c>
       <c r="G79" t="n">
+        <v>83.2133333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>81.58333333333361</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3342,18 +3529,27 @@
         <v>880.1351</v>
       </c>
       <c r="G80" t="n">
+        <v>83.41999999999994</v>
+      </c>
+      <c r="H80" t="n">
         <v>81.65000000000028</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3377,18 +3573,27 @@
         <v>600</v>
       </c>
       <c r="G81" t="n">
+        <v>83.61999999999995</v>
+      </c>
+      <c r="H81" t="n">
         <v>81.71833333333362</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3412,18 +3617,27 @@
         <v>16.7388</v>
       </c>
       <c r="G82" t="n">
+        <v>83.84666666666662</v>
+      </c>
+      <c r="H82" t="n">
         <v>81.79333333333361</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3447,18 +3661,27 @@
         <v>100.7611</v>
       </c>
       <c r="G83" t="n">
+        <v>84.0533333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>81.86666666666694</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,18 +3705,27 @@
         <v>544</v>
       </c>
       <c r="G84" t="n">
+        <v>84.26666666666664</v>
+      </c>
+      <c r="H84" t="n">
         <v>81.94166666666693</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3517,18 +3749,27 @@
         <v>4990.2597</v>
       </c>
       <c r="G85" t="n">
+        <v>84.4733333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>82.01833333333362</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3552,18 +3793,27 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
+        <v>84.70666666666664</v>
+      </c>
+      <c r="H86" t="n">
         <v>82.10166666666694</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3587,18 +3837,27 @@
         <v>11.64144353899884</v>
       </c>
       <c r="G87" t="n">
+        <v>84.93999999999997</v>
+      </c>
+      <c r="H87" t="n">
         <v>82.18500000000027</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3622,18 +3881,27 @@
         <v>29210.2444</v>
       </c>
       <c r="G88" t="n">
+        <v>85.1733333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>82.27666666666694</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3657,18 +3925,27 @@
         <v>9413.382600000001</v>
       </c>
       <c r="G89" t="n">
+        <v>85.1933333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>82.33666666666696</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3692,18 +3969,27 @@
         <v>300</v>
       </c>
       <c r="G90" t="n">
+        <v>85.24666666666663</v>
+      </c>
+      <c r="H90" t="n">
         <v>82.40166666666694</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3727,18 +4013,27 @@
         <v>10.9856</v>
       </c>
       <c r="G91" t="n">
+        <v>85.31333333333329</v>
+      </c>
+      <c r="H91" t="n">
         <v>82.47000000000027</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,18 +4057,27 @@
         <v>144.0144</v>
       </c>
       <c r="G92" t="n">
+        <v>85.37999999999995</v>
+      </c>
+      <c r="H92" t="n">
         <v>82.5383333333336</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3797,18 +4101,27 @@
         <v>210.1234</v>
       </c>
       <c r="G93" t="n">
+        <v>85.44666666666663</v>
+      </c>
+      <c r="H93" t="n">
         <v>82.63666666666693</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3832,18 +4145,27 @@
         <v>80.6768</v>
       </c>
       <c r="G94" t="n">
+        <v>85.50666666666663</v>
+      </c>
+      <c r="H94" t="n">
         <v>82.71000000000025</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3867,18 +4189,27 @@
         <v>737.225</v>
       </c>
       <c r="G95" t="n">
+        <v>85.5733333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>82.80666666666691</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3902,18 +4233,27 @@
         <v>1333</v>
       </c>
       <c r="G96" t="n">
+        <v>85.65999999999995</v>
+      </c>
+      <c r="H96" t="n">
         <v>82.91000000000025</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3937,18 +4277,27 @@
         <v>39821.4396</v>
       </c>
       <c r="G97" t="n">
+        <v>85.79999999999995</v>
+      </c>
+      <c r="H97" t="n">
         <v>83.03500000000025</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,18 +4321,27 @@
         <v>26.9658</v>
       </c>
       <c r="G98" t="n">
+        <v>85.93999999999996</v>
+      </c>
+      <c r="H98" t="n">
         <v>83.17166666666691</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4007,18 +4365,27 @@
         <v>2000.9464</v>
       </c>
       <c r="G99" t="n">
+        <v>86.08666666666662</v>
+      </c>
+      <c r="H99" t="n">
         <v>83.27666666666691</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4042,18 +4409,27 @@
         <v>4489.8896</v>
       </c>
       <c r="G100" t="n">
+        <v>86.25333333333329</v>
+      </c>
+      <c r="H100" t="n">
         <v>83.38666666666693</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4077,18 +4453,27 @@
         <v>7182.3317</v>
       </c>
       <c r="G101" t="n">
+        <v>86.39333333333327</v>
+      </c>
+      <c r="H101" t="n">
         <v>83.49666666666693</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4112,18 +4497,27 @@
         <v>2931.867414142539</v>
       </c>
       <c r="G102" t="n">
+        <v>86.54666666666661</v>
+      </c>
+      <c r="H102" t="n">
         <v>83.64166666666692</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4147,18 +4541,27 @@
         <v>3987.6044</v>
       </c>
       <c r="G103" t="n">
+        <v>86.7866666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>83.81000000000026</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4182,18 +4585,27 @@
         <v>5556.0859</v>
       </c>
       <c r="G104" t="n">
+        <v>87.17999999999994</v>
+      </c>
+      <c r="H104" t="n">
         <v>83.95166666666692</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4217,18 +4629,27 @@
         <v>9321.741714492753</v>
       </c>
       <c r="G105" t="n">
+        <v>87.44666666666662</v>
+      </c>
+      <c r="H105" t="n">
         <v>84.09500000000025</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,18 +4673,455 @@
         <v>447.617</v>
       </c>
       <c r="G106" t="n">
+        <v>87.69999999999995</v>
+      </c>
+      <c r="H106" t="n">
         <v>84.23333333333359</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C107" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E107" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F107" t="n">
+        <v>254.2645</v>
+      </c>
+      <c r="G107" t="n">
+        <v>87.95333333333328</v>
+      </c>
+      <c r="H107" t="n">
+        <v>84.37166666666693</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C108" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="D108" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E108" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3225.838485507246</v>
+      </c>
+      <c r="G108" t="n">
+        <v>88.20666666666661</v>
+      </c>
+      <c r="H108" t="n">
+        <v>84.50500000000027</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="C109" t="n">
+        <v>90</v>
+      </c>
+      <c r="D109" t="n">
+        <v>90</v>
+      </c>
+      <c r="E109" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>32532.52978585746</v>
+      </c>
+      <c r="G109" t="n">
+        <v>88.47999999999993</v>
+      </c>
+      <c r="H109" t="n">
+        <v>84.6483333333336</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="C110" t="n">
+        <v>90</v>
+      </c>
+      <c r="D110" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="E110" t="n">
+        <v>90</v>
+      </c>
+      <c r="F110" t="n">
+        <v>40162.498</v>
+      </c>
+      <c r="G110" t="n">
+        <v>88.7466666666666</v>
+      </c>
+      <c r="H110" t="n">
+        <v>84.79166666666694</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>90</v>
+      </c>
+      <c r="C111" t="n">
+        <v>90</v>
+      </c>
+      <c r="D111" t="n">
+        <v>90</v>
+      </c>
+      <c r="E111" t="n">
+        <v>90</v>
+      </c>
+      <c r="F111" t="n">
+        <v>15781.8562</v>
+      </c>
+      <c r="G111" t="n">
+        <v>88.99333333333327</v>
+      </c>
+      <c r="H111" t="n">
+        <v>84.94000000000027</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="D112" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="E112" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F112" t="n">
+        <v>8733.8485</v>
+      </c>
+      <c r="G112" t="n">
+        <v>89.19999999999992</v>
+      </c>
+      <c r="H112" t="n">
+        <v>85.10333333333361</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C113" t="n">
+        <v>93</v>
+      </c>
+      <c r="D113" t="n">
+        <v>93</v>
+      </c>
+      <c r="E113" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F113" t="n">
+        <v>17930.8722</v>
+      </c>
+      <c r="G113" t="n">
+        <v>89.56666666666659</v>
+      </c>
+      <c r="H113" t="n">
+        <v>85.2983333333336</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D114" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E114" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>37356.0537</v>
+      </c>
+      <c r="G114" t="n">
+        <v>89.97999999999993</v>
+      </c>
+      <c r="H114" t="n">
+        <v>85.5083333333336</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>1.134563106796117</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C115" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D115" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E115" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F115" t="n">
+        <v>83.23999999999999</v>
+      </c>
+      <c r="G115" t="n">
+        <v>90.3066666666666</v>
+      </c>
+      <c r="H115" t="n">
+        <v>85.69833333333358</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="C116" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="D116" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F116" t="n">
+        <v>11225.44362135922</v>
+      </c>
+      <c r="G116" t="n">
+        <v>90.61333333333326</v>
+      </c>
+      <c r="H116" t="n">
+        <v>85.88666666666693</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-20 BackTest PST.xlsx
+++ b/BackTest/2019-10-20 BackTest PST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -450,24 +445,19 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>1450588.7498</v>
-      </c>
-      <c r="G2" t="n">
-        <v>81.90000000000002</v>
-      </c>
+        <v>1458910.6298</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>81.91000000000001</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -488,24 +478,23 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>158077.6069</v>
-      </c>
-      <c r="G3" t="n">
-        <v>81.90000000000002</v>
-      </c>
+        <v>1458910.6298</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>81.91000000000001</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -526,24 +515,27 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>942011.8305</v>
-      </c>
-      <c r="G4" t="n">
-        <v>81.90000000000002</v>
-      </c>
+        <v>1454079.7999</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>81.91000000000001</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,24 +556,27 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>1429925.6504</v>
-      </c>
-      <c r="G5" t="n">
-        <v>81.90000000000002</v>
-      </c>
+        <v>1458910.6298</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>81.91000000000001</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -602,24 +597,23 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>1454079.7999</v>
-      </c>
-      <c r="G6" t="n">
-        <v>81.90000000000002</v>
-      </c>
+        <v>1444418.1401</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>81.90666666666667</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -640,24 +634,27 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>1454079.7999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>81.90000000000002</v>
-      </c>
+        <v>1469201.5673</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>81.90666666666667</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,24 +675,27 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>1463741.4597</v>
-      </c>
-      <c r="G8" t="n">
-        <v>81.90000000000002</v>
-      </c>
+        <v>1458281.3521</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>81.90666666666667</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -718,22 +718,21 @@
       <c r="F9" t="n">
         <v>1449248.97</v>
       </c>
-      <c r="G9" t="n">
-        <v>81.90000000000002</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>81.90666666666667</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -754,24 +753,27 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>1425094.8205</v>
-      </c>
-      <c r="G10" t="n">
-        <v>81.90000000000002</v>
-      </c>
+        <v>1474032.3972</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>81.90666666666667</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K10" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -792,24 +794,27 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>1415433.1607</v>
-      </c>
-      <c r="G11" t="n">
-        <v>81.90000000000002</v>
-      </c>
+        <v>1449248.97</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>81.90333333333332</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K11" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -830,24 +835,23 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1439587.3102</v>
-      </c>
-      <c r="G12" t="n">
-        <v>81.90000000000002</v>
-      </c>
+        <v>1472773.8418</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>81.90166666666664</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K12" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,24 +872,27 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>1425094.8205</v>
-      </c>
-      <c r="G13" t="n">
-        <v>81.90000000000002</v>
-      </c>
+        <v>1463741.4597</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>81.89999999999996</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K13" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -906,24 +913,27 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>1444418.1401</v>
-      </c>
-      <c r="G14" t="n">
-        <v>81.90000000000002</v>
-      </c>
+        <v>1440216.5879</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>81.89999999999996</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -944,24 +954,23 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>942371.8305</v>
-      </c>
-      <c r="G15" t="n">
-        <v>81.90000000000002</v>
-      </c>
+        <v>1429296.3727</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>81.89999999999996</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K15" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +979,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>10.2439</v>
-      </c>
-      <c r="G16" t="n">
-        <v>81.90666666666668</v>
-      </c>
+        <v>1449878.2477</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>81.90166666666664</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K16" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1020,24 +1032,27 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>11678.4614</v>
-      </c>
-      <c r="G17" t="n">
-        <v>81.90666666666668</v>
-      </c>
+        <v>1449248.97</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>81.90166666666664</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K17" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1058,24 +1073,23 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>11.156</v>
-      </c>
-      <c r="G18" t="n">
-        <v>81.90666666666668</v>
-      </c>
+        <v>1448619.6923</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>81.90166666666664</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K18" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,24 +1110,27 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>3982.9234</v>
-      </c>
-      <c r="G19" t="n">
-        <v>81.90666666666668</v>
-      </c>
+        <v>1454079.7999</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>81.90166666666664</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K19" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1139,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>1723.2385</v>
-      </c>
-      <c r="G20" t="n">
-        <v>81.84666666666666</v>
-      </c>
+        <v>1449878.2477</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>81.88666666666664</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K20" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1180,35 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>581.9747</v>
-      </c>
-      <c r="G21" t="n">
-        <v>81.78</v>
-      </c>
+        <v>357481.4126</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>81.86999999999998</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1217,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>219.7125</v>
-      </c>
-      <c r="G22" t="n">
-        <v>81.71333333333334</v>
-      </c>
+        <v>145540.5244</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>81.85333333333331</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K22" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1258,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>1260.8119</v>
-      </c>
-      <c r="G23" t="n">
-        <v>81.65333333333334</v>
-      </c>
+        <v>1472787.4921</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>81.83833333333332</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K23" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1299,35 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>5482.3987</v>
-      </c>
-      <c r="G24" t="n">
-        <v>81.59333333333332</v>
-      </c>
+        <v>1449864.5974</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>81.82333333333332</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K24" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1336,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>1698.3296</v>
-      </c>
-      <c r="G25" t="n">
-        <v>81.52666666666666</v>
-      </c>
+        <v>280188.1342</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>81.80666666666666</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K25" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1377,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>5809.0526</v>
-      </c>
-      <c r="G26" t="n">
-        <v>81.45999999999999</v>
-      </c>
+        <v>1184378.5361</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>81.78999999999999</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K26" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1418,35 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>448.380716934487</v>
-      </c>
-      <c r="G27" t="n">
-        <v>81.39333333333333</v>
-      </c>
+        <v>1450588.7498</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>81.77333333333333</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K27" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1455,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>80.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>80.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>80.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>80.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>9874.055</v>
-      </c>
-      <c r="G28" t="n">
-        <v>81.29999999999998</v>
-      </c>
+        <v>1462401.6799</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>81.75</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K28" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1496,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>80.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>80</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>80.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>80</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>4462.1688</v>
-      </c>
-      <c r="G29" t="n">
-        <v>81.17333333333332</v>
-      </c>
+        <v>1439587.3102</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>81.71833333333333</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K29" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1537,35 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D30" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>5493.6977</v>
-      </c>
-      <c r="G30" t="n">
-        <v>81.16666666666664</v>
-      </c>
+        <v>1468572.2896</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>81.71666666666668</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K30" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1574,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>43.2885</v>
-      </c>
-      <c r="G31" t="n">
-        <v>81.15333333333329</v>
-      </c>
+        <v>1450588.7498</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>81.71500000000002</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K31" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1615,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>61.1246</v>
-      </c>
-      <c r="G32" t="n">
-        <v>81.14666666666662</v>
-      </c>
+        <v>158077.6069</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>81.71333333333337</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K32" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1656,35 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>447.2598</v>
-      </c>
-      <c r="G33" t="n">
-        <v>81.02666666666661</v>
-      </c>
+        <v>942011.8305</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>81.68333333333338</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1693,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>447</v>
-      </c>
-      <c r="G34" t="n">
-        <v>80.99999999999994</v>
-      </c>
+        <v>1429925.6504</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>81.67666666666672</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K34" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1734,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>80.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>80.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>80.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>80.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>104.152</v>
-      </c>
-      <c r="G35" t="n">
-        <v>80.94666666666662</v>
-      </c>
+        <v>1454079.7999</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>81.64833333333338</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K35" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1775,35 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>80.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>80.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>897.523</v>
-      </c>
-      <c r="G36" t="n">
-        <v>80.89333333333326</v>
-      </c>
+        <v>1454079.7999</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>81.6183333333334</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1812,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>80</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>80</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>1437.2359</v>
-      </c>
-      <c r="G37" t="n">
-        <v>80.83333333333326</v>
-      </c>
+        <v>1463741.4597</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>81.58666666666674</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K37" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1853,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>80</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>79.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>80</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>79.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>17258.2858</v>
-      </c>
-      <c r="G38" t="n">
-        <v>80.71999999999993</v>
-      </c>
+        <v>1449248.97</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>81.54333333333342</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K38" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1894,35 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>13.0429</v>
-      </c>
-      <c r="G39" t="n">
-        <v>80.7466666666666</v>
-      </c>
+        <v>1425094.8205</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>81.53500000000008</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K39" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1931,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>22.9729</v>
-      </c>
-      <c r="G40" t="n">
-        <v>80.77999999999993</v>
-      </c>
+        <v>1415433.1607</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>81.52666666666674</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K40" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1972,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>22.9606</v>
-      </c>
-      <c r="G41" t="n">
-        <v>80.81333333333326</v>
-      </c>
+        <v>1439587.3102</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>81.51833333333342</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K41" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +2013,35 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>79.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>79.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>79.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>79.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>45.8187</v>
-      </c>
-      <c r="G42" t="n">
-        <v>80.71999999999993</v>
-      </c>
+        <v>1425094.8205</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>81.47833333333342</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K42" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +2050,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>79.59999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>79.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>79.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>78.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>8378.296</v>
-      </c>
-      <c r="G43" t="n">
-        <v>80.65333333333325</v>
-      </c>
+        <v>1444418.1401</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>81.43833333333343</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K43" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2091,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>80.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>81.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>80.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>4700.7022</v>
-      </c>
-      <c r="G44" t="n">
-        <v>80.71999999999993</v>
-      </c>
+        <v>942371.8305</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>81.42333333333343</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K44" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2132,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>81.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="C45" t="n">
-        <v>81.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="D45" t="n">
-        <v>81.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="E45" t="n">
-        <v>81.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="F45" t="n">
-        <v>4.4397</v>
+        <v>10.2439</v>
       </c>
       <c r="G45" t="n">
-        <v>80.67333333333325</v>
+        <v>100</v>
       </c>
       <c r="H45" t="n">
-        <v>81.41000000000011</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K45" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2171,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>17.0515</v>
+        <v>11678.4614</v>
       </c>
       <c r="G46" t="n">
-        <v>80.64666666666659</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>81.40166666666678</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>82</v>
+      </c>
+      <c r="K46" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2214,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>782.6315</v>
+        <v>11.156</v>
       </c>
       <c r="G47" t="n">
-        <v>80.61999999999993</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>81.39333333333344</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K47" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2257,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>12.555</v>
+        <v>3982.9234</v>
       </c>
       <c r="G48" t="n">
-        <v>80.73333333333328</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>81.39166666666679</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K48" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2296,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="C49" t="n">
-        <v>81.40000000000001</v>
+        <v>81</v>
       </c>
       <c r="D49" t="n">
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="E49" t="n">
-        <v>81.40000000000001</v>
+        <v>81</v>
       </c>
       <c r="F49" t="n">
-        <v>921.0189</v>
+        <v>1723.2385</v>
       </c>
       <c r="G49" t="n">
-        <v>80.72666666666662</v>
+        <v>-81.81818181818275</v>
       </c>
       <c r="H49" t="n">
-        <v>81.38333333333345</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K49" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2339,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>81.40000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>81.40000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>81.40000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>81.40000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>1753</v>
+        <v>581.9747</v>
       </c>
       <c r="G50" t="n">
-        <v>80.80666666666662</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="H50" t="n">
-        <v>81.37500000000013</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+        <v>81</v>
+      </c>
+      <c r="K50" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2382,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>81.40000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>81.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>81.40000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>81.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>2242.2476</v>
+        <v>219.7125</v>
       </c>
       <c r="G51" t="n">
-        <v>80.87333333333328</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="H51" t="n">
-        <v>81.36166666666681</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>80.90000000000001</v>
+      </c>
+      <c r="K51" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2421,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>80.8</v>
+        <v>81</v>
       </c>
       <c r="D52" t="n">
-        <v>80.8</v>
+        <v>81</v>
       </c>
       <c r="E52" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>1260.8119</v>
       </c>
       <c r="G52" t="n">
-        <v>80.92666666666661</v>
+        <v>-69.23076923077058</v>
       </c>
       <c r="H52" t="n">
-        <v>81.34333333333348</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="K52" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2464,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>81.3</v>
+        <v>81</v>
       </c>
       <c r="C53" t="n">
-        <v>81.3</v>
+        <v>81</v>
       </c>
       <c r="D53" t="n">
-        <v>81.3</v>
+        <v>81</v>
       </c>
       <c r="E53" t="n">
-        <v>81.3</v>
+        <v>81</v>
       </c>
       <c r="F53" t="n">
-        <v>12.7244</v>
+        <v>5482.3987</v>
       </c>
       <c r="G53" t="n">
-        <v>81.05999999999995</v>
+        <v>-69.23076923077058</v>
       </c>
       <c r="H53" t="n">
-        <v>81.33333333333348</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+        <v>81</v>
+      </c>
+      <c r="K53" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2507,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>81.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>81.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>81.40000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>81.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>8456.987499999999</v>
+        <v>1698.3296</v>
       </c>
       <c r="G54" t="n">
-        <v>81.05333333333327</v>
+        <v>-84.6153846153853</v>
       </c>
       <c r="H54" t="n">
-        <v>81.32333333333349</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+        <v>81</v>
+      </c>
+      <c r="K54" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2550,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>81.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>81.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>81.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>81.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>19.0429</v>
+        <v>5809.0526</v>
       </c>
       <c r="G55" t="n">
-        <v>81.05999999999993</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="H55" t="n">
-        <v>81.31666666666683</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="K55" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2593,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>81.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>81.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>81.40000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>81.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>1821</v>
+        <v>448.380716934487</v>
       </c>
       <c r="G56" t="n">
-        <v>81.05333333333326</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="H56" t="n">
-        <v>81.30666666666684</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="K56" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,40 +2636,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>81.3</v>
+        <v>80.5</v>
       </c>
       <c r="C57" t="n">
-        <v>81.3</v>
+        <v>80.5</v>
       </c>
       <c r="D57" t="n">
-        <v>81.3</v>
+        <v>80.5</v>
       </c>
       <c r="E57" t="n">
-        <v>81.3</v>
+        <v>80.5</v>
       </c>
       <c r="F57" t="n">
-        <v>1689</v>
+        <v>9874.055</v>
       </c>
       <c r="G57" t="n">
-        <v>81.17333333333325</v>
+        <v>-87.50000000000067</v>
       </c>
       <c r="H57" t="n">
-        <v>81.29666666666685</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="L57" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2570,44 +2679,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>81</v>
+        <v>80.3</v>
       </c>
       <c r="C58" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D58" t="n">
-        <v>81</v>
+        <v>80.3</v>
       </c>
       <c r="E58" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F58" t="n">
-        <v>18353.301</v>
+        <v>4462.1688</v>
       </c>
       <c r="G58" t="n">
-        <v>81.27333333333326</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="H58" t="n">
-        <v>81.28166666666685</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>80.5</v>
       </c>
       <c r="K58" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="L58" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2616,42 +2722,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="C59" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="D59" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="F59" t="n">
-        <v>16.1963</v>
+        <v>5493.6977</v>
       </c>
       <c r="G59" t="n">
-        <v>81.30666666666659</v>
+        <v>31.03448275862048</v>
       </c>
       <c r="H59" t="n">
-        <v>81.27500000000019</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+        <v>80</v>
+      </c>
+      <c r="K59" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2660,36 +2765,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="C60" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="D60" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="E60" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="F60" t="n">
-        <v>2000</v>
+        <v>43.2885</v>
       </c>
       <c r="G60" t="n">
-        <v>81.33333333333326</v>
+        <v>31.03448275862048</v>
       </c>
       <c r="H60" t="n">
-        <v>81.26833333333353</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="K60" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2698,36 +2808,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="C61" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="D61" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="E61" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="F61" t="n">
-        <v>195.869</v>
+        <v>61.1246</v>
       </c>
       <c r="G61" t="n">
-        <v>81.33999999999992</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="H61" t="n">
-        <v>81.26166666666687</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="K61" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2736,36 +2851,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>81.59999999999999</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>81.59999999999999</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>81.59999999999999</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>81.59999999999999</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>1804.1965</v>
+        <v>447.2598</v>
       </c>
       <c r="G62" t="n">
-        <v>81.35333333333324</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="H62" t="n">
-        <v>81.25666666666689</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="K62" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,37 +2894,42 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>81.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="C63" t="n">
-        <v>81.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="D63" t="n">
-        <v>81.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="E63" t="n">
-        <v>81.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>447</v>
       </c>
       <c r="G63" t="n">
-        <v>81.35999999999991</v>
+        <v>10.34482758620678</v>
       </c>
       <c r="H63" t="n">
-        <v>81.25666666666689</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
-        <v>1</v>
+        <v>80.09999999999999</v>
+      </c>
+      <c r="K63" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>1.002416563658838</v>
       </c>
     </row>
     <row r="64">
@@ -2812,36 +2937,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>81.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="C64" t="n">
-        <v>81.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="D64" t="n">
-        <v>81.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="E64" t="n">
-        <v>81.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="F64" t="n">
-        <v>1249.7802</v>
+        <v>104.152</v>
       </c>
       <c r="G64" t="n">
-        <v>81.39333333333325</v>
+        <v>-9.859154929577493</v>
       </c>
       <c r="H64" t="n">
-        <v>81.25666666666689</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,36 +2980,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>81.90000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="C65" t="n">
-        <v>81.90000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>81.90000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="E65" t="n">
-        <v>81.90000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>787.1559999999999</v>
+        <v>897.523</v>
       </c>
       <c r="G65" t="n">
-        <v>81.42666666666658</v>
+        <v>-11.11111111111124</v>
       </c>
       <c r="H65" t="n">
-        <v>81.25666666666689</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2888,40 +3023,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>82</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D66" t="n">
-        <v>82</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>1437.2359</v>
       </c>
       <c r="G66" t="n">
-        <v>81.48666666666659</v>
+        <v>-7.246376811594198</v>
       </c>
       <c r="H66" t="n">
-        <v>81.25833333333357</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="L66" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2930,44 +3066,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" t="n">
-        <v>82</v>
+        <v>79.3</v>
       </c>
       <c r="D67" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E67" t="n">
-        <v>82</v>
+        <v>79.3</v>
       </c>
       <c r="F67" t="n">
-        <v>1000</v>
+        <v>17258.2858</v>
       </c>
       <c r="G67" t="n">
-        <v>81.56666666666659</v>
+        <v>-9.859154929577493</v>
       </c>
       <c r="H67" t="n">
-        <v>81.26000000000023</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K67" t="n">
-        <v>82</v>
-      </c>
-      <c r="L67" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2976,44 +3109,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>82.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>82.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>82.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>82.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>708</v>
+        <v>13.0429</v>
       </c>
       <c r="G68" t="n">
-        <v>81.63333333333325</v>
+        <v>-5.405405405405276</v>
       </c>
       <c r="H68" t="n">
-        <v>81.26666666666691</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>79.3</v>
       </c>
       <c r="K68" t="n">
-        <v>82</v>
-      </c>
-      <c r="L68" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,40 +3152,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>82.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>82.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>82.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>82.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>708</v>
+        <v>22.9729</v>
       </c>
       <c r="G69" t="n">
-        <v>81.69999999999992</v>
+        <v>-5.405405405405276</v>
       </c>
       <c r="H69" t="n">
-        <v>81.27333333333358</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="L69" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3064,44 +3195,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>82.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>82.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>82.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>82.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>1346.7484</v>
+        <v>22.9606</v>
       </c>
       <c r="G70" t="n">
-        <v>81.75999999999993</v>
+        <v>-5.405405405405276</v>
       </c>
       <c r="H70" t="n">
-        <v>81.28166666666692</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="L70" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3110,44 +3238,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>82.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="C71" t="n">
-        <v>82.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="D71" t="n">
-        <v>82.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="E71" t="n">
-        <v>82.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="F71" t="n">
-        <v>5269.5648</v>
+        <v>45.8187</v>
       </c>
       <c r="G71" t="n">
-        <v>81.83333333333327</v>
+        <v>-7.894736842105164</v>
       </c>
       <c r="H71" t="n">
-        <v>81.29000000000025</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="L71" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3156,40 +3281,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>82.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>82.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="D72" t="n">
-        <v>82.40000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="E72" t="n">
-        <v>82.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="F72" t="n">
-        <v>3228.796</v>
+        <v>8378.296</v>
       </c>
       <c r="G72" t="n">
-        <v>81.90666666666661</v>
+        <v>-32.25806451612894</v>
       </c>
       <c r="H72" t="n">
-        <v>81.29833333333359</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>79.5</v>
       </c>
       <c r="K72" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="L72" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,44 +3324,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>82.40000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>82.5</v>
+        <v>81</v>
       </c>
       <c r="D73" t="n">
-        <v>82.5</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>82.40000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>10515.1578</v>
+        <v>4700.7022</v>
       </c>
       <c r="G73" t="n">
-        <v>82.00666666666662</v>
+        <v>12.49999999999992</v>
       </c>
       <c r="H73" t="n">
-        <v>81.30833333333359</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>79.5</v>
       </c>
       <c r="K73" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="L73" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3244,44 +3367,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>82.8</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>83.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>83.5</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>82.8</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>11889.2487</v>
+        <v>4.4397</v>
       </c>
       <c r="G74" t="n">
-        <v>82.12666666666661</v>
+        <v>15.62499999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>81.33166666666693</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K74" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="L74" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M74" t="inlineStr">
+        <v>81.8</v>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3290,44 +3410,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>83.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>84.90000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>84.90000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>83.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>9314.753699999999</v>
+        <v>17.0515</v>
       </c>
       <c r="G75" t="n">
-        <v>82.35333333333328</v>
+        <v>21.21212121212123</v>
       </c>
       <c r="H75" t="n">
-        <v>81.38166666666693</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="L75" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M75" t="inlineStr">
+        <v>81.8</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,45 +3453,42 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>84.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>84.90000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>84.90000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>84.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>176.4502</v>
+        <v>782.6315</v>
       </c>
       <c r="G76" t="n">
-        <v>82.57999999999996</v>
+        <v>35.59322033898307</v>
       </c>
       <c r="H76" t="n">
-        <v>81.43000000000026</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="L76" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>1</v>
+        <v>81.8</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>0.9901100244498778</v>
       </c>
     </row>
     <row r="77">
@@ -3382,42 +3496,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>84.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="C77" t="n">
-        <v>84.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="D77" t="n">
-        <v>84.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="E77" t="n">
-        <v>84.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="F77" t="n">
-        <v>1840.3384</v>
+        <v>12.555</v>
       </c>
       <c r="G77" t="n">
-        <v>82.79999999999997</v>
+        <v>9.523809523809314</v>
       </c>
       <c r="H77" t="n">
-        <v>81.48000000000026</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K77" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3426,42 +3539,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>84.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="C78" t="n">
-        <v>85</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>85</v>
+        <v>81.5</v>
       </c>
       <c r="E78" t="n">
-        <v>84.90000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>121.512</v>
+        <v>921.0189</v>
       </c>
       <c r="G78" t="n">
-        <v>83.00666666666663</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>81.53166666666694</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="K78" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,42 +3582,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>84.90000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>85</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>85</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>84.90000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>7660.0352</v>
+        <v>1753</v>
       </c>
       <c r="G79" t="n">
-        <v>83.2133333333333</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>81.58333333333361</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M79" t="inlineStr">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K79" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,42 +3625,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>85</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>85</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>85</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>85</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>880.1351</v>
+        <v>2242.2476</v>
       </c>
       <c r="G80" t="n">
-        <v>83.41999999999994</v>
+        <v>53.33333333333314</v>
       </c>
       <c r="H80" t="n">
-        <v>81.65000000000028</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M80" t="inlineStr">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K80" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3558,42 +3668,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>85</v>
+        <v>80.8</v>
       </c>
       <c r="C81" t="n">
-        <v>85</v>
+        <v>80.8</v>
       </c>
       <c r="D81" t="n">
-        <v>85</v>
+        <v>80.8</v>
       </c>
       <c r="E81" t="n">
-        <v>85</v>
+        <v>80.8</v>
       </c>
       <c r="F81" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="G81" t="n">
-        <v>83.61999999999995</v>
+        <v>39.39393939393934</v>
       </c>
       <c r="H81" t="n">
-        <v>81.71833333333362</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M81" t="inlineStr">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="K81" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,42 +3711,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>85.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="C82" t="n">
-        <v>85.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="D82" t="n">
-        <v>85.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="E82" t="n">
-        <v>85.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="F82" t="n">
-        <v>16.7388</v>
+        <v>12.7244</v>
       </c>
       <c r="G82" t="n">
-        <v>83.84666666666662</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="H82" t="n">
-        <v>81.79333333333361</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M82" t="inlineStr">
+        <v>80.8</v>
+      </c>
+      <c r="K82" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3646,42 +3754,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>85.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="C83" t="n">
-        <v>85.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="D83" t="n">
-        <v>85.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>85.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="F83" t="n">
-        <v>100.7611</v>
+        <v>8456.987499999999</v>
       </c>
       <c r="G83" t="n">
-        <v>84.0533333333333</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="H83" t="n">
-        <v>81.86666666666694</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M83" t="inlineStr">
+        <v>81.3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3690,42 +3797,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>85.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="C84" t="n">
-        <v>85.5</v>
+        <v>81.5</v>
       </c>
       <c r="D84" t="n">
-        <v>85.5</v>
+        <v>81.5</v>
       </c>
       <c r="E84" t="n">
-        <v>85.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="F84" t="n">
-        <v>544</v>
+        <v>19.0429</v>
       </c>
       <c r="G84" t="n">
-        <v>84.26666666666664</v>
+        <v>4.761904761904504</v>
       </c>
       <c r="H84" t="n">
-        <v>81.94166666666693</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M84" t="inlineStr">
+        <v>81.3</v>
+      </c>
+      <c r="K84" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3734,42 +3840,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>85.5</v>
+        <v>81.3</v>
       </c>
       <c r="C85" t="n">
-        <v>85.5</v>
+        <v>81.3</v>
       </c>
       <c r="D85" t="n">
-        <v>85.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>85.5</v>
+        <v>81.3</v>
       </c>
       <c r="F85" t="n">
-        <v>4990.2597</v>
+        <v>1821</v>
       </c>
       <c r="G85" t="n">
-        <v>84.4733333333333</v>
+        <v>-4.347826086956898</v>
       </c>
       <c r="H85" t="n">
-        <v>82.01833333333362</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M85" t="inlineStr">
+        <v>81.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3778,42 +3883,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>85.90000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="C86" t="n">
-        <v>85.90000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="D86" t="n">
-        <v>85.90000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="E86" t="n">
-        <v>85.90000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>1689</v>
       </c>
       <c r="G86" t="n">
-        <v>84.70666666666664</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="H86" t="n">
-        <v>82.10166666666694</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M86" t="inlineStr">
+        <v>81.3</v>
+      </c>
+      <c r="K86" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3822,42 +3926,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>85.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="C87" t="n">
-        <v>85.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="D87" t="n">
-        <v>85.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="E87" t="n">
-        <v>85.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="F87" t="n">
-        <v>11.64144353899884</v>
+        <v>18353.301</v>
       </c>
       <c r="G87" t="n">
-        <v>84.93999999999997</v>
+        <v>-22.2222222222224</v>
       </c>
       <c r="H87" t="n">
-        <v>82.18500000000027</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M87" t="inlineStr">
+        <v>81.3</v>
+      </c>
+      <c r="K87" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3866,42 +3969,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>85.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="C88" t="n">
-        <v>86</v>
+        <v>81.5</v>
       </c>
       <c r="D88" t="n">
-        <v>86</v>
+        <v>81.5</v>
       </c>
       <c r="E88" t="n">
-        <v>85.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="F88" t="n">
-        <v>29210.2444</v>
+        <v>16.1963</v>
       </c>
       <c r="G88" t="n">
-        <v>85.1733333333333</v>
+        <v>4.347826086956253</v>
       </c>
       <c r="H88" t="n">
-        <v>82.27666666666694</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M88" t="inlineStr">
+        <v>81</v>
+      </c>
+      <c r="K88" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3910,43 +4012,42 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>85.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="C89" t="n">
-        <v>83.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="D89" t="n">
-        <v>85.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="E89" t="n">
-        <v>83.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="F89" t="n">
-        <v>9413.382600000001</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="n">
-        <v>85.1933333333333</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="H89" t="n">
-        <v>82.33666666666696</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>1</v>
+        <v>81.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>0.9962285012285012</v>
       </c>
     </row>
     <row r="90">
@@ -3954,42 +4055,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>85.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="C90" t="n">
-        <v>85.7</v>
+        <v>81.5</v>
       </c>
       <c r="D90" t="n">
-        <v>85.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="E90" t="n">
-        <v>85.7</v>
+        <v>81.5</v>
       </c>
       <c r="F90" t="n">
-        <v>300</v>
+        <v>195.869</v>
       </c>
       <c r="G90" t="n">
-        <v>85.24666666666663</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="H90" t="n">
-        <v>82.40166666666694</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3998,42 +4098,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>85.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>85.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>85.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>85.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>10.9856</v>
+        <v>1804.1965</v>
       </c>
       <c r="G91" t="n">
-        <v>85.31333333333329</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="H91" t="n">
-        <v>82.47000000000027</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4042,42 +4141,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>144.0144</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>85.37999999999995</v>
+        <v>37.50000000000033</v>
       </c>
       <c r="H92" t="n">
-        <v>82.5383333333336</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="K92" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,42 +4180,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>86</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>86</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>86</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>86</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>210.1234</v>
+        <v>1249.7802</v>
       </c>
       <c r="G93" t="n">
-        <v>85.44666666666663</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="H93" t="n">
-        <v>82.63666666666693</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K93" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4130,42 +4223,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>86</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>86</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>80.6768</v>
+        <v>787.1559999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>85.50666666666663</v>
+        <v>50.00000000000059</v>
       </c>
       <c r="H94" t="n">
-        <v>82.71000000000025</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K94" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,42 +4266,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>85.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="C95" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D95" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E95" t="n">
-        <v>85.8</v>
+        <v>82</v>
       </c>
       <c r="F95" t="n">
-        <v>737.225</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>85.5733333333333</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="H95" t="n">
-        <v>82.80666666666691</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K95" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,42 +4305,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" t="n">
-        <v>86.3</v>
+        <v>82</v>
       </c>
       <c r="D96" t="n">
-        <v>86.3</v>
+        <v>82</v>
       </c>
       <c r="E96" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F96" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="G96" t="n">
-        <v>85.65999999999995</v>
+        <v>100</v>
       </c>
       <c r="H96" t="n">
-        <v>82.91000000000025</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>82</v>
+      </c>
+      <c r="K96" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,42 +4348,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>86.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="C97" t="n">
-        <v>87.5</v>
+        <v>82.3</v>
       </c>
       <c r="D97" t="n">
-        <v>87.59999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="E97" t="n">
-        <v>86.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="F97" t="n">
-        <v>39821.4396</v>
+        <v>708</v>
       </c>
       <c r="G97" t="n">
-        <v>85.79999999999995</v>
+        <v>100</v>
       </c>
       <c r="H97" t="n">
-        <v>83.03500000000025</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>82</v>
+      </c>
+      <c r="K97" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4306,42 +4391,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>87.5</v>
+        <v>82.3</v>
       </c>
       <c r="C98" t="n">
-        <v>87.5</v>
+        <v>82.3</v>
       </c>
       <c r="D98" t="n">
-        <v>87.5</v>
+        <v>82.3</v>
       </c>
       <c r="E98" t="n">
-        <v>87.5</v>
+        <v>82.3</v>
       </c>
       <c r="F98" t="n">
-        <v>26.9658</v>
+        <v>708</v>
       </c>
       <c r="G98" t="n">
-        <v>85.93999999999996</v>
+        <v>100</v>
       </c>
       <c r="H98" t="n">
-        <v>83.17166666666691</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="K98" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,42 +4430,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>87.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>87.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>87.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>87.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>2000.9464</v>
+        <v>1346.7484</v>
       </c>
       <c r="G99" t="n">
-        <v>86.08666666666662</v>
+        <v>100</v>
       </c>
       <c r="H99" t="n">
-        <v>83.27666666666691</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="K99" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,42 +4473,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>87.90000000000001</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>88</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>88</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>87.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>4489.8896</v>
+        <v>5269.5648</v>
       </c>
       <c r="G100" t="n">
-        <v>86.25333333333329</v>
+        <v>100</v>
       </c>
       <c r="H100" t="n">
-        <v>83.38666666666693</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="K100" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,42 +4516,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>88</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>88</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>88</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>88</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>7182.3317</v>
+        <v>3228.796</v>
       </c>
       <c r="G101" t="n">
-        <v>86.39333333333327</v>
+        <v>100</v>
       </c>
       <c r="H101" t="n">
-        <v>83.49666666666693</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="K101" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4482,42 +4555,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>88</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>88.2</v>
+        <v>82.5</v>
       </c>
       <c r="D102" t="n">
-        <v>89.8</v>
+        <v>82.5</v>
       </c>
       <c r="E102" t="n">
-        <v>88</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>2931.867414142539</v>
+        <v>10515.1578</v>
       </c>
       <c r="G102" t="n">
-        <v>86.54666666666661</v>
+        <v>100</v>
       </c>
       <c r="H102" t="n">
-        <v>83.64166666666692</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="K102" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,42 +4598,41 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>88.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="C103" t="n">
-        <v>89.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="D103" t="n">
-        <v>89.7</v>
+        <v>83.5</v>
       </c>
       <c r="E103" t="n">
-        <v>88</v>
+        <v>82.8</v>
       </c>
       <c r="F103" t="n">
-        <v>3987.6044</v>
+        <v>11889.2487</v>
       </c>
       <c r="G103" t="n">
-        <v>86.7866666666666</v>
+        <v>100</v>
       </c>
       <c r="H103" t="n">
-        <v>83.81000000000026</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="K103" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4570,42 +4641,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>89.5</v>
+        <v>83.5</v>
       </c>
       <c r="C104" t="n">
-        <v>89.5</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>89.5</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>89.3</v>
+        <v>83.5</v>
       </c>
       <c r="F104" t="n">
-        <v>5556.0859</v>
+        <v>9314.753699999999</v>
       </c>
       <c r="G104" t="n">
-        <v>87.17999999999994</v>
+        <v>100</v>
       </c>
       <c r="H104" t="n">
-        <v>83.95166666666692</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="K104" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="M104" t="inlineStr">
+      <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,42 +4684,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>89.5</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>89.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>89.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>89.5</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>9321.741714492753</v>
+        <v>176.4502</v>
       </c>
       <c r="G105" t="n">
-        <v>87.44666666666662</v>
+        <v>100</v>
       </c>
       <c r="H105" t="n">
-        <v>84.09500000000025</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="K105" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4658,42 +4727,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>89.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>89.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>89.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>89.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>447.617</v>
+        <v>1840.3384</v>
       </c>
       <c r="G106" t="n">
-        <v>87.69999999999995</v>
+        <v>100</v>
       </c>
       <c r="H106" t="n">
-        <v>84.23333333333359</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="K106" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,42 +4770,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>89.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>89.7</v>
+        <v>85</v>
       </c>
       <c r="D107" t="n">
-        <v>89.7</v>
+        <v>85</v>
       </c>
       <c r="E107" t="n">
-        <v>89.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>254.2645</v>
+        <v>121.512</v>
       </c>
       <c r="G107" t="n">
-        <v>87.95333333333328</v>
+        <v>100</v>
       </c>
       <c r="H107" t="n">
-        <v>84.37166666666693</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="K107" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="M107" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4746,42 +4813,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>89.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>89.8</v>
+        <v>85</v>
       </c>
       <c r="D108" t="n">
-        <v>89.8</v>
+        <v>85</v>
       </c>
       <c r="E108" t="n">
-        <v>89.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>3225.838485507246</v>
+        <v>7660.0352</v>
       </c>
       <c r="G108" t="n">
-        <v>88.20666666666661</v>
+        <v>100</v>
       </c>
       <c r="H108" t="n">
-        <v>84.50500000000027</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
+        <v>85</v>
+      </c>
+      <c r="K108" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="M108" t="inlineStr">
+      <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4790,42 +4856,41 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>89.8</v>
+        <v>85</v>
       </c>
       <c r="C109" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D109" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E109" t="n">
-        <v>89.8</v>
+        <v>85</v>
       </c>
       <c r="F109" t="n">
-        <v>32532.52978585746</v>
+        <v>880.1351</v>
       </c>
       <c r="G109" t="n">
-        <v>88.47999999999993</v>
+        <v>100</v>
       </c>
       <c r="H109" t="n">
-        <v>84.6483333333336</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
+        <v>85</v>
+      </c>
+      <c r="K109" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,42 +4899,41 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>90.3</v>
+        <v>85</v>
       </c>
       <c r="C110" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D110" t="n">
-        <v>90.3</v>
+        <v>85</v>
       </c>
       <c r="E110" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F110" t="n">
-        <v>40162.498</v>
+        <v>600</v>
       </c>
       <c r="G110" t="n">
-        <v>88.7466666666666</v>
+        <v>100</v>
       </c>
       <c r="H110" t="n">
-        <v>84.79166666666694</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
+        <v>85</v>
+      </c>
+      <c r="K110" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="M110" t="inlineStr">
+      <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,42 +4942,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>90</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>90</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>90</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>90</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>15781.8562</v>
+        <v>16.7388</v>
       </c>
       <c r="G111" t="n">
-        <v>88.99333333333327</v>
+        <v>100</v>
       </c>
       <c r="H111" t="n">
-        <v>84.94000000000027</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
+        <v>85</v>
+      </c>
+      <c r="K111" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="M111" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,42 +4985,41 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>90.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>90.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>90.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>89.7</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>8733.8485</v>
+        <v>100.7611</v>
       </c>
       <c r="G112" t="n">
-        <v>89.19999999999992</v>
+        <v>100</v>
       </c>
       <c r="H112" t="n">
-        <v>85.10333333333361</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="K112" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="M112" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,43 +5028,42 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>91.09999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>93</v>
+        <v>85.5</v>
       </c>
       <c r="D113" t="n">
-        <v>93</v>
+        <v>85.5</v>
       </c>
       <c r="E113" t="n">
-        <v>91.09999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>17930.8722</v>
+        <v>544</v>
       </c>
       <c r="G113" t="n">
-        <v>89.56666666666659</v>
+        <v>100</v>
       </c>
       <c r="H113" t="n">
-        <v>85.2983333333336</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="K113" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
-        <v>1</v>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1.032621359223301</v>
       </c>
     </row>
     <row r="114">
@@ -5010,43 +5071,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>93.3</v>
+        <v>85.5</v>
       </c>
       <c r="C114" t="n">
-        <v>93.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="D114" t="n">
-        <v>93.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="E114" t="n">
-        <v>93.3</v>
+        <v>85.5</v>
       </c>
       <c r="F114" t="n">
-        <v>37356.0537</v>
+        <v>4990.2597</v>
       </c>
       <c r="G114" t="n">
-        <v>89.97999999999993</v>
+        <v>100</v>
       </c>
       <c r="H114" t="n">
-        <v>85.5083333333336</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
-        <v>1.134563106796117</v>
+        <v>85.5</v>
+      </c>
+      <c r="K114" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -5054,36 +5110,41 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>92.90000000000001</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>92.90000000000001</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>92.90000000000001</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>92.90000000000001</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>83.23999999999999</v>
+        <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>90.3066666666666</v>
+        <v>100</v>
       </c>
       <c r="H115" t="n">
-        <v>85.69833333333358</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="K115" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5092,36 +5153,1284 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C116" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D116" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E116" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F116" t="n">
+        <v>11.64144353899884</v>
+      </c>
+      <c r="G116" t="n">
+        <v>100</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="K116" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C117" t="n">
+        <v>86</v>
+      </c>
+      <c r="D117" t="n">
+        <v>86</v>
+      </c>
+      <c r="E117" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F117" t="n">
+        <v>29210.2444</v>
+      </c>
+      <c r="G117" t="n">
+        <v>100</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="K117" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C118" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="D118" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E118" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="F118" t="n">
+        <v>9413.382600000001</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-41.17647058823539</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>86</v>
+      </c>
+      <c r="K118" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C119" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E119" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="F119" t="n">
+        <v>300</v>
+      </c>
+      <c r="G119" t="n">
+        <v>12.72727272727275</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="K119" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C120" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D120" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E120" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F120" t="n">
+        <v>10.9856</v>
+      </c>
+      <c r="G120" t="n">
+        <v>9.433962264150923</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="K120" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C121" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D121" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E121" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F121" t="n">
+        <v>144.0144</v>
+      </c>
+      <c r="G121" t="n">
+        <v>9.433962264150923</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="K121" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>86</v>
+      </c>
+      <c r="C122" t="n">
+        <v>86</v>
+      </c>
+      <c r="D122" t="n">
+        <v>86</v>
+      </c>
+      <c r="E122" t="n">
+        <v>86</v>
+      </c>
+      <c r="F122" t="n">
+        <v>210.1234</v>
+      </c>
+      <c r="G122" t="n">
+        <v>9.433962264150923</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="K122" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>86</v>
+      </c>
+      <c r="C123" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D123" t="n">
+        <v>86</v>
+      </c>
+      <c r="E123" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F123" t="n">
+        <v>80.6768</v>
+      </c>
+      <c r="G123" t="n">
+        <v>7.407407407407505</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>86</v>
+      </c>
+      <c r="K123" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C124" t="n">
+        <v>86</v>
+      </c>
+      <c r="D124" t="n">
+        <v>86</v>
+      </c>
+      <c r="E124" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>737.225</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.960784313725381</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="K124" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>86</v>
+      </c>
+      <c r="C125" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="D125" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>86</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G125" t="n">
+        <v>7.407407407407261</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>86</v>
+      </c>
+      <c r="K125" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="C126" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E126" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="F126" t="n">
+        <v>39821.4396</v>
+      </c>
+      <c r="G126" t="n">
+        <v>23.07692307692308</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="K126" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>26.9658</v>
+      </c>
+      <c r="G127" t="n">
+        <v>95.12195121951247</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K127" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2000.9464</v>
+      </c>
+      <c r="G128" t="n">
+        <v>90.90909090909139</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K128" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1.020730994152047</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="C129" t="n">
+        <v>88</v>
+      </c>
+      <c r="D129" t="n">
+        <v>88</v>
+      </c>
+      <c r="E129" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4489.8896</v>
+      </c>
+      <c r="G129" t="n">
+        <v>91.30434782608738</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="K129" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>88</v>
+      </c>
+      <c r="C130" t="n">
+        <v>88</v>
+      </c>
+      <c r="D130" t="n">
+        <v>88</v>
+      </c>
+      <c r="E130" t="n">
+        <v>88</v>
+      </c>
+      <c r="F130" t="n">
+        <v>7182.3317</v>
+      </c>
+      <c r="G130" t="n">
+        <v>91.30434782608738</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>88</v>
+      </c>
+      <c r="K130" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>88</v>
+      </c>
+      <c r="C131" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>88</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2931.867414142539</v>
+      </c>
+      <c r="G131" t="n">
+        <v>91.66666666666711</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>88</v>
+      </c>
+      <c r="K131" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="D132" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>88</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3987.6044</v>
+      </c>
+      <c r="G132" t="n">
+        <v>100</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="K132" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5556.0859</v>
+      </c>
+      <c r="G133" t="n">
+        <v>94.59459459459488</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="K133" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>9321.741714492753</v>
+      </c>
+      <c r="G134" t="n">
+        <v>94.44444444444476</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="K134" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>447.617</v>
+      </c>
+      <c r="G135" t="n">
+        <v>91.66666666666711</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="K135" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>254.2645</v>
+      </c>
+      <c r="G136" t="n">
+        <v>91.66666666666711</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="K136" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3225.838485507246</v>
+      </c>
+      <c r="G137" t="n">
+        <v>91.30434782608738</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="K137" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>90</v>
+      </c>
+      <c r="D138" t="n">
+        <v>90</v>
+      </c>
+      <c r="E138" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>32532.52978585746</v>
+      </c>
+      <c r="G138" t="n">
+        <v>90.90909090909139</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="K138" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>90</v>
+      </c>
+      <c r="D139" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>90</v>
+      </c>
+      <c r="F139" t="n">
+        <v>40162.498</v>
+      </c>
+      <c r="G139" t="n">
+        <v>90.90909090909139</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>90</v>
+      </c>
+      <c r="K139" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>90</v>
+      </c>
+      <c r="C140" t="n">
+        <v>90</v>
+      </c>
+      <c r="D140" t="n">
+        <v>90</v>
+      </c>
+      <c r="E140" t="n">
+        <v>90</v>
+      </c>
+      <c r="F140" t="n">
+        <v>15781.8562</v>
+      </c>
+      <c r="G140" t="n">
+        <v>90.0000000000005</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>90</v>
+      </c>
+      <c r="K140" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="D141" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="E141" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>8733.8485</v>
+      </c>
+      <c r="G141" t="n">
+        <v>83.33333333333412</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>90</v>
+      </c>
+      <c r="K141" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C142" t="n">
+        <v>93</v>
+      </c>
+      <c r="D142" t="n">
+        <v>93</v>
+      </c>
+      <c r="E142" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F142" t="n">
+        <v>17930.8722</v>
+      </c>
+      <c r="G142" t="n">
+        <v>100</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="K142" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D143" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E143" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>37356.0537</v>
+      </c>
+      <c r="G143" t="n">
+        <v>100</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>93</v>
+      </c>
+      <c r="K143" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1.065695553021665</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D144" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F144" t="n">
+        <v>83.23999999999999</v>
+      </c>
+      <c r="G144" t="n">
+        <v>61.53846153846156</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K144" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
         <v>92.59999999999999</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C145" t="n">
         <v>92.59999999999999</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D145" t="n">
         <v>92.7</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E145" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F145" t="n">
         <v>11225.44362135922</v>
       </c>
-      <c r="G116" t="n">
-        <v>90.61333333333326</v>
-      </c>
-      <c r="H116" t="n">
-        <v>85.88666666666693</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="G145" t="n">
+        <v>52.72727272727244</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K145" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-20 BackTest PST.xlsx
+++ b/BackTest/2019-10-20 BackTest PST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,13 +450,13 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>942371.8305</v>
+        <v>159.0823</v>
       </c>
       <c r="G2" t="n">
-        <v>-837586.5221000001</v>
+        <v>-835653.5727</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>10.2439</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>-837576.2782000001</v>
+        <v>-835653.5727</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>81.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>81.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>81.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>81.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>11678.4614</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>-849254.7396000001</v>
+        <v>-835642.5727</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>11.156</v>
+        <v>2561.4701</v>
       </c>
       <c r="G5" t="n">
-        <v>-849254.7396000001</v>
+        <v>-838204.0428000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -594,10 +594,10 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>3982.9234</v>
+        <v>1150874.3466</v>
       </c>
       <c r="G6" t="n">
-        <v>-849254.7396000001</v>
+        <v>-838204.0428000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>1723.2385</v>
+        <v>458928.8405</v>
       </c>
       <c r="G7" t="n">
-        <v>-850977.9781000001</v>
+        <v>-838204.0428000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>581.9747</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>-851559.9528000001</v>
+        <v>-838204.0428000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>80.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>80.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>80.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>219.7125</v>
+        <v>1085.2749</v>
       </c>
       <c r="G9" t="n">
-        <v>-851559.9528000001</v>
+        <v>-837118.7679000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>80.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" t="n">
-        <v>80.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="F10" t="n">
-        <v>1260.8119</v>
+        <v>115.7542</v>
       </c>
       <c r="G10" t="n">
-        <v>-850299.1409000001</v>
+        <v>-837234.5221000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E11" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" t="n">
-        <v>5482.3987</v>
+        <v>248.2014</v>
       </c>
       <c r="G11" t="n">
-        <v>-850299.1409000001</v>
+        <v>-837234.5221000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1698.3296</v>
+        <v>352</v>
       </c>
       <c r="G12" t="n">
-        <v>-851997.4705000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>5809.0526</v>
+        <v>968</v>
       </c>
       <c r="G13" t="n">
-        <v>-851997.4705000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,31 +870,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>448.380716934487</v>
+        <v>12.88</v>
       </c>
       <c r="G14" t="n">
-        <v>-851997.4705000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -906,22 +910,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>80.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>80.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>80.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>80.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>9874.055</v>
+        <v>1121.3207</v>
       </c>
       <c r="G15" t="n">
-        <v>-861871.5255000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +934,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +952,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>80.3</v>
+        <v>82.3</v>
       </c>
       <c r="C16" t="n">
-        <v>80</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>80.3</v>
+        <v>82.3</v>
       </c>
       <c r="E16" t="n">
-        <v>80</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>4462.1688</v>
+        <v>21.1985</v>
       </c>
       <c r="G16" t="n">
-        <v>-866333.6943000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +976,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +994,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>5493.6977</v>
+        <v>466728.4013</v>
       </c>
       <c r="G17" t="n">
-        <v>-860839.9966000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1018,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1036,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="E18" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>43.2885</v>
+        <v>1429925.6504</v>
       </c>
       <c r="G18" t="n">
-        <v>-860839.9966000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1060,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1078,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>61.1246</v>
+        <v>371973.9023</v>
       </c>
       <c r="G19" t="n">
-        <v>-860839.9966000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1102,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1120,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>447.2598</v>
+        <v>36231.655</v>
       </c>
       <c r="G20" t="n">
-        <v>-861287.2564000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1144,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1162,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>447</v>
+        <v>1448629.6923</v>
       </c>
       <c r="G21" t="n">
-        <v>-860840.2564000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1186,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1204,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>80.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>80.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>80.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>80.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>104.152</v>
+        <v>1444418.1401</v>
       </c>
       <c r="G22" t="n">
-        <v>-860944.4084000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1228,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1246,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>80.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>80.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>897.523</v>
+        <v>1434756.4803</v>
       </c>
       <c r="G23" t="n">
-        <v>-861841.9314000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1270,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>80</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>80.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>80</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>1437.2359</v>
+        <v>1469191.5673</v>
       </c>
       <c r="G24" t="n">
-        <v>-863279.1673000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1312,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1330,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>80</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>79.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>80</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>79.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>17258.2858</v>
+        <v>1465847.2358</v>
       </c>
       <c r="G25" t="n">
-        <v>-880537.4531000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1354,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1372,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>13.0429</v>
+        <v>1449558.60885</v>
       </c>
       <c r="G26" t="n">
-        <v>-880524.4102000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1396,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1414,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>22.9729</v>
+        <v>1473403.1195</v>
       </c>
       <c r="G27" t="n">
-        <v>-880524.4102000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1438,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1456,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>22.9606</v>
+        <v>1465847.2358</v>
       </c>
       <c r="G28" t="n">
-        <v>-880524.4102000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1480,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1498,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>79.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>79.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>79.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>79.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>45.8187</v>
+        <v>1437481.5341</v>
       </c>
       <c r="G29" t="n">
-        <v>-880570.2289000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1522,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1540,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>79.59999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>79.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>79.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>78.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>8378.296</v>
+        <v>1449248.97</v>
       </c>
       <c r="G30" t="n">
-        <v>-880570.2289000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1564,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1582,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>80.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>81.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>80.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>4700.7022</v>
+        <v>1458910.6298</v>
       </c>
       <c r="G31" t="n">
-        <v>-875869.5267</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1606,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1624,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>81.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>81.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>81.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>81.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>4.4397</v>
+        <v>1458910.6298</v>
       </c>
       <c r="G32" t="n">
-        <v>-875865.0870000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1648,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1666,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>17.0515</v>
+        <v>1454079.7999</v>
       </c>
       <c r="G33" t="n">
-        <v>-875848.0355000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1690,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1708,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>782.6315</v>
+        <v>1458910.6298</v>
       </c>
       <c r="G34" t="n">
-        <v>-875848.0355000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1732,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1750,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>12.555</v>
+        <v>1444418.1401</v>
       </c>
       <c r="G35" t="n">
-        <v>-875835.4805000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1774,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1792,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>921.0189</v>
+        <v>1469201.5673</v>
       </c>
       <c r="G36" t="n">
-        <v>-876756.4994000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1816,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1834,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>1753</v>
+        <v>1458281.3521</v>
       </c>
       <c r="G37" t="n">
-        <v>-876756.4994000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1858,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1876,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>81.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>81.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>2242.2476</v>
+        <v>1449248.97</v>
       </c>
       <c r="G38" t="n">
-        <v>-878998.7470000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1900,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1918,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>80.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>80.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>80.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>80.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>50</v>
+        <v>1474032.3972</v>
       </c>
       <c r="G39" t="n">
-        <v>-879048.7470000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +1942,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +1960,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>12.7244</v>
+        <v>1449248.97</v>
       </c>
       <c r="G40" t="n">
-        <v>-879036.0226000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +1984,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2002,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>8456.987499999999</v>
+        <v>1472773.8418</v>
       </c>
       <c r="G41" t="n">
-        <v>-879036.0226000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2026,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2044,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>19.0429</v>
+        <v>1463741.4597</v>
       </c>
       <c r="G42" t="n">
-        <v>-879016.9797000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2068,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2086,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>1821</v>
+        <v>1440216.5879</v>
       </c>
       <c r="G43" t="n">
-        <v>-880837.9797000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2110,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2128,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>1689</v>
+        <v>1429296.3727</v>
       </c>
       <c r="G44" t="n">
-        <v>-880837.9797000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,8 +2152,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2170,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>18353.301</v>
+        <v>1449878.2477</v>
       </c>
       <c r="G45" t="n">
-        <v>-899191.2807000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2194,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2212,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>16.1963</v>
+        <v>1449248.97</v>
       </c>
       <c r="G46" t="n">
-        <v>-899175.0844000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2236,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>2000</v>
+        <v>1448619.6923</v>
       </c>
       <c r="G47" t="n">
-        <v>-899175.0844000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2278,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2296,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>195.869</v>
+        <v>1454079.7999</v>
       </c>
       <c r="G48" t="n">
-        <v>-899175.0844000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2320,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,36 +2338,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>81.59999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>81.59999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>81.59999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>81.59999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>1804.1965</v>
+        <v>1449878.2477</v>
       </c>
       <c r="G49" t="n">
-        <v>-897370.8879000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>81.5</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2182,10 +2392,10 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>357481.4126</v>
       </c>
       <c r="G50" t="n">
-        <v>-897360.8879000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2195,11 +2405,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2224,10 +2434,10 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>1249.7802</v>
+        <v>145540.5244</v>
       </c>
       <c r="G51" t="n">
-        <v>-897360.8879000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2237,11 +2447,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>81.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -2266,10 +2476,10 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>787.1559999999999</v>
+        <v>1472787.4921</v>
       </c>
       <c r="G52" t="n">
-        <v>-897360.8879000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2278,8 +2488,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2290,22 +2506,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>1449864.5974</v>
       </c>
       <c r="G53" t="n">
-        <v>-897350.8879000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2314,8 +2530,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2326,22 +2548,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>280188.1342</v>
       </c>
       <c r="G54" t="n">
-        <v>-897350.8879000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2350,8 +2572,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2362,22 +2590,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>708</v>
+        <v>1184378.5361</v>
       </c>
       <c r="G55" t="n">
-        <v>-896642.8879000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2386,8 +2614,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2398,22 +2632,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>708</v>
+        <v>1450588.7498</v>
       </c>
       <c r="G56" t="n">
-        <v>-896642.8879000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2422,8 +2656,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2434,22 +2674,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>1346.7484</v>
+        <v>1462401.6799</v>
       </c>
       <c r="G57" t="n">
-        <v>-895296.1395000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2458,8 +2698,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2470,22 +2716,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>5269.5648</v>
+        <v>1439587.3102</v>
       </c>
       <c r="G58" t="n">
-        <v>-895296.1395000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2494,8 +2740,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2506,22 +2758,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>3228.796</v>
+        <v>1468572.2896</v>
       </c>
       <c r="G59" t="n">
-        <v>-895296.1395000002</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2530,8 +2782,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2542,22 +2800,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>82.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>82.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>10515.1578</v>
+        <v>1450588.7498</v>
       </c>
       <c r="G60" t="n">
-        <v>-884780.9817000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2566,8 +2824,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2578,22 +2842,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>82.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>83.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>83.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>82.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>11889.2487</v>
+        <v>158077.6069</v>
       </c>
       <c r="G61" t="n">
-        <v>-872891.7330000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2602,8 +2866,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2614,22 +2884,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>83.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>84.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>84.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>83.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>9314.753699999999</v>
+        <v>942011.8305</v>
       </c>
       <c r="G62" t="n">
-        <v>-863576.9793000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2638,8 +2908,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2650,22 +2926,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>84.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>84.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>84.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>84.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>176.4502</v>
+        <v>1429925.6504</v>
       </c>
       <c r="G63" t="n">
-        <v>-863576.9793000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2674,8 +2950,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2686,22 +2968,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>84.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>84.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>84.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>84.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>1840.3384</v>
+        <v>1454079.7999</v>
       </c>
       <c r="G64" t="n">
-        <v>-863576.9793000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2710,8 +2992,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2722,22 +3010,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>84.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>85</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>85</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>84.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>121.512</v>
+        <v>1454079.7999</v>
       </c>
       <c r="G65" t="n">
-        <v>-863455.4673000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2746,8 +3034,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2758,22 +3052,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>84.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>85</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>85</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>84.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>7660.0352</v>
+        <v>1463741.4597</v>
       </c>
       <c r="G66" t="n">
-        <v>-863455.4673000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2782,8 +3076,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2794,22 +3094,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>85</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>85</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>85</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>85</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>880.1351</v>
+        <v>1449248.97</v>
       </c>
       <c r="G67" t="n">
-        <v>-863455.4673000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2818,8 +3118,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2830,22 +3136,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>85</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>85</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>85</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>85</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>600</v>
+        <v>1425094.8205</v>
       </c>
       <c r="G68" t="n">
-        <v>-863455.4673000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2854,8 +3160,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2866,22 +3178,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>85.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>85.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>85.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>85.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>16.7388</v>
+        <v>1415433.1607</v>
       </c>
       <c r="G69" t="n">
-        <v>-863438.7285000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2890,8 +3202,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2902,22 +3220,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>85.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>85.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>85.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>85.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>100.7611</v>
+        <v>1439587.3102</v>
       </c>
       <c r="G70" t="n">
-        <v>-863438.7285000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2926,8 +3244,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2938,22 +3262,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>85.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>85.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>85.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>85.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>544</v>
+        <v>1425094.8205</v>
       </c>
       <c r="G71" t="n">
-        <v>-862894.7285000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2962,8 +3286,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2974,22 +3304,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>85.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>85.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>85.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>85.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>4990.2597</v>
+        <v>1444418.1401</v>
       </c>
       <c r="G72" t="n">
-        <v>-862894.7285000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2998,8 +3328,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3010,22 +3346,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>942371.8305</v>
       </c>
       <c r="G73" t="n">
-        <v>-862884.7285000001</v>
+        <v>-837586.5221000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3034,8 +3370,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3046,22 +3388,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>85.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="C74" t="n">
-        <v>85.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="D74" t="n">
-        <v>85.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="E74" t="n">
-        <v>85.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="F74" t="n">
-        <v>11.64144353899884</v>
+        <v>10.2439</v>
       </c>
       <c r="G74" t="n">
-        <v>-862884.7285000001</v>
+        <v>-837576.2782000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3070,8 +3412,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3082,22 +3430,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>86</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>86</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>29210.2444</v>
+        <v>11678.4614</v>
       </c>
       <c r="G75" t="n">
-        <v>-833674.4841000001</v>
+        <v>-849254.7396000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3106,8 +3454,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3118,36 +3472,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>83.59999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>83.59999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>9413.382600000001</v>
+        <v>11.156</v>
       </c>
       <c r="G76" t="n">
-        <v>-843087.8667000001</v>
+        <v>-849254.7396000001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>86</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -3160,33 +3514,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>85.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>85.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>85.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>300</v>
+        <v>3982.9234</v>
       </c>
       <c r="G77" t="n">
-        <v>-842787.8667000001</v>
+        <v>-849254.7396000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3202,33 +3556,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>85.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="C78" t="n">
-        <v>85.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="D78" t="n">
-        <v>85.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="E78" t="n">
-        <v>85.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="F78" t="n">
-        <v>10.9856</v>
+        <v>1723.2385</v>
       </c>
       <c r="G78" t="n">
-        <v>-842776.8811000001</v>
+        <v>-850977.9781000001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3244,33 +3598,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>85.90000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>85.90000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>85.90000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>85.90000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>144.0144</v>
+        <v>581.9747</v>
       </c>
       <c r="G79" t="n">
-        <v>-842776.8811000001</v>
+        <v>-851559.9528000001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3286,22 +3640,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>86</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>86</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>86</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>86</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>210.1234</v>
+        <v>219.7125</v>
       </c>
       <c r="G80" t="n">
-        <v>-842566.7577000001</v>
+        <v>-851559.9528000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3310,7 +3664,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3326,33 +3682,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>86</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>85.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="D81" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E81" t="n">
-        <v>85.90000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>80.6768</v>
+        <v>1260.8119</v>
       </c>
       <c r="G81" t="n">
-        <v>-842647.4345000001</v>
+        <v>-850299.1409000001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>86</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3368,33 +3724,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>85.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E82" t="n">
-        <v>85.8</v>
+        <v>81</v>
       </c>
       <c r="F82" t="n">
-        <v>737.225</v>
+        <v>5482.3987</v>
       </c>
       <c r="G82" t="n">
-        <v>-841910.2095000001</v>
+        <v>-850299.1409000001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3410,33 +3766,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>86</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>86.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>86.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>86</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>1333</v>
+        <v>1698.3296</v>
       </c>
       <c r="G83" t="n">
-        <v>-840577.2095000001</v>
+        <v>-851997.4705000002</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>86</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3452,33 +3808,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>86.40000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>87.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>87.59999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>86.40000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>39821.4396</v>
+        <v>5809.0526</v>
       </c>
       <c r="G84" t="n">
-        <v>-800755.7699000001</v>
+        <v>-851997.4705000002</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>86.3</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3494,33 +3850,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>87.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>87.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>87.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>87.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>26.9658</v>
+        <v>448.380716934487</v>
       </c>
       <c r="G85" t="n">
-        <v>-800755.7699000001</v>
+        <v>-851997.4705000002</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,33 +3892,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>87.7</v>
+        <v>80.5</v>
       </c>
       <c r="C86" t="n">
-        <v>87.7</v>
+        <v>80.5</v>
       </c>
       <c r="D86" t="n">
-        <v>87.7</v>
+        <v>80.5</v>
       </c>
       <c r="E86" t="n">
-        <v>87.7</v>
+        <v>80.5</v>
       </c>
       <c r="F86" t="n">
-        <v>2000.9464</v>
+        <v>9874.055</v>
       </c>
       <c r="G86" t="n">
-        <v>-798754.8235000001</v>
+        <v>-861871.5255000002</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3578,33 +3934,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>87.90000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="C87" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D87" t="n">
-        <v>88</v>
+        <v>80.3</v>
       </c>
       <c r="E87" t="n">
-        <v>87.8</v>
+        <v>80</v>
       </c>
       <c r="F87" t="n">
-        <v>4489.8896</v>
+        <v>4462.1688</v>
       </c>
       <c r="G87" t="n">
-        <v>-794264.9339000001</v>
+        <v>-866333.6943000002</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3620,33 +3976,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C88" t="n">
-        <v>88</v>
+        <v>81.8</v>
       </c>
       <c r="D88" t="n">
-        <v>88</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F88" t="n">
-        <v>7182.3317</v>
+        <v>5493.6977</v>
       </c>
       <c r="G88" t="n">
-        <v>-794264.9339000001</v>
+        <v>-860839.9966000002</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>88</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3662,33 +4018,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>88</v>
+        <v>81.8</v>
       </c>
       <c r="C89" t="n">
-        <v>88.2</v>
+        <v>81.8</v>
       </c>
       <c r="D89" t="n">
-        <v>89.8</v>
+        <v>81.8</v>
       </c>
       <c r="E89" t="n">
-        <v>88</v>
+        <v>81.8</v>
       </c>
       <c r="F89" t="n">
-        <v>2931.867414142539</v>
+        <v>43.2885</v>
       </c>
       <c r="G89" t="n">
-        <v>-791333.0664858575</v>
+        <v>-860839.9966000002</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>88</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3704,33 +4060,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>88.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="C90" t="n">
-        <v>89.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="D90" t="n">
-        <v>89.7</v>
+        <v>81.8</v>
       </c>
       <c r="E90" t="n">
-        <v>88</v>
+        <v>81.8</v>
       </c>
       <c r="F90" t="n">
-        <v>3987.6044</v>
+        <v>61.1246</v>
       </c>
       <c r="G90" t="n">
-        <v>-787345.4620858575</v>
+        <v>-860839.9966000002</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3746,33 +4102,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>89.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>89.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>89.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>89.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>5556.0859</v>
+        <v>447.2598</v>
       </c>
       <c r="G91" t="n">
-        <v>-792901.5479858575</v>
+        <v>-861287.2564000002</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3788,33 +4144,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>89.5</v>
+        <v>81.5</v>
       </c>
       <c r="C92" t="n">
-        <v>89.7</v>
+        <v>81.5</v>
       </c>
       <c r="D92" t="n">
-        <v>89.7</v>
+        <v>81.5</v>
       </c>
       <c r="E92" t="n">
-        <v>89.5</v>
+        <v>81.5</v>
       </c>
       <c r="F92" t="n">
-        <v>9321.741714492753</v>
+        <v>447</v>
       </c>
       <c r="G92" t="n">
-        <v>-783579.8062713647</v>
+        <v>-860840.2564000002</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3830,33 +4186,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>89.7</v>
+        <v>80.2</v>
       </c>
       <c r="C93" t="n">
-        <v>89.7</v>
+        <v>80.2</v>
       </c>
       <c r="D93" t="n">
-        <v>89.7</v>
+        <v>80.2</v>
       </c>
       <c r="E93" t="n">
-        <v>89.7</v>
+        <v>80.2</v>
       </c>
       <c r="F93" t="n">
-        <v>447.617</v>
+        <v>104.152</v>
       </c>
       <c r="G93" t="n">
-        <v>-783579.8062713647</v>
+        <v>-860944.4084000002</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3872,33 +4228,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>89.7</v>
+        <v>80.3</v>
       </c>
       <c r="C94" t="n">
-        <v>89.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>89.7</v>
+        <v>80.3</v>
       </c>
       <c r="E94" t="n">
-        <v>89.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>254.2645</v>
+        <v>897.523</v>
       </c>
       <c r="G94" t="n">
-        <v>-783579.8062713647</v>
+        <v>-861841.9314000002</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,33 +4270,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>89.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>89.8</v>
+        <v>80</v>
       </c>
       <c r="D95" t="n">
-        <v>89.8</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>89.7</v>
+        <v>80</v>
       </c>
       <c r="F95" t="n">
-        <v>3225.838485507246</v>
+        <v>1437.2359</v>
       </c>
       <c r="G95" t="n">
-        <v>-780353.9677858574</v>
+        <v>-863279.1673000002</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3956,33 +4312,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>89.8</v>
+        <v>80</v>
       </c>
       <c r="C96" t="n">
-        <v>90</v>
+        <v>79.3</v>
       </c>
       <c r="D96" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E96" t="n">
-        <v>89.8</v>
+        <v>79.3</v>
       </c>
       <c r="F96" t="n">
-        <v>32532.52978585746</v>
+        <v>17258.2858</v>
       </c>
       <c r="G96" t="n">
-        <v>-747821.438</v>
+        <v>-880537.4531000002</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3998,22 +4354,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>90.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>90</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>90.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>90</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>40162.498</v>
+        <v>13.0429</v>
       </c>
       <c r="G97" t="n">
-        <v>-747821.438</v>
+        <v>-880524.4102000002</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -4022,9 +4378,11 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>90</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
+        <v>79.3</v>
+      </c>
+      <c r="K97" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4040,33 +4398,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>90</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>90</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>90</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>90</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>15781.8562</v>
+        <v>22.9729</v>
       </c>
       <c r="G98" t="n">
-        <v>-747821.438</v>
+        <v>-880524.4102000002</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>90</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,33 +4440,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>90.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>90.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>90.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>89.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>8733.8485</v>
+        <v>22.9606</v>
       </c>
       <c r="G99" t="n">
-        <v>-739087.5895</v>
+        <v>-880524.4102000002</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>90</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,33 +4482,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>91.09999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="C100" t="n">
-        <v>93</v>
+        <v>79.5</v>
       </c>
       <c r="D100" t="n">
-        <v>93</v>
+        <v>79.5</v>
       </c>
       <c r="E100" t="n">
-        <v>91.09999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="F100" t="n">
-        <v>17930.8722</v>
+        <v>45.8187</v>
       </c>
       <c r="G100" t="n">
-        <v>-721156.7173</v>
+        <v>-880570.2289000001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4166,33 +4524,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>93.3</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>93.90000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="D101" t="n">
-        <v>93.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="E101" t="n">
-        <v>93.3</v>
+        <v>78.7</v>
       </c>
       <c r="F101" t="n">
-        <v>37356.0537</v>
+        <v>8378.296</v>
       </c>
       <c r="G101" t="n">
-        <v>-683800.6636</v>
+        <v>-880570.2289000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>93</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4208,37 +4566,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>92.90000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>92.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="D102" t="n">
-        <v>92.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>92.90000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>83.23999999999999</v>
+        <v>4700.7022</v>
       </c>
       <c r="G102" t="n">
-        <v>-683883.9036</v>
+        <v>-875869.5267</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
       <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -4246,36 +4608,3058 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="C103" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="D103" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="E103" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4.4397</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-875865.0870000001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C104" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D104" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E104" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="F104" t="n">
+        <v>17.0515</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-875848.0355000001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="K104" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C105" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D105" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E105" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="F105" t="n">
+        <v>782.6315</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-875848.0355000001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="C106" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="D106" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>12.555</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-875835.4805000001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K106" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D107" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="F107" t="n">
+        <v>921.0189</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-876756.4994000001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C108" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D108" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E108" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1753</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-876756.4994000001</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K108" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C109" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="D109" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E109" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2242.2476</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-878998.7470000001</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K109" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="C110" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="D110" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="E110" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>50</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-879048.7470000001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="K110" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>12.7244</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-879036.0226000001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="K111" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E112" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>8456.987499999999</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-879036.0226000001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="K112" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>19.0429</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-879016.9797000001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="K113" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E114" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1821</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-880837.9797000001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="K114" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="C115" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="E115" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1689</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-880837.9797000001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="K115" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>81</v>
+      </c>
+      <c r="C116" t="n">
+        <v>81</v>
+      </c>
+      <c r="D116" t="n">
+        <v>81</v>
+      </c>
+      <c r="E116" t="n">
+        <v>81</v>
+      </c>
+      <c r="F116" t="n">
+        <v>18353.301</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-899191.2807000001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="K116" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>16.1963</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-899175.0844000002</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>81</v>
+      </c>
+      <c r="K117" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-899175.0844000002</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="K118" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>195.869</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-899175.0844000002</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="C120" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D120" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="E120" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1804.1965</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-897370.8879000002</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C121" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D121" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="E121" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-897360.8879000002</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C122" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D122" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="E122" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1249.7802</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-897360.8879000002</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C123" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D123" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="E123" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F123" t="n">
+        <v>787.1559999999999</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-897360.8879000002</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>82</v>
+      </c>
+      <c r="C124" t="n">
+        <v>82</v>
+      </c>
+      <c r="D124" t="n">
+        <v>82</v>
+      </c>
+      <c r="E124" t="n">
+        <v>82</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-897350.8879000002</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>82</v>
+      </c>
+      <c r="C125" t="n">
+        <v>82</v>
+      </c>
+      <c r="D125" t="n">
+        <v>82</v>
+      </c>
+      <c r="E125" t="n">
+        <v>82</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-897350.8879000002</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="E126" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>708</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-896642.8879000002</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>708</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-896642.8879000002</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="K127" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="C128" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="D128" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="E128" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1346.7484</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-895296.1395000002</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="K128" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="C129" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="D129" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="E129" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5269.5648</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-895296.1395000002</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K129" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="D130" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="E130" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3228.796</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-895296.1395000002</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K130" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="C131" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10515.1578</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-884780.9817000001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K131" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>11889.2487</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-872891.7330000001</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="K132" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="D133" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>9314.753699999999</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-863576.9793000001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="K133" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="F134" t="n">
+        <v>176.4502</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-863576.9793000001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="K134" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="C135" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="D135" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="E135" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1840.3384</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-863576.9793000001</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="K135" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="C136" t="n">
+        <v>85</v>
+      </c>
+      <c r="D136" t="n">
+        <v>85</v>
+      </c>
+      <c r="E136" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F136" t="n">
+        <v>121.512</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-863455.4673000001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="C137" t="n">
+        <v>85</v>
+      </c>
+      <c r="D137" t="n">
+        <v>85</v>
+      </c>
+      <c r="E137" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F137" t="n">
+        <v>7660.0352</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-863455.4673000001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>85</v>
+      </c>
+      <c r="C138" t="n">
+        <v>85</v>
+      </c>
+      <c r="D138" t="n">
+        <v>85</v>
+      </c>
+      <c r="E138" t="n">
+        <v>85</v>
+      </c>
+      <c r="F138" t="n">
+        <v>880.1351</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-863455.4673000001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>85</v>
+      </c>
+      <c r="C139" t="n">
+        <v>85</v>
+      </c>
+      <c r="D139" t="n">
+        <v>85</v>
+      </c>
+      <c r="E139" t="n">
+        <v>85</v>
+      </c>
+      <c r="F139" t="n">
+        <v>600</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-863455.4673000001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="C140" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="D140" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16.7388</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-863438.7285000001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="C141" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="D141" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="E141" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>100.7611</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-863438.7285000001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="C142" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>544</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-862894.7285000001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4990.2597</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-862894.7285000001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D144" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-862884.7285000001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C145" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D145" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E145" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>11.64144353899884</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-862884.7285000001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C146" t="n">
+        <v>86</v>
+      </c>
+      <c r="D146" t="n">
+        <v>86</v>
+      </c>
+      <c r="E146" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F146" t="n">
+        <v>29210.2444</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-833674.4841000001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="D147" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E147" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9413.382600000001</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-843087.8667000001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C148" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="D148" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E148" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>300</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-842787.8667000001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C149" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10.9856</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-842776.8811000001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C150" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D150" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F150" t="n">
+        <v>144.0144</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-842776.8811000001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>86</v>
+      </c>
+      <c r="C151" t="n">
+        <v>86</v>
+      </c>
+      <c r="D151" t="n">
+        <v>86</v>
+      </c>
+      <c r="E151" t="n">
+        <v>86</v>
+      </c>
+      <c r="F151" t="n">
+        <v>210.1234</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-842566.7577000001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>86</v>
+      </c>
+      <c r="C152" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D152" t="n">
+        <v>86</v>
+      </c>
+      <c r="E152" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F152" t="n">
+        <v>80.6768</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-842647.4345000001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C153" t="n">
+        <v>86</v>
+      </c>
+      <c r="D153" t="n">
+        <v>86</v>
+      </c>
+      <c r="E153" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>737.225</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-841910.2095000001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>86</v>
+      </c>
+      <c r="C154" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="E154" t="n">
+        <v>86</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-840577.2095000001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E155" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>39821.4396</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-800755.7699000001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>26.9658</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-800755.7699000001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="D157" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2000.9464</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-798754.8235000001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>88</v>
+      </c>
+      <c r="D158" t="n">
+        <v>88</v>
+      </c>
+      <c r="E158" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4489.8896</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-794264.9339000001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>88</v>
+      </c>
+      <c r="C159" t="n">
+        <v>88</v>
+      </c>
+      <c r="D159" t="n">
+        <v>88</v>
+      </c>
+      <c r="E159" t="n">
+        <v>88</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7182.3317</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-794264.9339000001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>88</v>
+      </c>
+      <c r="C160" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D160" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>88</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2931.867414142539</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-791333.0664858575</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="C161" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="D161" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E161" t="n">
+        <v>88</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3987.6044</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-787345.4620858575</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5556.0859</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-792901.5479858575</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D163" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E163" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>9321.741714492753</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-783579.8062713647</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C164" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>447.617</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-783579.8062713647</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C165" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>254.2645</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-783579.8062713647</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="D166" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E166" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3225.838485507246</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-780353.9677858574</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="C167" t="n">
+        <v>90</v>
+      </c>
+      <c r="D167" t="n">
+        <v>90</v>
+      </c>
+      <c r="E167" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>32532.52978585746</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-747821.438</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="C168" t="n">
+        <v>90</v>
+      </c>
+      <c r="D168" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="E168" t="n">
+        <v>90</v>
+      </c>
+      <c r="F168" t="n">
+        <v>40162.498</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-747821.438</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>90</v>
+      </c>
+      <c r="C169" t="n">
+        <v>90</v>
+      </c>
+      <c r="D169" t="n">
+        <v>90</v>
+      </c>
+      <c r="E169" t="n">
+        <v>90</v>
+      </c>
+      <c r="F169" t="n">
+        <v>15781.8562</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-747821.438</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="C170" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="D170" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8733.8485</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-739087.5895</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C171" t="n">
+        <v>93</v>
+      </c>
+      <c r="D171" t="n">
+        <v>93</v>
+      </c>
+      <c r="E171" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F171" t="n">
+        <v>17930.8722</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-721156.7173</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="C172" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D172" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E172" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F172" t="n">
+        <v>37356.0537</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-683800.6636</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1.141520146520147</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1.002442002442002</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C173" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D173" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E173" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F173" t="n">
+        <v>83.23999999999999</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-683883.9036</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
         <v>92.59999999999999</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C174" t="n">
         <v>92.59999999999999</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D174" t="n">
         <v>92.7</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E174" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F174" t="n">
         <v>11225.44362135922</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G174" t="n">
         <v>-695109.3472213591</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-20 BackTest PST.xlsx
+++ b/BackTest/2019-10-20 BackTest PST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-835653.5727</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-835653.5727</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,17 @@
         <v>-835642.5727</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +560,17 @@
         <v>-838204.0428000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,7 +599,7 @@
         <v>-838204.0428000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +632,7 @@
         <v>-838204.0428000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +665,7 @@
         <v>-838204.0428000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -814,10 +830,14 @@
         <v>-837586.5221000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -847,11 +867,19 @@
         <v>-837586.5221000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +908,19 @@
         <v>-837586.5221000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +949,19 @@
         <v>-837586.5221000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +990,19 @@
         <v>-837586.5221000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1031,19 @@
         <v>-837586.5221000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J18" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1075,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1114,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1153,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1192,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1231,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1270,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1309,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1348,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1387,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1426,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1465,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1504,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1543,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1582,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1621,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1660,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1699,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1738,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1777,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1816,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1855,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1894,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1933,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1972,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2011,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2050,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2089,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2128,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2167,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2206,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2245,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2284,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2323,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2362,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2401,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2440,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2479,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2518,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2557,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2596,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2635,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2674,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2713,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2752,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2791,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2830,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2869,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2908,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2947,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2986,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3025,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3064,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3103,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3142,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3181,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3220,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3259,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3298,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3337,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3376,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3415,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3454,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3493,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3532,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3571,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3610,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3649,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3688,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3727,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3766,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3805,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3844,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3883,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3922,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3961,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4000,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4039,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4078,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4117,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4156,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4195,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4234,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4273,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4312,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4351,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4390,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4429,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4468,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4507,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4546,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4585,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4624,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4663,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4702,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4741,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4780,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,15 +4816,17 @@
         <v>-880837.9797000001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>81.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4221,11 +4859,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -4260,11 +4898,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -4298,8 +4936,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4331,8 +4975,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4364,8 +5014,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4397,8 +5053,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4430,8 +5092,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4463,8 +5131,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4496,8 +5170,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4529,8 +5209,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4562,8 +5248,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4595,8 +5287,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4628,8 +5326,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4661,8 +5365,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4691,15 +5401,17 @@
         <v>-895296.1395000002</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>82.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4728,17 +5440,15 @@
         <v>-884780.9817000001</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>82.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -4769,13 +5479,11 @@
         <v>-872891.7330000001</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>82.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -4810,13 +5518,11 @@
         <v>-863576.9793000001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>83.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -4851,13 +5557,11 @@
         <v>-863576.9793000001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>84.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -4892,13 +5596,11 @@
         <v>-863576.9793000001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>84.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -4933,13 +5635,11 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>84.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -4974,11 +5674,11 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5013,11 +5713,11 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5052,11 +5752,11 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5091,11 +5791,11 @@
         <v>-863438.7285000001</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5130,11 +5830,11 @@
         <v>-863438.7285000001</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5169,11 +5869,11 @@
         <v>-862894.7285000001</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5208,13 +5908,11 @@
         <v>-862894.7285000001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>85.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5249,13 +5947,11 @@
         <v>-862884.7285000001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>85.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5290,13 +5986,11 @@
         <v>-862884.7285000001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>85.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5331,13 +6025,11 @@
         <v>-833674.4841000001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>85.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5372,13 +6064,11 @@
         <v>-843087.8667000001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5413,13 +6103,11 @@
         <v>-842787.8667000001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>83.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5454,13 +6142,11 @@
         <v>-842776.8811000001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>85.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5495,13 +6181,11 @@
         <v>-842776.8811000001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>85.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5536,13 +6220,11 @@
         <v>-842566.7577000001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>85.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5577,13 +6259,11 @@
         <v>-842647.4345000001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5618,13 +6298,11 @@
         <v>-841910.2095000001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>85.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5659,13 +6337,11 @@
         <v>-840577.2095000001</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5700,13 +6376,11 @@
         <v>-800755.7699000001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>86.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5741,13 +6415,11 @@
         <v>-800755.7699000001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>87.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5782,13 +6454,11 @@
         <v>-798754.8235000001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>87.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5823,13 +6493,11 @@
         <v>-794264.9339000001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>87.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5864,13 +6532,11 @@
         <v>-794264.9339000001</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5905,13 +6571,11 @@
         <v>-791333.0664858575</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5950,7 +6614,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5989,7 +6653,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6028,7 +6692,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6067,7 +6731,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6106,7 +6770,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6145,7 +6809,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6184,7 +6848,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6223,7 +6887,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6262,7 +6926,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6301,7 +6965,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6340,7 +7004,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6375,23 +7039,21 @@
         <v>-683800.6636</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1.134563106796117</v>
-      </c>
-      <c r="M172" t="n">
-        <v>1.047013977128336</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6416,11 +7078,17 @@
         <v>-683883.9036</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6449,17 +7117,23 @@
         <v>-695109.3472213591</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
       <c r="M174" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-20 BackTest PST.xlsx
+++ b/BackTest/2019-10-20 BackTest PST.xlsx
@@ -2365,7 +2365,7 @@
         <v>-837586.5221000001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-837586.5221000001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -4180,14 +4180,10 @@
         <v>-880837.9797000001</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="J115" t="n">
-        <v>81.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
@@ -4217,19 +4213,11 @@
         <v>-899191.2807000001</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="J116" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4258,19 +4246,11 @@
         <v>-899175.0844000002</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>81</v>
-      </c>
-      <c r="J117" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4497,14 +4477,10 @@
         <v>-897350.8879000002</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="J124" t="n">
-        <v>81.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
@@ -4534,19 +4510,11 @@
         <v>-897350.8879000002</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>82</v>
-      </c>
-      <c r="J125" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4575,19 +4543,11 @@
         <v>-896642.8879000002</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>82</v>
-      </c>
-      <c r="J126" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4895,9 +4855,11 @@
         <v>-863576.9793000001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>84.90000000000001</v>
+      </c>
       <c r="J134" t="n">
         <v>82.40000000000001</v>
       </c>
@@ -4934,9 +4896,11 @@
         <v>-863576.9793000001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>84.90000000000001</v>
+      </c>
       <c r="J135" t="n">
         <v>82.40000000000001</v>
       </c>
@@ -4973,9 +4937,11 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>84.90000000000001</v>
+      </c>
       <c r="J136" t="n">
         <v>82.40000000000001</v>
       </c>
@@ -5012,9 +4978,11 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>85</v>
+      </c>
       <c r="J137" t="n">
         <v>82.40000000000001</v>
       </c>
@@ -5051,9 +5019,11 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>85</v>
+      </c>
       <c r="J138" t="n">
         <v>82.40000000000001</v>
       </c>
@@ -5090,9 +5060,11 @@
         <v>-863455.4673000001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>85</v>
+      </c>
       <c r="J139" t="n">
         <v>82.40000000000001</v>
       </c>
@@ -5129,9 +5101,11 @@
         <v>-863438.7285000001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>85</v>
+      </c>
       <c r="J140" t="n">
         <v>82.40000000000001</v>
       </c>
@@ -5168,9 +5142,11 @@
         <v>-863438.7285000001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>85.40000000000001</v>
+      </c>
       <c r="J141" t="n">
         <v>82.40000000000001</v>
       </c>
@@ -5207,1011 +5183,1213 @@
         <v>-862894.7285000001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>85.40000000000001</v>
+      </c>
       <c r="J142" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4990.2597</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-862894.7285000001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="J143" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D144" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-862884.7285000001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="J144" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C145" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D145" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E145" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>11.64144353899884</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-862884.7285000001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="J145" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C146" t="n">
+        <v>86</v>
+      </c>
+      <c r="D146" t="n">
+        <v>86</v>
+      </c>
+      <c r="E146" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F146" t="n">
+        <v>29210.2444</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-833674.4841000001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="J146" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="D147" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E147" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9413.382600000001</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-843087.8667000001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>86</v>
+      </c>
+      <c r="J147" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C148" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="D148" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E148" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>300</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-842787.8667000001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="J148" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C149" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10.9856</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-842776.8811000001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J149" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C150" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D150" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F150" t="n">
+        <v>144.0144</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-842776.8811000001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>86</v>
+      </c>
+      <c r="C151" t="n">
+        <v>86</v>
+      </c>
+      <c r="D151" t="n">
+        <v>86</v>
+      </c>
+      <c r="E151" t="n">
+        <v>86</v>
+      </c>
+      <c r="F151" t="n">
+        <v>210.1234</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-842566.7577000001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>86</v>
+      </c>
+      <c r="C152" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D152" t="n">
+        <v>86</v>
+      </c>
+      <c r="E152" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F152" t="n">
+        <v>80.6768</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-842647.4345000001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C153" t="n">
+        <v>86</v>
+      </c>
+      <c r="D153" t="n">
+        <v>86</v>
+      </c>
+      <c r="E153" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>737.225</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-841910.2095000001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>86</v>
+      </c>
+      <c r="C154" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="E154" t="n">
+        <v>86</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-840577.2095000001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>86</v>
+      </c>
+      <c r="J154" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E155" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>39821.4396</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-800755.7699000001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="J155" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>26.9658</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-800755.7699000001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="D157" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2000.9464</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-798754.8235000001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>88</v>
+      </c>
+      <c r="D158" t="n">
+        <v>88</v>
+      </c>
+      <c r="E158" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4489.8896</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-794264.9339000001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>88</v>
+      </c>
+      <c r="C159" t="n">
+        <v>88</v>
+      </c>
+      <c r="D159" t="n">
+        <v>88</v>
+      </c>
+      <c r="E159" t="n">
+        <v>88</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7182.3317</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-794264.9339000001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>88</v>
+      </c>
+      <c r="C160" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D160" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>88</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2931.867414142539</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-791333.0664858575</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="C161" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="D161" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E161" t="n">
+        <v>88</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3987.6044</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-787345.4620858575</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5556.0859</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-792901.5479858575</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D163" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E163" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>9321.741714492753</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-783579.8062713647</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C164" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>447.617</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-783579.8062713647</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C165" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>254.2645</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-783579.8062713647</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="D166" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E166" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3225.838485507246</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-780353.9677858574</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="C167" t="n">
+        <v>90</v>
+      </c>
+      <c r="D167" t="n">
+        <v>90</v>
+      </c>
+      <c r="E167" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>32532.52978585746</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-747821.438</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="C168" t="n">
+        <v>90</v>
+      </c>
+      <c r="D168" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="E168" t="n">
+        <v>90</v>
+      </c>
+      <c r="F168" t="n">
+        <v>40162.498</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-747821.438</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>90</v>
+      </c>
+      <c r="C169" t="n">
+        <v>90</v>
+      </c>
+      <c r="D169" t="n">
+        <v>90</v>
+      </c>
+      <c r="E169" t="n">
+        <v>90</v>
+      </c>
+      <c r="F169" t="n">
+        <v>15781.8562</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-747821.438</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="C170" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="D170" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8733.8485</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-739087.5895</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C171" t="n">
+        <v>93</v>
+      </c>
+      <c r="D171" t="n">
+        <v>93</v>
+      </c>
+      <c r="E171" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F171" t="n">
+        <v>17930.8722</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-721156.7173</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="C172" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D172" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E172" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F172" t="n">
+        <v>37356.0537</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-683800.6636</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1.032621359223301</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="C143" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="D143" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="E143" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="F143" t="n">
-        <v>4990.2597</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-862894.7285000001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="C144" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="D144" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="E144" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="F144" t="n">
-        <v>10</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-862884.7285000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="C145" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="D145" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="E145" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="F145" t="n">
-        <v>11.64144353899884</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-862884.7285000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="C146" t="n">
-        <v>86</v>
-      </c>
-      <c r="D146" t="n">
-        <v>86</v>
-      </c>
-      <c r="E146" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="F146" t="n">
-        <v>29210.2444</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-833674.4841000001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="C147" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="D147" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="E147" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="F147" t="n">
-        <v>9413.382600000001</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-843087.8667000001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="C148" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="D148" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="E148" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>300</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-842787.8667000001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="C149" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="D149" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="E149" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="F149" t="n">
-        <v>10.9856</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-842776.8811000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="C150" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="D150" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="E150" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="F150" t="n">
-        <v>144.0144</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-842776.8811000001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>86</v>
-      </c>
-      <c r="C151" t="n">
-        <v>86</v>
-      </c>
-      <c r="D151" t="n">
-        <v>86</v>
-      </c>
-      <c r="E151" t="n">
-        <v>86</v>
-      </c>
-      <c r="F151" t="n">
-        <v>210.1234</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-842566.7577000001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>86</v>
-      </c>
-      <c r="C152" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="D152" t="n">
-        <v>86</v>
-      </c>
-      <c r="E152" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="F152" t="n">
-        <v>80.6768</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-842647.4345000001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="C153" t="n">
-        <v>86</v>
-      </c>
-      <c r="D153" t="n">
-        <v>86</v>
-      </c>
-      <c r="E153" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="F153" t="n">
-        <v>737.225</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-841910.2095000001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>86</v>
-      </c>
-      <c r="C154" t="n">
-        <v>86.3</v>
-      </c>
-      <c r="D154" t="n">
-        <v>86.3</v>
-      </c>
-      <c r="E154" t="n">
-        <v>86</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1333</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-840577.2095000001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="C155" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="D155" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="E155" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="F155" t="n">
-        <v>39821.4396</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-800755.7699000001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="C156" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="D156" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="E156" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="F156" t="n">
-        <v>26.9658</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-800755.7699000001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="C157" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="D157" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="E157" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2000.9464</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-798754.8235000001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="C158" t="n">
-        <v>88</v>
-      </c>
-      <c r="D158" t="n">
-        <v>88</v>
-      </c>
-      <c r="E158" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F158" t="n">
-        <v>4489.8896</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-794264.9339000001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>88</v>
-      </c>
-      <c r="C159" t="n">
-        <v>88</v>
-      </c>
-      <c r="D159" t="n">
-        <v>88</v>
-      </c>
-      <c r="E159" t="n">
-        <v>88</v>
-      </c>
-      <c r="F159" t="n">
-        <v>7182.3317</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-794264.9339000001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>88</v>
-      </c>
-      <c r="C160" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="D160" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="E160" t="n">
-        <v>88</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2931.867414142539</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-791333.0664858575</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="C161" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="D161" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E161" t="n">
-        <v>88</v>
-      </c>
-      <c r="F161" t="n">
-        <v>3987.6044</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-787345.4620858575</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="D162" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="E162" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="F162" t="n">
-        <v>5556.0859</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-792901.5479858575</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="C163" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D163" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E163" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>9321.741714492753</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-783579.8062713647</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C164" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D164" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E164" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F164" t="n">
-        <v>447.617</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-783579.8062713647</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C165" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D165" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E165" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F165" t="n">
-        <v>254.2645</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-783579.8062713647</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C166" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="D166" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="E166" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F166" t="n">
-        <v>3225.838485507246</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-780353.9677858574</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="C167" t="n">
-        <v>90</v>
-      </c>
-      <c r="D167" t="n">
-        <v>90</v>
-      </c>
-      <c r="E167" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="F167" t="n">
-        <v>32532.52978585746</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-747821.438</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="C168" t="n">
-        <v>90</v>
-      </c>
-      <c r="D168" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="E168" t="n">
-        <v>90</v>
-      </c>
-      <c r="F168" t="n">
-        <v>40162.498</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-747821.438</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>90</v>
-      </c>
-      <c r="C169" t="n">
-        <v>90</v>
-      </c>
-      <c r="D169" t="n">
-        <v>90</v>
-      </c>
-      <c r="E169" t="n">
-        <v>90</v>
-      </c>
-      <c r="F169" t="n">
-        <v>15781.8562</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-747821.438</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="C170" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="D170" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="E170" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F170" t="n">
-        <v>8733.8485</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-739087.5895</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="C171" t="n">
-        <v>93</v>
-      </c>
-      <c r="D171" t="n">
-        <v>93</v>
-      </c>
-      <c r="E171" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="F171" t="n">
-        <v>17930.8722</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-721156.7173</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="C172" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D172" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E172" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F172" t="n">
-        <v>37356.0537</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-683800.6636</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>1.134563106796117</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1.047013977128336</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6236,7 +6414,7 @@
         <v>-683883.9036</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6269,7 +6447,7 @@
         <v>-695109.3472213591</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>

--- a/BackTest/2019-10-20 BackTest PST.xlsx
+++ b/BackTest/2019-10-20 BackTest PST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M174"/>
+  <dimension ref="A1:L174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>159.0823</v>
       </c>
       <c r="G2" t="n">
-        <v>-835653.5727</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>-835653.5727</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>-835642.5727</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2561.4701</v>
       </c>
       <c r="G5" t="n">
-        <v>-838204.0428000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1150874.3466</v>
       </c>
       <c r="G6" t="n">
-        <v>-838204.0428000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>458928.8405</v>
       </c>
       <c r="G7" t="n">
-        <v>-838204.0428000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>-838204.0428000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1085.2749</v>
       </c>
       <c r="G9" t="n">
-        <v>-837118.7679000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>115.7542</v>
       </c>
       <c r="G10" t="n">
-        <v>-837234.5221000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>248.2014</v>
       </c>
       <c r="G11" t="n">
-        <v>-837234.5221000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>352</v>
       </c>
       <c r="G12" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>968</v>
       </c>
       <c r="G13" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>12.88</v>
       </c>
       <c r="G14" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1121.3207</v>
       </c>
       <c r="G15" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>21.1985</v>
       </c>
       <c r="G16" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>466728.4013</v>
       </c>
       <c r="G17" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1429925.6504</v>
       </c>
       <c r="G18" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>371973.9023</v>
       </c>
       <c r="G19" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>36231.655</v>
       </c>
       <c r="G20" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1448629.6923</v>
       </c>
       <c r="G21" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1444418.1401</v>
       </c>
       <c r="G22" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1434756.4803</v>
       </c>
       <c r="G23" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1469191.5673</v>
       </c>
       <c r="G24" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1465847.2358</v>
       </c>
       <c r="G25" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1449558.60885</v>
       </c>
       <c r="G26" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1473403.1195</v>
       </c>
       <c r="G27" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1465847.2358</v>
       </c>
       <c r="G28" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1437481.5341</v>
       </c>
       <c r="G29" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1449248.97</v>
       </c>
       <c r="G30" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1458910.6298</v>
       </c>
       <c r="G31" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1458910.6298</v>
       </c>
       <c r="G32" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1454079.7999</v>
       </c>
       <c r="G33" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1458910.6298</v>
       </c>
       <c r="G34" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1444418.1401</v>
       </c>
       <c r="G35" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1469201.5673</v>
       </c>
       <c r="G36" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1458281.3521</v>
       </c>
       <c r="G37" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1449248.97</v>
       </c>
       <c r="G38" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1474032.3972</v>
       </c>
       <c r="G39" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>1449248.97</v>
       </c>
       <c r="G40" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1472773.8418</v>
       </c>
       <c r="G41" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1463741.4597</v>
       </c>
       <c r="G42" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1440216.5879</v>
       </c>
       <c r="G43" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1429296.3727</v>
       </c>
       <c r="G44" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1449878.2477</v>
       </c>
       <c r="G45" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1449248.97</v>
       </c>
       <c r="G46" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1448619.6923</v>
       </c>
       <c r="G47" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1454079.7999</v>
       </c>
       <c r="G48" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1449878.2477</v>
       </c>
       <c r="G49" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>357481.4126</v>
       </c>
       <c r="G50" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>145540.5244</v>
       </c>
       <c r="G51" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1472787.4921</v>
       </c>
       <c r="G52" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1449864.5974</v>
       </c>
       <c r="G53" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>280188.1342</v>
       </c>
       <c r="G54" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1184378.5361</v>
       </c>
       <c r="G55" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1450588.7498</v>
       </c>
       <c r="G56" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1462401.6799</v>
       </c>
       <c r="G57" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1439587.3102</v>
       </c>
       <c r="G58" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1468572.2896</v>
       </c>
       <c r="G59" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1450588.7498</v>
       </c>
       <c r="G60" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>158077.6069</v>
       </c>
       <c r="G61" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>942011.8305</v>
       </c>
       <c r="G62" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1429925.6504</v>
       </c>
       <c r="G63" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1454079.7999</v>
       </c>
       <c r="G64" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>1454079.7999</v>
       </c>
       <c r="G65" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1463741.4597</v>
       </c>
       <c r="G66" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1449248.97</v>
       </c>
       <c r="G67" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1425094.8205</v>
       </c>
       <c r="G68" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1415433.1607</v>
       </c>
       <c r="G69" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1439587.3102</v>
       </c>
       <c r="G70" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1425094.8205</v>
       </c>
       <c r="G71" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1444418.1401</v>
       </c>
       <c r="G72" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>942371.8305</v>
       </c>
       <c r="G73" t="n">
-        <v>-837586.5221000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>10.2439</v>
       </c>
       <c r="G74" t="n">
-        <v>-837576.2782000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>11678.4614</v>
       </c>
       <c r="G75" t="n">
-        <v>-849254.7396000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>11.156</v>
       </c>
       <c r="G76" t="n">
-        <v>-849254.7396000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>3982.9234</v>
       </c>
       <c r="G77" t="n">
-        <v>-849254.7396000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1723.2385</v>
       </c>
       <c r="G78" t="n">
-        <v>-850977.9781000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>581.9747</v>
       </c>
       <c r="G79" t="n">
-        <v>-851559.9528000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>219.7125</v>
       </c>
       <c r="G80" t="n">
-        <v>-851559.9528000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1260.8119</v>
       </c>
       <c r="G81" t="n">
-        <v>-850299.1409000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>5482.3987</v>
       </c>
       <c r="G82" t="n">
-        <v>-850299.1409000001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1698.3296</v>
       </c>
       <c r="G83" t="n">
-        <v>-851997.4705000002</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>5809.0526</v>
       </c>
       <c r="G84" t="n">
-        <v>-851997.4705000002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>448.380716934487</v>
       </c>
       <c r="G85" t="n">
-        <v>-851997.4705000002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>9874.055</v>
       </c>
       <c r="G86" t="n">
-        <v>-861871.5255000002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>4462.1688</v>
       </c>
       <c r="G87" t="n">
-        <v>-866333.6943000002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,19 @@
         <v>5493.6977</v>
       </c>
       <c r="G88" t="n">
-        <v>-860839.9966000002</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="I88" t="n">
+        <v>80</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3057,23 @@
         <v>43.2885</v>
       </c>
       <c r="G89" t="n">
-        <v>-860839.9966000002</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>81.8</v>
+      </c>
+      <c r="I89" t="n">
+        <v>80</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3095,21 @@
         <v>61.1246</v>
       </c>
       <c r="G90" t="n">
-        <v>-860839.9966000002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>80</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3131,15 @@
         <v>447.2598</v>
       </c>
       <c r="G91" t="n">
-        <v>-861287.2564000002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3161,15 @@
         <v>447</v>
       </c>
       <c r="G92" t="n">
-        <v>-860840.2564000002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3191,15 @@
         <v>104.152</v>
       </c>
       <c r="G93" t="n">
-        <v>-860944.4084000002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3221,15 @@
         <v>897.523</v>
       </c>
       <c r="G94" t="n">
-        <v>-861841.9314000002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3251,15 @@
         <v>1437.2359</v>
       </c>
       <c r="G95" t="n">
-        <v>-863279.1673000002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3281,15 @@
         <v>17258.2858</v>
       </c>
       <c r="G96" t="n">
-        <v>-880537.4531000002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3311,19 @@
         <v>13.0429</v>
       </c>
       <c r="G97" t="n">
-        <v>-880524.4102000002</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>79.3</v>
+      </c>
+      <c r="I97" t="n">
+        <v>79.3</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3345,23 @@
         <v>22.9729</v>
       </c>
       <c r="G98" t="n">
-        <v>-880524.4102000002</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="I98" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3383,23 @@
         <v>22.9606</v>
       </c>
       <c r="G99" t="n">
-        <v>-880524.4102000002</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="I99" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3421,15 @@
         <v>45.8187</v>
       </c>
       <c r="G100" t="n">
-        <v>-880570.2289000001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3451,15 @@
         <v>8378.296</v>
       </c>
       <c r="G101" t="n">
-        <v>-880570.2289000001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3481,19 @@
         <v>4700.7022</v>
       </c>
       <c r="G102" t="n">
-        <v>-875869.5267</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>79.5</v>
+      </c>
+      <c r="I102" t="n">
+        <v>79.5</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3515,23 @@
         <v>4.4397</v>
       </c>
       <c r="G103" t="n">
-        <v>-875865.0870000001</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="I103" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3553,23 @@
         <v>17.0515</v>
       </c>
       <c r="G104" t="n">
-        <v>-875848.0355000001</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>81.09999999999999</v>
+      </c>
+      <c r="I104" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3591,19 @@
         <v>782.6315</v>
       </c>
       <c r="G105" t="n">
-        <v>-875848.0355000001</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="I105" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3625,23 @@
         <v>12.555</v>
       </c>
       <c r="G106" t="n">
-        <v>-875835.4805000001</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="I106" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3663,21 @@
         <v>921.0189</v>
       </c>
       <c r="G107" t="n">
-        <v>-876756.4994000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3699,23 @@
         <v>1753</v>
       </c>
       <c r="G108" t="n">
-        <v>-876756.4994000001</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="I108" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3737,23 @@
         <v>2242.2476</v>
       </c>
       <c r="G109" t="n">
-        <v>-878998.7470000001</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="I109" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3775,23 @@
         <v>50</v>
       </c>
       <c r="G110" t="n">
-        <v>-879048.7470000001</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>81.09999999999999</v>
+      </c>
+      <c r="I110" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3813,23 @@
         <v>12.7244</v>
       </c>
       <c r="G111" t="n">
-        <v>-879036.0226000001</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>80.8</v>
+      </c>
+      <c r="I111" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3851,23 @@
         <v>8456.987499999999</v>
       </c>
       <c r="G112" t="n">
-        <v>-879036.0226000001</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>81.3</v>
+      </c>
+      <c r="I112" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3889,23 @@
         <v>19.0429</v>
       </c>
       <c r="G113" t="n">
-        <v>-879016.9797000001</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>81.3</v>
+      </c>
+      <c r="I113" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3927,21 @@
         <v>1821</v>
       </c>
       <c r="G114" t="n">
-        <v>-880837.9797000001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3963,21 @@
         <v>1689</v>
       </c>
       <c r="G115" t="n">
-        <v>-880837.9797000001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3999,21 @@
         <v>18353.301</v>
       </c>
       <c r="G116" t="n">
-        <v>-899191.2807000001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4035,21 @@
         <v>16.1963</v>
       </c>
       <c r="G117" t="n">
-        <v>-899175.0844000002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4071,21 @@
         <v>2000</v>
       </c>
       <c r="G118" t="n">
-        <v>-899175.0844000002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4107,21 @@
         <v>195.869</v>
       </c>
       <c r="G119" t="n">
-        <v>-899175.0844000002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4143,21 @@
         <v>1804.1965</v>
       </c>
       <c r="G120" t="n">
-        <v>-897370.8879000002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4179,21 @@
         <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>-897360.8879000002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4215,21 @@
         <v>1249.7802</v>
       </c>
       <c r="G122" t="n">
-        <v>-897360.8879000002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4251,21 @@
         <v>787.1559999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>-897360.8879000002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4287,21 @@
         <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>-897350.8879000002</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4323,21 @@
         <v>1000</v>
       </c>
       <c r="G125" t="n">
-        <v>-897350.8879000002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4359,21 @@
         <v>708</v>
       </c>
       <c r="G126" t="n">
-        <v>-896642.8879000002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,22 +4395,21 @@
         <v>708</v>
       </c>
       <c r="G127" t="n">
-        <v>-896642.8879000002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="J127" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4610,26 +4431,21 @@
         <v>1346.7484</v>
       </c>
       <c r="G128" t="n">
-        <v>-895296.1395000002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="J128" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4651,26 +4467,21 @@
         <v>5269.5648</v>
       </c>
       <c r="G129" t="n">
-        <v>-895296.1395000002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="J129" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4692,22 +4503,21 @@
         <v>3228.796</v>
       </c>
       <c r="G130" t="n">
-        <v>-895296.1395000002</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="J130" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4729,26 +4539,21 @@
         <v>10515.1578</v>
       </c>
       <c r="G131" t="n">
-        <v>-884780.9817000001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="J131" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4770,26 +4575,21 @@
         <v>11889.2487</v>
       </c>
       <c r="G132" t="n">
-        <v>-872891.7330000001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4811,26 +4611,21 @@
         <v>9314.753699999999</v>
       </c>
       <c r="G133" t="n">
-        <v>-863576.9793000001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="J133" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4852,26 +4647,21 @@
         <v>176.4502</v>
       </c>
       <c r="G134" t="n">
-        <v>-863576.9793000001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="J134" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4893,26 +4683,21 @@
         <v>1840.3384</v>
       </c>
       <c r="G135" t="n">
-        <v>-863576.9793000001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="J135" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4934,26 +4719,21 @@
         <v>121.512</v>
       </c>
       <c r="G136" t="n">
-        <v>-863455.4673000001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="J136" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4975,26 +4755,21 @@
         <v>7660.0352</v>
       </c>
       <c r="G137" t="n">
-        <v>-863455.4673000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>85</v>
-      </c>
-      <c r="J137" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5016,26 +4791,21 @@
         <v>880.1351</v>
       </c>
       <c r="G138" t="n">
-        <v>-863455.4673000001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
-        <v>85</v>
-      </c>
-      <c r="J138" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5057,26 +4827,21 @@
         <v>600</v>
       </c>
       <c r="G139" t="n">
-        <v>-863455.4673000001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>85</v>
-      </c>
-      <c r="J139" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5098,26 +4863,21 @@
         <v>16.7388</v>
       </c>
       <c r="G140" t="n">
-        <v>-863438.7285000001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>85</v>
-      </c>
-      <c r="J140" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5139,26 +4899,21 @@
         <v>100.7611</v>
       </c>
       <c r="G141" t="n">
-        <v>-863438.7285000001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="J141" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5180,26 +4935,21 @@
         <v>544</v>
       </c>
       <c r="G142" t="n">
-        <v>-862894.7285000001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="J142" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5221,26 +4971,21 @@
         <v>4990.2597</v>
       </c>
       <c r="G143" t="n">
-        <v>-862894.7285000001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="J143" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5262,26 +5007,21 @@
         <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>-862884.7285000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="J144" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5303,26 +5043,21 @@
         <v>11.64144353899884</v>
       </c>
       <c r="G145" t="n">
-        <v>-862884.7285000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="J145" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5344,26 +5079,21 @@
         <v>29210.2444</v>
       </c>
       <c r="G146" t="n">
-        <v>-833674.4841000001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="J146" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5385,26 +5115,21 @@
         <v>9413.382600000001</v>
       </c>
       <c r="G147" t="n">
-        <v>-843087.8667000001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>86</v>
-      </c>
-      <c r="J147" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5426,26 +5151,21 @@
         <v>300</v>
       </c>
       <c r="G148" t="n">
-        <v>-842787.8667000001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="J148" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5467,26 +5187,21 @@
         <v>10.9856</v>
       </c>
       <c r="G149" t="n">
-        <v>-842776.8811000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="J149" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5508,24 +5223,21 @@
         <v>144.0144</v>
       </c>
       <c r="G150" t="n">
-        <v>-842776.8811000001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5547,24 +5259,21 @@
         <v>210.1234</v>
       </c>
       <c r="G151" t="n">
-        <v>-842566.7577000001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5586,24 +5295,21 @@
         <v>80.6768</v>
       </c>
       <c r="G152" t="n">
-        <v>-842647.4345000001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5625,24 +5331,21 @@
         <v>737.225</v>
       </c>
       <c r="G153" t="n">
-        <v>-841910.2095000001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5664,26 +5367,21 @@
         <v>1333</v>
       </c>
       <c r="G154" t="n">
-        <v>-840577.2095000001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
-        <v>86</v>
-      </c>
-      <c r="J154" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5705,26 +5403,21 @@
         <v>39821.4396</v>
       </c>
       <c r="G155" t="n">
-        <v>-800755.7699000001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>86.3</v>
-      </c>
-      <c r="J155" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5746,24 +5439,21 @@
         <v>26.9658</v>
       </c>
       <c r="G156" t="n">
-        <v>-800755.7699000001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5785,24 +5475,21 @@
         <v>2000.9464</v>
       </c>
       <c r="G157" t="n">
-        <v>-798754.8235000001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5824,24 +5511,21 @@
         <v>4489.8896</v>
       </c>
       <c r="G158" t="n">
-        <v>-794264.9339000001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5863,24 +5547,21 @@
         <v>7182.3317</v>
       </c>
       <c r="G159" t="n">
-        <v>-794264.9339000001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5902,24 +5583,21 @@
         <v>2931.867414142539</v>
       </c>
       <c r="G160" t="n">
-        <v>-791333.0664858575</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5941,24 +5619,21 @@
         <v>3987.6044</v>
       </c>
       <c r="G161" t="n">
-        <v>-787345.4620858575</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5980,24 +5655,21 @@
         <v>5556.0859</v>
       </c>
       <c r="G162" t="n">
-        <v>-792901.5479858575</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6019,24 +5691,21 @@
         <v>9321.741714492753</v>
       </c>
       <c r="G163" t="n">
-        <v>-783579.8062713647</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6058,24 +5727,21 @@
         <v>447.617</v>
       </c>
       <c r="G164" t="n">
-        <v>-783579.8062713647</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6097,24 +5763,21 @@
         <v>254.2645</v>
       </c>
       <c r="G165" t="n">
-        <v>-783579.8062713647</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6136,24 +5799,21 @@
         <v>3225.838485507246</v>
       </c>
       <c r="G166" t="n">
-        <v>-780353.9677858574</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6175,24 +5835,21 @@
         <v>32532.52978585746</v>
       </c>
       <c r="G167" t="n">
-        <v>-747821.438</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6214,24 +5871,21 @@
         <v>40162.498</v>
       </c>
       <c r="G168" t="n">
-        <v>-747821.438</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6253,24 +5907,21 @@
         <v>15781.8562</v>
       </c>
       <c r="G169" t="n">
-        <v>-747821.438</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6292,24 +5943,21 @@
         <v>8733.8485</v>
       </c>
       <c r="G170" t="n">
-        <v>-739087.5895</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6331,24 +5979,21 @@
         <v>17930.8722</v>
       </c>
       <c r="G171" t="n">
-        <v>-721156.7173</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6370,26 +6015,21 @@
         <v>37356.0537</v>
       </c>
       <c r="G172" t="n">
-        <v>-683800.6636</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1.134563106796117</v>
-      </c>
-      <c r="M172" t="n">
-        <v>1.047013977128336</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6411,18 +6051,23 @@
         <v>83.23999999999999</v>
       </c>
       <c r="G173" t="n">
-        <v>-683883.9036</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1.136277641277641</v>
+      </c>
       <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>1.04574332909784</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6444,18 +6089,15 @@
         <v>11225.44362135922</v>
       </c>
       <c r="G174" t="n">
-        <v>-695109.3472213591</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
